--- a/Test Case - 3/TC3_Results_E.xlsx
+++ b/Test Case - 3/TC3_Results_E.xlsx
@@ -1506,36 +1506,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1621,6 +1591,36 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2403,7 +2403,7 @@
   <dimension ref="A1:R112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3482,13 +3482,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="11">
-        <v>7.7</v>
+        <v>7.54</v>
       </c>
       <c r="C22" s="11">
-        <v>12.5</v>
+        <v>12.57</v>
       </c>
       <c r="D22" s="11">
-        <v>30</v>
+        <v>30.15</v>
       </c>
       <c r="E22" s="11">
         <v>7.5</v>
@@ -3506,14 +3506,14 @@
         <v>86</v>
       </c>
       <c r="J22" s="11">
-        <v>1</v>
+        <v>1.46</v>
       </c>
       <c r="K22" s="11">
         <v>1.48401472</v>
       </c>
       <c r="L22" s="11" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="11">
         <v>10.09</v>
@@ -3524,13 +3524,7 @@
       <c r="O22" s="11">
         <v>35.152000000000001</v>
       </c>
-      <c r="P22" s="2">
-        <f>0.9*((O22-D22)^0.51)*((SQRT((M22-B22)^2+(N22-C22)^2)^(-0.35)))</f>
-        <v>1.5304883323486536</v>
-      </c>
-      <c r="Q22" s="10" t="b">
-        <v>0</v>
-      </c>
+      <c r="Q22"/>
       <c r="R22" s="10" t="s">
         <v>18</v>
       </c>
@@ -3675,6 +3669,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="Q25" s="10" t="b">
+        <v>1</v>
+      </c>
       <c r="R25" s="10" t="s">
         <v>24</v>
       </c>
@@ -4235,7 +4232,7 @@
         <v>0</v>
       </c>
       <c r="Q36" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" s="10" t="s">
         <v>18</v>
@@ -4645,13 +4642,6 @@
       <c r="O44" s="11">
         <v>32.652000000000001</v>
       </c>
-      <c r="P44" s="2">
-        <f>0.9*((O44-D44)^0.51)*((SQRT((M44-B44)^2+(N44-C44)^2)^(-0.35)))</f>
-        <v>0.95002091522591725</v>
-      </c>
-      <c r="Q44" s="10" t="b">
-        <v>1</v>
-      </c>
       <c r="R44" s="10" t="s">
         <v>18</v>
       </c>
@@ -6768,6 +6758,13 @@
       </c>
       <c r="O84" s="11">
         <v>37.652000000000001</v>
+      </c>
+      <c r="P84" s="2">
+        <f>0.9*((O84-D84)^0.51)*((SQRT((M84-B84)^2+(N84-C84)^2)^(-0.35)))</f>
+        <v>1.0733170653684889</v>
+      </c>
+      <c r="Q84" s="10" t="b">
+        <v>1</v>
       </c>
       <c r="R84" s="10" t="s">
         <v>53</v>
@@ -7973,47 +7970,47 @@
     <mergeCell ref="M1:M2"/>
   </mergeCells>
   <conditionalFormatting sqref="M3:M24 R25 M26:M35 R36 M37:M90 R91:R110">
-    <cfRule type="cellIs" dxfId="70" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="95" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="96" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="88" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="68" priority="97" operator="greaterThan">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L112">
-    <cfRule type="cellIs" dxfId="67" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="81" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="82" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q35">
-    <cfRule type="cellIs" dxfId="65" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="75" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="76" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="68" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="63" priority="77" operator="greaterThan">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q44">
-    <cfRule type="cellIs" dxfId="62" priority="57" operator="equal">
+  <conditionalFormatting sqref="Q45">
+    <cfRule type="cellIs" dxfId="62" priority="63" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="64" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="59" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="65" operator="greaterThan">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q36">
+  <conditionalFormatting sqref="Q85">
     <cfRule type="cellIs" dxfId="59" priority="60" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
@@ -8024,161 +8021,163 @@
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q45">
-    <cfRule type="cellIs" dxfId="56" priority="54" operator="equal">
+  <conditionalFormatting sqref="Q100">
+    <cfRule type="cellIs" dxfId="56" priority="57" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="58" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="56" operator="greaterThan">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q85">
-    <cfRule type="cellIs" dxfId="53" priority="51" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="52" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="53" operator="greaterThan">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q100">
-    <cfRule type="cellIs" dxfId="50" priority="48" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="49" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="59" operator="greaterThan">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q47">
-    <cfRule type="cellIs" dxfId="47" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="54" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="55" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="47" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="56" operator="greaterThan">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q50">
-    <cfRule type="cellIs" dxfId="44" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="51" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="52" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="53" operator="greaterThan">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q52">
-    <cfRule type="cellIs" dxfId="41" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="48" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="49" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="50" operator="greaterThan">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q54">
-    <cfRule type="cellIs" dxfId="38" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="45" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="46" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="47" operator="greaterThan">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q56">
-    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="42" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="43" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="44" operator="greaterThan">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q60">
-    <cfRule type="cellIs" dxfId="32" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="40" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="41" operator="greaterThan">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q62">
-    <cfRule type="cellIs" dxfId="29" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="37" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="38" operator="greaterThan">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q77">
-    <cfRule type="cellIs" dxfId="26" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="34" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="35" operator="greaterThan">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q78">
-    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="31" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="32" operator="greaterThan">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q82">
-    <cfRule type="cellIs" dxfId="20" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="28" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="29" operator="greaterThan">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q88">
-    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="25" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="26" operator="greaterThan">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q22">
+  <conditionalFormatting sqref="Q14">
+    <cfRule type="cellIs" dxfId="20" priority="14" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q18">
+    <cfRule type="cellIs" dxfId="18" priority="12" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q20">
+    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q36">
     <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
@@ -8189,27 +8188,25 @@
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q14">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+  <conditionalFormatting sqref="Q25">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="greaterThan">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q18">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+  <conditionalFormatting sqref="Q84">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q20">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="greaterThan">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8221,8 +8218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8772,10 +8769,15 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
       <c r="J10" s="6"/>
       <c r="R10" s="10"/>
       <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
+      <c r="T10" s="10" t="b">
+        <v>1</v>
+      </c>
       <c r="V10" s="3" t="s">
         <v>130</v>
       </c>
@@ -9007,10 +9009,10 @@
         <v>5.2717991775013404</v>
       </c>
       <c r="K14" s="3">
-        <v>4.6143465762141398</v>
+        <v>5.3021987090120497</v>
       </c>
       <c r="L14" s="3">
-        <v>2.3659183666169099</v>
+        <v>2.71860145351204</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>130</v>
@@ -9033,7 +9035,7 @@
       </c>
       <c r="S14" s="9" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" s="9" t="b">
         <f t="shared" si="3"/>
@@ -9149,10 +9151,10 @@
         <v>5.2717991775013404</v>
       </c>
       <c r="K16" s="3">
-        <v>4.6143465762141398</v>
+        <v>5.3021987090120497</v>
       </c>
       <c r="L16" s="3">
-        <v>2.3659183666169099</v>
+        <v>2.71860145351204</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>130</v>
@@ -9175,7 +9177,7 @@
       </c>
       <c r="S16" s="9" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" s="9" t="b">
         <f t="shared" si="3"/>
@@ -9291,10 +9293,10 @@
         <v>5.2717991775013404</v>
       </c>
       <c r="K18" s="3">
-        <v>4.6143465762141398</v>
+        <v>5.3021987090120497</v>
       </c>
       <c r="L18" s="3">
-        <v>2.3659183666169099</v>
+        <v>2.71860145351204</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>130</v>
@@ -9317,7 +9319,7 @@
       </c>
       <c r="S18" s="9" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" s="9" t="b">
         <f t="shared" si="3"/>
@@ -9362,10 +9364,10 @@
         <v>6.7568273967598698</v>
       </c>
       <c r="K19" s="3">
-        <v>4.0951600488032103</v>
+        <v>6.7741184759453796</v>
       </c>
       <c r="L19" s="3">
-        <v>2.3659183756864199</v>
+        <v>3.91364713230193</v>
       </c>
       <c r="M19" s="3" t="s">
         <v>130</v>
@@ -9388,7 +9390,7 @@
       </c>
       <c r="S19" s="9" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" s="9" t="b">
         <f t="shared" si="3"/>
@@ -9504,10 +9506,10 @@
         <v>6.7568273967598698</v>
       </c>
       <c r="K21" s="3">
-        <v>4.0951600488032103</v>
+        <v>6.7741184759453796</v>
       </c>
       <c r="L21" s="3">
-        <v>2.3659183756864199</v>
+        <v>3.91364713230193</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>130</v>
@@ -9530,7 +9532,7 @@
       </c>
       <c r="S21" s="9" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21" s="9" t="b">
         <f t="shared" si="3"/>
@@ -9646,10 +9648,10 @@
         <v>6.7568273967598698</v>
       </c>
       <c r="K23" s="3">
-        <v>4.0951600488032103</v>
+        <v>6.7741184759453796</v>
       </c>
       <c r="L23" s="3">
-        <v>2.3659183756864199</v>
+        <v>3.91364713230193</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>130</v>
@@ -9672,7 +9674,7 @@
       </c>
       <c r="S23" s="9" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" s="9" t="b">
         <f t="shared" si="3"/>
@@ -9805,8 +9807,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="9" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25" s="3" t="s">
         <v>24</v>
@@ -10526,8 +10527,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="9" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U36" s="3" t="s">
         <v>18</v>
@@ -11153,10 +11153,10 @@
         <v>7.2611641048888602</v>
       </c>
       <c r="K46" s="3">
-        <v>4.1787243693587302</v>
+        <v>7.2784941780400896</v>
       </c>
       <c r="L46" s="3">
-        <v>2.4581624839479099</v>
+        <v>4.2816227505422004</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>130</v>
@@ -11179,7 +11179,7 @@
       </c>
       <c r="S46" s="9" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T46" s="9" t="b">
         <f t="shared" si="3"/>
@@ -11295,10 +11295,10 @@
         <v>7.2611641048888602</v>
       </c>
       <c r="K48" s="3">
-        <v>4.1787243693587302</v>
+        <v>7.2784941780400896</v>
       </c>
       <c r="L48" s="3">
-        <v>2.4581624839479099</v>
+        <v>4.2816227505422004</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>130</v>
@@ -11321,7 +11321,7 @@
       </c>
       <c r="S48" s="9" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T48" s="9" t="b">
         <f t="shared" si="3"/>
@@ -11437,10 +11437,10 @@
         <v>7.2611641048888602</v>
       </c>
       <c r="K50" s="3">
-        <v>4.1787243693587302</v>
+        <v>7.2784941780400896</v>
       </c>
       <c r="L50" s="3">
-        <v>2.4581624839479099</v>
+        <v>4.2816227505422004</v>
       </c>
       <c r="M50" s="3" t="s">
         <v>130</v>
@@ -11463,7 +11463,7 @@
       </c>
       <c r="S50" s="9" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T50" s="9" t="b">
         <f t="shared" si="3"/>
@@ -12873,10 +12873,10 @@
         <v>7.5929160335216999</v>
       </c>
       <c r="K72" s="3">
-        <v>4.1842499858115696</v>
+        <v>7.60978102151575</v>
       </c>
       <c r="L72" s="3">
-        <v>2.5039841362289201</v>
+        <v>4.5539274715096898</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>130</v>
@@ -12899,7 +12899,7 @@
       </c>
       <c r="S72" s="9" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T72" s="9" t="b">
         <f t="shared" si="6"/>
@@ -12944,10 +12944,10 @@
         <v>7.5929160335216999</v>
       </c>
       <c r="K73" s="3">
-        <v>4.1842499858115696</v>
+        <v>7.60978102151575</v>
       </c>
       <c r="L73" s="3">
-        <v>2.5039841362289201</v>
+        <v>4.5539274715096898</v>
       </c>
       <c r="M73" s="3" t="s">
         <v>130</v>
@@ -12970,7 +12970,7 @@
       </c>
       <c r="S73" s="9" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T73" s="9" t="b">
         <f t="shared" si="6"/>
@@ -13015,10 +13015,10 @@
         <v>7.5929160335216999</v>
       </c>
       <c r="K74" s="3">
-        <v>4.1842499858115696</v>
+        <v>7.60978102151575</v>
       </c>
       <c r="L74" s="3">
-        <v>2.5039841362289201</v>
+        <v>4.5539274715096898</v>
       </c>
       <c r="M74" s="3" t="s">
         <v>130</v>
@@ -13041,7 +13041,7 @@
       </c>
       <c r="S74" s="9" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T74" s="9" t="b">
         <f t="shared" si="6"/>
@@ -13086,10 +13086,10 @@
         <v>7.5929160335216999</v>
       </c>
       <c r="K75" s="3">
-        <v>4.1842499858115696</v>
+        <v>7.60978102151575</v>
       </c>
       <c r="L75" s="3">
-        <v>2.5039841362289201</v>
+        <v>4.5539274715096898</v>
       </c>
       <c r="M75" s="3" t="s">
         <v>130</v>
@@ -13112,11 +13112,11 @@
       </c>
       <c r="S75" s="9" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T75" s="9" t="b">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U75" s="3" t="s">
         <v>53</v>
@@ -13352,10 +13352,10 @@
         <v>7.5929160335216999</v>
       </c>
       <c r="K79" s="3">
-        <v>4.1842499858115696</v>
+        <v>7.60978102151575</v>
       </c>
       <c r="L79" s="3">
-        <v>2.5039841362289201</v>
+        <v>4.5539274715096898</v>
       </c>
       <c r="M79" s="3" t="s">
         <v>130</v>
@@ -13378,11 +13378,11 @@
       </c>
       <c r="S79" s="9" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T79" s="9" t="b">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U79" s="3" t="s">
         <v>53</v>
@@ -13423,10 +13423,10 @@
         <v>7.5929160335216999</v>
       </c>
       <c r="K80" s="3">
-        <v>4.1842499858115696</v>
+        <v>7.60978102151575</v>
       </c>
       <c r="L80" s="3">
-        <v>2.5039841362289201</v>
+        <v>4.5539274715096898</v>
       </c>
       <c r="M80" s="3" t="s">
         <v>130</v>
@@ -13449,7 +13449,7 @@
       </c>
       <c r="S80" s="9" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T80" s="9" t="b">
         <f t="shared" si="6"/>
@@ -13494,10 +13494,10 @@
         <v>7.5929160335216999</v>
       </c>
       <c r="K81" s="3">
-        <v>4.1842499858115696</v>
+        <v>7.60978102151575</v>
       </c>
       <c r="L81" s="3">
-        <v>2.5039841362289201</v>
+        <v>4.5539274715096898</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>130</v>
@@ -13520,7 +13520,7 @@
       </c>
       <c r="S81" s="9" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T81" s="9" t="b">
         <f t="shared" si="6"/>
@@ -13565,10 +13565,10 @@
         <v>7.5929160335216999</v>
       </c>
       <c r="K82" s="3">
-        <v>4.1842499858115696</v>
+        <v>7.60978102151575</v>
       </c>
       <c r="L82" s="3">
-        <v>2.5039841362289201</v>
+        <v>4.5539274715096898</v>
       </c>
       <c r="M82" s="3" t="s">
         <v>130</v>
@@ -13591,7 +13591,7 @@
       </c>
       <c r="S82" s="9" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T82" s="9" t="b">
         <f t="shared" si="6"/>
@@ -13636,10 +13636,10 @@
         <v>7.5929160335216999</v>
       </c>
       <c r="K83" s="3">
-        <v>4.1842499858115696</v>
+        <v>7.60978102151575</v>
       </c>
       <c r="L83" s="3">
-        <v>2.5039841362289201</v>
+        <v>4.5539274715096898</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>130</v>
@@ -13662,11 +13662,11 @@
       </c>
       <c r="S83" s="9" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T83" s="9" t="b">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>53</v>
@@ -13967,10 +13967,10 @@
         <v>7.5929160335216999</v>
       </c>
       <c r="K88" s="3">
-        <v>4.1842499858115696</v>
+        <v>7.60978102151575</v>
       </c>
       <c r="L88" s="3">
-        <v>2.5039841362289201</v>
+        <v>4.5539274715096898</v>
       </c>
       <c r="M88" s="3" t="s">
         <v>130</v>
@@ -13993,7 +13993,7 @@
       </c>
       <c r="S88" s="9" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T88" s="9" t="b">
         <f t="shared" si="6"/>
@@ -14038,10 +14038,10 @@
         <v>7.5929160335216999</v>
       </c>
       <c r="K89" s="3">
-        <v>4.1842499858115696</v>
+        <v>7.60978102151575</v>
       </c>
       <c r="L89" s="3">
-        <v>2.5039841362289201</v>
+        <v>4.5539274715096898</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>130</v>
@@ -14064,7 +14064,7 @@
       </c>
       <c r="S89" s="9" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T89" s="9" t="b">
         <f t="shared" si="6"/>
@@ -14109,10 +14109,10 @@
         <v>7.5929160335216999</v>
       </c>
       <c r="K90" s="3">
-        <v>4.1842499858115696</v>
+        <v>7.60978102151575</v>
       </c>
       <c r="L90" s="3">
-        <v>2.5039841362289201</v>
+        <v>4.5539274715096898</v>
       </c>
       <c r="M90" s="3" t="s">
         <v>130</v>
@@ -14135,7 +14135,7 @@
       </c>
       <c r="S90" s="9" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T90" s="9" t="b">
         <f t="shared" si="6"/>
@@ -14251,10 +14251,10 @@
         <v>8.3516997011313592</v>
       </c>
       <c r="K92" s="3">
-        <v>4.3656152047128396</v>
+        <v>8.3692876601374699</v>
       </c>
       <c r="L92" s="3">
-        <v>2.6551469810672699</v>
+        <v>5.0901620556270002</v>
       </c>
       <c r="M92" s="3" t="s">
         <v>130</v>
@@ -14277,7 +14277,7 @@
       </c>
       <c r="S92" s="9" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T92" s="9" t="b">
         <f t="shared" si="6"/>
@@ -14322,10 +14322,10 @@
         <v>8.3516997011313592</v>
       </c>
       <c r="K93" s="3">
-        <v>4.3656152047128396</v>
+        <v>8.3692876601374699</v>
       </c>
       <c r="L93" s="3">
-        <v>2.6551469810672699</v>
+        <v>5.0901620556270002</v>
       </c>
       <c r="M93" s="3" t="s">
         <v>130</v>
@@ -14348,7 +14348,7 @@
       </c>
       <c r="S93" s="9" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T93" s="9" t="b">
         <f t="shared" si="6"/>
@@ -14393,10 +14393,10 @@
         <v>8.3516997011313592</v>
       </c>
       <c r="K94" s="3">
-        <v>4.3656152047128396</v>
+        <v>8.3692876601374699</v>
       </c>
       <c r="L94" s="3">
-        <v>2.6551469810672699</v>
+        <v>5.0901620556270002</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>130</v>
@@ -14419,7 +14419,7 @@
       </c>
       <c r="S94" s="9" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T94" s="9" t="b">
         <f t="shared" si="6"/>
@@ -14535,10 +14535,10 @@
         <v>8.3516997011313592</v>
       </c>
       <c r="K96" s="3">
-        <v>4.3656152047128396</v>
+        <v>8.3692876601374699</v>
       </c>
       <c r="L96" s="3">
-        <v>2.6551469810672699</v>
+        <v>5.0901620556270002</v>
       </c>
       <c r="M96" s="3" t="s">
         <v>130</v>
@@ -14561,7 +14561,7 @@
       </c>
       <c r="S96" s="9" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T96" s="9" t="b">
         <f t="shared" si="6"/>
@@ -14677,10 +14677,10 @@
         <v>8.3516997011313592</v>
       </c>
       <c r="K98" s="3">
-        <v>4.3656152047128396</v>
+        <v>8.3692876601374699</v>
       </c>
       <c r="L98" s="3">
-        <v>2.6551469810672699</v>
+        <v>5.0901620556270002</v>
       </c>
       <c r="M98" s="3" t="s">
         <v>130</v>
@@ -14703,7 +14703,7 @@
       </c>
       <c r="S98" s="9" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T98" s="9" t="b">
         <f t="shared" si="6"/>
@@ -14748,10 +14748,10 @@
         <v>8.3516997011313592</v>
       </c>
       <c r="K99" s="3">
-        <v>4.3656152047128396</v>
+        <v>8.3692876601374699</v>
       </c>
       <c r="L99" s="3">
-        <v>2.6551469810672699</v>
+        <v>5.0901620556270002</v>
       </c>
       <c r="M99" s="3" t="s">
         <v>130</v>
@@ -14774,7 +14774,7 @@
       </c>
       <c r="S99" s="9" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T99" s="9" t="b">
         <f t="shared" si="6"/>
@@ -14848,8 +14848,7 @@
         <v>0</v>
       </c>
       <c r="T100" s="9" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U100" s="3" t="s">
         <v>94</v>
@@ -14961,10 +14960,10 @@
         <v>8.3516997011313592</v>
       </c>
       <c r="K102" s="3">
-        <v>4.3656152047128396</v>
+        <v>8.3692876601374699</v>
       </c>
       <c r="L102" s="3">
-        <v>2.6551469810672699</v>
+        <v>5.0901620556270002</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>130</v>
@@ -14987,7 +14986,7 @@
       </c>
       <c r="S102" s="9" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T102" s="9" t="b">
         <f t="shared" si="6"/>
@@ -15103,10 +15102,10 @@
         <v>8.3539121675145704</v>
       </c>
       <c r="K104" s="3">
-        <v>4.36651286088318</v>
+        <v>8.3715059279100306</v>
       </c>
       <c r="L104" s="3">
-        <v>2.6556929313993498</v>
+        <v>5.0915111958290904</v>
       </c>
       <c r="M104" s="3" t="s">
         <v>130</v>
@@ -15129,7 +15128,7 @@
       </c>
       <c r="S104" s="9" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T104" s="9" t="b">
         <f t="shared" si="6"/>
@@ -15174,10 +15173,10 @@
         <v>8.3539121675145704</v>
       </c>
       <c r="K105" s="3">
-        <v>4.36651286088318</v>
+        <v>8.3715059279100306</v>
       </c>
       <c r="L105" s="3">
-        <v>2.6556929313993498</v>
+        <v>5.0915111958290904</v>
       </c>
       <c r="M105" s="3" t="s">
         <v>130</v>
@@ -15200,7 +15199,7 @@
       </c>
       <c r="S105" s="9" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T105" s="9" t="b">
         <f t="shared" si="6"/>
@@ -15245,10 +15244,10 @@
         <v>8.3539121675145704</v>
       </c>
       <c r="K106" s="3">
-        <v>4.36651286088318</v>
+        <v>8.3715059279100306</v>
       </c>
       <c r="L106" s="3">
-        <v>2.6556929313993498</v>
+        <v>5.0915111958290904</v>
       </c>
       <c r="M106" s="3" t="s">
         <v>130</v>
@@ -15271,7 +15270,7 @@
       </c>
       <c r="S106" s="9" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T106" s="9" t="b">
         <f t="shared" si="6"/>
@@ -15387,10 +15386,10 @@
         <v>8.3539121675145704</v>
       </c>
       <c r="K108" s="3">
-        <v>4.36651286088318</v>
+        <v>8.3715059279100306</v>
       </c>
       <c r="L108" s="3">
-        <v>2.6556929313993498</v>
+        <v>5.0915111958290904</v>
       </c>
       <c r="M108" s="3" t="s">
         <v>130</v>
@@ -15413,7 +15412,7 @@
       </c>
       <c r="S108" s="9" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T108" s="9" t="b">
         <f t="shared" si="6"/>
@@ -15529,10 +15528,10 @@
         <v>8.3539121675145704</v>
       </c>
       <c r="K110" s="3">
-        <v>4.36651286088318</v>
+        <v>8.3715059279100306</v>
       </c>
       <c r="L110" s="3">
-        <v>2.6556929313993498</v>
+        <v>5.0915111958290904</v>
       </c>
       <c r="M110" s="3" t="s">
         <v>130</v>
@@ -15555,7 +15554,7 @@
       </c>
       <c r="S110" s="9" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T110" s="9" t="b">
         <f t="shared" si="6"/>
@@ -15618,7 +15617,7 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="O7" sqref="O7:Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Test Case - 3/TC3_Results_E.xlsx
+++ b/Test Case - 3/TC3_Results_E.xlsx
@@ -9,19 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="12390" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="12390" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Reductive" sheetId="1" r:id="rId1"/>
     <sheet name="Multiplicative" sheetId="2" r:id="rId2"/>
-    <sheet name="Levels" sheetId="3" r:id="rId3"/>
+    <sheet name="Air Terminals" sheetId="4" r:id="rId3"/>
+    <sheet name="Levels" sheetId="3" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="241">
   <si>
     <t>35944b38-bb17-407d-9de2-3b397ba0a879</t>
   </si>
@@ -691,6 +695,60 @@
   <si>
     <t xml:space="preserve"> Values : [20.108000755310055</t>
   </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Rectangular Edge</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Not Prot</t>
+  </si>
+  <si>
+    <t>Rectangular Middle</t>
+  </si>
+  <si>
+    <t>QA ----&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Overall Terminal Hieght</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>Height of Attractive Radious zr (m)</t>
+  </si>
+  <si>
+    <t>%E</t>
+  </si>
+  <si>
+    <t>Attractive Radius RA (m)</t>
+  </si>
+  <si>
+    <t>Derating Angle</t>
+  </si>
+  <si>
+    <t>Ki Total Contributions</t>
+  </si>
+  <si>
+    <t>Ki Total Multiplicative</t>
+  </si>
+  <si>
+    <t>Ki Total Reductive</t>
+  </si>
+  <si>
+    <t>Striking Distance ds (m)</t>
+  </si>
 </sst>
 </file>
 
@@ -832,7 +890,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1012,8 +1070,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1245,6 +1309,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1290,7 +1369,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1351,6 +1430,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1367,6 +1449,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2137,6 +2240,8554 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Input Data"/>
+      <sheetName val="Mult"/>
+      <sheetName val="Reductive"/>
+      <sheetName val="Results"/>
+      <sheetName val="Plot"/>
+      <sheetName val="QA Results"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Point #</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>Building</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>Level</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>x (m)</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>y (m)</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>z (m)</v>
+          </cell>
+          <cell r="G1" t="str">
+            <v>Level Min Width</v>
+          </cell>
+          <cell r="H1" t="str">
+            <v>Level Height</v>
+          </cell>
+          <cell r="I1" t="str">
+            <v>Air Terminal Height</v>
+          </cell>
+          <cell r="J1" t="str">
+            <v>Air Terminal Type</v>
+          </cell>
+          <cell r="K1" t="str">
+            <v>POI Location Type</v>
+          </cell>
+          <cell r="L1" t="str">
+            <v>Extended?</v>
+          </cell>
+          <cell r="M1" t="str">
+            <v>Gable Pitch</v>
+          </cell>
+          <cell r="N1" t="str">
+            <v>Protected?</v>
+          </cell>
+          <cell r="O1" t="str">
+            <v>Copy Me -&gt;</v>
+          </cell>
+          <cell r="P1" t="str">
+            <v>Terminal</v>
+          </cell>
+          <cell r="Q1" t="str">
+            <v>Ki</v>
+          </cell>
+          <cell r="R1" t="str">
+            <v>Height</v>
+          </cell>
+          <cell r="S1" t="str">
+            <v>LPL</v>
+          </cell>
+          <cell r="T1" t="str">
+            <v>ds</v>
+          </cell>
+          <cell r="U1" t="str">
+            <v>zm</v>
+          </cell>
+          <cell r="V1" t="str">
+            <v>z0</v>
+          </cell>
+          <cell r="W1" t="str">
+            <v>RA</v>
+          </cell>
+          <cell r="X1" t="str">
+            <v>zr</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>1</v>
+          </cell>
+          <cell r="B2">
+            <v>1</v>
+          </cell>
+          <cell r="C2">
+            <v>1</v>
+          </cell>
+          <cell r="D2">
+            <v>0</v>
+          </cell>
+          <cell r="E2">
+            <v>20</v>
+          </cell>
+          <cell r="F2">
+            <v>10</v>
+          </cell>
+          <cell r="G2">
+            <v>20</v>
+          </cell>
+          <cell r="H2">
+            <v>10</v>
+          </cell>
+          <cell r="I2" t="str">
+            <v/>
+          </cell>
+          <cell r="J2" t="str">
+            <v/>
+          </cell>
+          <cell r="K2" t="str">
+            <v>Rectangular Corner</v>
+          </cell>
+          <cell r="L2" t="str">
+            <v>Yes</v>
+          </cell>
+          <cell r="M2">
+            <v>0</v>
+          </cell>
+          <cell r="N2" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P2">
+            <v>1</v>
+          </cell>
+          <cell r="Q2">
+            <v>2.0366031360588885</v>
+          </cell>
+          <cell r="R2">
+            <v>10</v>
+          </cell>
+          <cell r="S2">
+            <v>1</v>
+          </cell>
+          <cell r="T2">
+            <v>0.6</v>
+          </cell>
+          <cell r="U2">
+            <v>0.37</v>
+          </cell>
+          <cell r="V2">
+            <v>5.23</v>
+          </cell>
+          <cell r="W2">
+            <v>0.6</v>
+          </cell>
+          <cell r="X2">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>2</v>
+          </cell>
+          <cell r="B3">
+            <v>1</v>
+          </cell>
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+          <cell r="D3">
+            <v>0</v>
+          </cell>
+          <cell r="E3">
+            <v>17.5</v>
+          </cell>
+          <cell r="F3">
+            <v>10</v>
+          </cell>
+          <cell r="G3">
+            <v>20</v>
+          </cell>
+          <cell r="H3">
+            <v>10</v>
+          </cell>
+          <cell r="I3" t="str">
+            <v/>
+          </cell>
+          <cell r="J3" t="str">
+            <v/>
+          </cell>
+          <cell r="K3" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L3" t="str">
+            <v>Yes</v>
+          </cell>
+          <cell r="M3">
+            <v>0</v>
+          </cell>
+          <cell r="N3" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P3">
+            <v>2</v>
+          </cell>
+          <cell r="Q3">
+            <v>1.3690244806039529</v>
+          </cell>
+          <cell r="R3">
+            <v>10</v>
+          </cell>
+          <cell r="S3">
+            <v>1</v>
+          </cell>
+          <cell r="T3">
+            <v>0.1</v>
+          </cell>
+          <cell r="U3">
+            <v>0.37</v>
+          </cell>
+          <cell r="V3">
+            <v>5.23</v>
+          </cell>
+          <cell r="W3">
+            <v>0.1</v>
+          </cell>
+          <cell r="X3">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>3</v>
+          </cell>
+          <cell r="B4">
+            <v>1</v>
+          </cell>
+          <cell r="C4">
+            <v>1</v>
+          </cell>
+          <cell r="D4">
+            <v>0</v>
+          </cell>
+          <cell r="E4">
+            <v>15</v>
+          </cell>
+          <cell r="F4">
+            <v>10</v>
+          </cell>
+          <cell r="G4">
+            <v>20</v>
+          </cell>
+          <cell r="H4">
+            <v>10</v>
+          </cell>
+          <cell r="I4" t="str">
+            <v/>
+          </cell>
+          <cell r="J4" t="str">
+            <v/>
+          </cell>
+          <cell r="K4" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L4" t="str">
+            <v>Yes</v>
+          </cell>
+          <cell r="M4">
+            <v>0</v>
+          </cell>
+          <cell r="N4" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P4">
+            <v>3</v>
+          </cell>
+          <cell r="Q4">
+            <v>1.3690244806039529</v>
+          </cell>
+          <cell r="R4">
+            <v>10</v>
+          </cell>
+          <cell r="S4">
+            <v>1</v>
+          </cell>
+          <cell r="T4">
+            <v>0.1</v>
+          </cell>
+          <cell r="U4">
+            <v>0.37</v>
+          </cell>
+          <cell r="V4">
+            <v>5.23</v>
+          </cell>
+          <cell r="W4">
+            <v>0.1</v>
+          </cell>
+          <cell r="X4">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>4</v>
+          </cell>
+          <cell r="B5">
+            <v>1</v>
+          </cell>
+          <cell r="C5">
+            <v>1</v>
+          </cell>
+          <cell r="D5">
+            <v>0</v>
+          </cell>
+          <cell r="E5">
+            <v>12.5</v>
+          </cell>
+          <cell r="F5">
+            <v>10</v>
+          </cell>
+          <cell r="G5">
+            <v>20</v>
+          </cell>
+          <cell r="H5">
+            <v>10</v>
+          </cell>
+          <cell r="I5" t="str">
+            <v/>
+          </cell>
+          <cell r="J5" t="str">
+            <v/>
+          </cell>
+          <cell r="K5" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L5" t="str">
+            <v>Yes</v>
+          </cell>
+          <cell r="M5">
+            <v>0</v>
+          </cell>
+          <cell r="N5" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P5">
+            <v>4</v>
+          </cell>
+          <cell r="Q5">
+            <v>1.3690244806039529</v>
+          </cell>
+          <cell r="R5">
+            <v>10</v>
+          </cell>
+          <cell r="S5">
+            <v>1</v>
+          </cell>
+          <cell r="T5">
+            <v>0.1</v>
+          </cell>
+          <cell r="U5">
+            <v>0.37</v>
+          </cell>
+          <cell r="V5">
+            <v>5.23</v>
+          </cell>
+          <cell r="W5">
+            <v>0.1</v>
+          </cell>
+          <cell r="X5">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>5</v>
+          </cell>
+          <cell r="B6">
+            <v>1</v>
+          </cell>
+          <cell r="C6">
+            <v>1</v>
+          </cell>
+          <cell r="D6">
+            <v>0</v>
+          </cell>
+          <cell r="E6">
+            <v>10</v>
+          </cell>
+          <cell r="F6">
+            <v>10</v>
+          </cell>
+          <cell r="G6">
+            <v>20</v>
+          </cell>
+          <cell r="H6">
+            <v>10</v>
+          </cell>
+          <cell r="I6" t="str">
+            <v/>
+          </cell>
+          <cell r="J6" t="str">
+            <v/>
+          </cell>
+          <cell r="K6" t="str">
+            <v>Rectangular Corner</v>
+          </cell>
+          <cell r="L6" t="str">
+            <v>Yes</v>
+          </cell>
+          <cell r="M6">
+            <v>0</v>
+          </cell>
+          <cell r="N6" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P6">
+            <v>5</v>
+          </cell>
+          <cell r="Q6">
+            <v>2.0366031360588885</v>
+          </cell>
+          <cell r="R6">
+            <v>10</v>
+          </cell>
+          <cell r="S6">
+            <v>1</v>
+          </cell>
+          <cell r="T6">
+            <v>0.6</v>
+          </cell>
+          <cell r="U6">
+            <v>0.37</v>
+          </cell>
+          <cell r="V6">
+            <v>5.23</v>
+          </cell>
+          <cell r="W6">
+            <v>0.6</v>
+          </cell>
+          <cell r="X6">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>6</v>
+          </cell>
+          <cell r="B7">
+            <v>1</v>
+          </cell>
+          <cell r="C7">
+            <v>1</v>
+          </cell>
+          <cell r="D7">
+            <v>2.5</v>
+          </cell>
+          <cell r="E7">
+            <v>20</v>
+          </cell>
+          <cell r="F7">
+            <v>10</v>
+          </cell>
+          <cell r="G7">
+            <v>20</v>
+          </cell>
+          <cell r="H7">
+            <v>10</v>
+          </cell>
+          <cell r="I7" t="str">
+            <v/>
+          </cell>
+          <cell r="J7" t="str">
+            <v/>
+          </cell>
+          <cell r="K7" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L7" t="str">
+            <v>Yes</v>
+          </cell>
+          <cell r="M7">
+            <v>0</v>
+          </cell>
+          <cell r="N7" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P7">
+            <v>6</v>
+          </cell>
+          <cell r="Q7">
+            <v>1.2352035346617718</v>
+          </cell>
+          <cell r="R7">
+            <v>10</v>
+          </cell>
+          <cell r="S7">
+            <v>1</v>
+          </cell>
+          <cell r="T7">
+            <v>0.1</v>
+          </cell>
+          <cell r="U7">
+            <v>0.37</v>
+          </cell>
+          <cell r="V7">
+            <v>5.23</v>
+          </cell>
+          <cell r="W7">
+            <v>0.1</v>
+          </cell>
+          <cell r="X7">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>7</v>
+          </cell>
+          <cell r="B8">
+            <v>1</v>
+          </cell>
+          <cell r="C8">
+            <v>1</v>
+          </cell>
+          <cell r="D8">
+            <v>5</v>
+          </cell>
+          <cell r="E8">
+            <v>20</v>
+          </cell>
+          <cell r="F8">
+            <v>10</v>
+          </cell>
+          <cell r="G8">
+            <v>20</v>
+          </cell>
+          <cell r="H8">
+            <v>10</v>
+          </cell>
+          <cell r="I8" t="str">
+            <v/>
+          </cell>
+          <cell r="J8" t="str">
+            <v/>
+          </cell>
+          <cell r="K8" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L8" t="str">
+            <v>Yes</v>
+          </cell>
+          <cell r="M8">
+            <v>0</v>
+          </cell>
+          <cell r="N8" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P8">
+            <v>7</v>
+          </cell>
+          <cell r="Q8">
+            <v>1.0522017608609342</v>
+          </cell>
+          <cell r="R8">
+            <v>10</v>
+          </cell>
+          <cell r="S8">
+            <v>1</v>
+          </cell>
+          <cell r="T8">
+            <v>0.1</v>
+          </cell>
+          <cell r="U8">
+            <v>0.37</v>
+          </cell>
+          <cell r="V8">
+            <v>5.23</v>
+          </cell>
+          <cell r="W8">
+            <v>0.1</v>
+          </cell>
+          <cell r="X8">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>8</v>
+          </cell>
+          <cell r="B9">
+            <v>1</v>
+          </cell>
+          <cell r="C9">
+            <v>1</v>
+          </cell>
+          <cell r="D9">
+            <v>7.5</v>
+          </cell>
+          <cell r="E9">
+            <v>20</v>
+          </cell>
+          <cell r="F9">
+            <v>10</v>
+          </cell>
+          <cell r="G9">
+            <v>20</v>
+          </cell>
+          <cell r="H9">
+            <v>10</v>
+          </cell>
+          <cell r="I9" t="str">
+            <v/>
+          </cell>
+          <cell r="J9" t="str">
+            <v/>
+          </cell>
+          <cell r="K9" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L9" t="str">
+            <v>Yes</v>
+          </cell>
+          <cell r="M9">
+            <v>0</v>
+          </cell>
+          <cell r="N9" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P9">
+            <v>8</v>
+          </cell>
+          <cell r="Q9">
+            <v>0.93200614331292497</v>
+          </cell>
+          <cell r="R9">
+            <v>10</v>
+          </cell>
+          <cell r="S9">
+            <v>1</v>
+          </cell>
+          <cell r="T9">
+            <v>0.1</v>
+          </cell>
+          <cell r="U9">
+            <v>0.37</v>
+          </cell>
+          <cell r="V9">
+            <v>5.23</v>
+          </cell>
+          <cell r="W9">
+            <v>0.1</v>
+          </cell>
+          <cell r="X9">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>9</v>
+          </cell>
+          <cell r="B10">
+            <v>1</v>
+          </cell>
+          <cell r="C10">
+            <v>1</v>
+          </cell>
+          <cell r="D10">
+            <v>2.5</v>
+          </cell>
+          <cell r="E10">
+            <v>10</v>
+          </cell>
+          <cell r="F10">
+            <v>10</v>
+          </cell>
+          <cell r="G10">
+            <v>20</v>
+          </cell>
+          <cell r="H10">
+            <v>10</v>
+          </cell>
+          <cell r="I10" t="str">
+            <v/>
+          </cell>
+          <cell r="J10" t="str">
+            <v/>
+          </cell>
+          <cell r="K10" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L10" t="str">
+            <v>Yes</v>
+          </cell>
+          <cell r="M10">
+            <v>0</v>
+          </cell>
+          <cell r="N10" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P10">
+            <v>9</v>
+          </cell>
+          <cell r="Q10">
+            <v>1.2352035346617718</v>
+          </cell>
+          <cell r="R10">
+            <v>10</v>
+          </cell>
+          <cell r="S10">
+            <v>1</v>
+          </cell>
+          <cell r="T10">
+            <v>0.1</v>
+          </cell>
+          <cell r="U10">
+            <v>0.37</v>
+          </cell>
+          <cell r="V10">
+            <v>5.23</v>
+          </cell>
+          <cell r="W10">
+            <v>0.1</v>
+          </cell>
+          <cell r="X10">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>10</v>
+          </cell>
+          <cell r="B11">
+            <v>1</v>
+          </cell>
+          <cell r="C11">
+            <v>1</v>
+          </cell>
+          <cell r="D11">
+            <v>5</v>
+          </cell>
+          <cell r="E11">
+            <v>10</v>
+          </cell>
+          <cell r="F11">
+            <v>10</v>
+          </cell>
+          <cell r="G11">
+            <v>20</v>
+          </cell>
+          <cell r="H11">
+            <v>10</v>
+          </cell>
+          <cell r="I11" t="str">
+            <v/>
+          </cell>
+          <cell r="J11" t="str">
+            <v/>
+          </cell>
+          <cell r="K11" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L11" t="str">
+            <v>Yes</v>
+          </cell>
+          <cell r="M11">
+            <v>0</v>
+          </cell>
+          <cell r="N11" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P11">
+            <v>10</v>
+          </cell>
+          <cell r="Q11">
+            <v>1.0522017608609342</v>
+          </cell>
+          <cell r="R11">
+            <v>10</v>
+          </cell>
+          <cell r="S11">
+            <v>1</v>
+          </cell>
+          <cell r="T11">
+            <v>0.1</v>
+          </cell>
+          <cell r="U11">
+            <v>0.37</v>
+          </cell>
+          <cell r="V11">
+            <v>5.23</v>
+          </cell>
+          <cell r="W11">
+            <v>0.1</v>
+          </cell>
+          <cell r="X11">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>11</v>
+          </cell>
+          <cell r="B12">
+            <v>1</v>
+          </cell>
+          <cell r="C12">
+            <v>1</v>
+          </cell>
+          <cell r="D12">
+            <v>7.5</v>
+          </cell>
+          <cell r="E12">
+            <v>10</v>
+          </cell>
+          <cell r="F12">
+            <v>10</v>
+          </cell>
+          <cell r="G12">
+            <v>20</v>
+          </cell>
+          <cell r="H12">
+            <v>10</v>
+          </cell>
+          <cell r="I12" t="str">
+            <v/>
+          </cell>
+          <cell r="J12" t="str">
+            <v/>
+          </cell>
+          <cell r="K12" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L12" t="str">
+            <v>Yes</v>
+          </cell>
+          <cell r="M12">
+            <v>0</v>
+          </cell>
+          <cell r="N12" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P12">
+            <v>11</v>
+          </cell>
+          <cell r="Q12">
+            <v>0.93200614331292497</v>
+          </cell>
+          <cell r="R12">
+            <v>10</v>
+          </cell>
+          <cell r="S12">
+            <v>1</v>
+          </cell>
+          <cell r="T12">
+            <v>0.1</v>
+          </cell>
+          <cell r="U12">
+            <v>0.37</v>
+          </cell>
+          <cell r="V12">
+            <v>5.23</v>
+          </cell>
+          <cell r="W12">
+            <v>0.1</v>
+          </cell>
+          <cell r="X12">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>12</v>
+          </cell>
+          <cell r="B13">
+            <v>1</v>
+          </cell>
+          <cell r="C13">
+            <v>2</v>
+          </cell>
+          <cell r="D13">
+            <v>6</v>
+          </cell>
+          <cell r="E13">
+            <v>17.5</v>
+          </cell>
+          <cell r="F13">
+            <v>15</v>
+          </cell>
+          <cell r="G13">
+            <v>20</v>
+          </cell>
+          <cell r="H13">
+            <v>15</v>
+          </cell>
+          <cell r="I13" t="str">
+            <v/>
+          </cell>
+          <cell r="J13" t="str">
+            <v/>
+          </cell>
+          <cell r="K13" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L13" t="str">
+            <v>No</v>
+          </cell>
+          <cell r="M13">
+            <v>0</v>
+          </cell>
+          <cell r="N13" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P13">
+            <v>12</v>
+          </cell>
+          <cell r="Q13">
+            <v>1.700124344546156</v>
+          </cell>
+          <cell r="R13">
+            <v>15</v>
+          </cell>
+          <cell r="S13">
+            <v>1</v>
+          </cell>
+          <cell r="T13">
+            <v>0.4</v>
+          </cell>
+          <cell r="U13">
+            <v>0.37</v>
+          </cell>
+          <cell r="V13">
+            <v>7.85</v>
+          </cell>
+          <cell r="W13">
+            <v>0.4</v>
+          </cell>
+          <cell r="X13">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>13</v>
+          </cell>
+          <cell r="B14">
+            <v>1</v>
+          </cell>
+          <cell r="C14">
+            <v>2</v>
+          </cell>
+          <cell r="D14">
+            <v>5</v>
+          </cell>
+          <cell r="E14">
+            <v>17.5</v>
+          </cell>
+          <cell r="F14">
+            <v>15</v>
+          </cell>
+          <cell r="G14">
+            <v>20</v>
+          </cell>
+          <cell r="H14">
+            <v>15</v>
+          </cell>
+          <cell r="I14" t="str">
+            <v/>
+          </cell>
+          <cell r="J14" t="str">
+            <v/>
+          </cell>
+          <cell r="K14" t="str">
+            <v>Rectangular Corner</v>
+          </cell>
+          <cell r="L14" t="str">
+            <v>No</v>
+          </cell>
+          <cell r="M14">
+            <v>0</v>
+          </cell>
+          <cell r="N14" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P14">
+            <v>13</v>
+          </cell>
+          <cell r="Q14">
+            <v>2.4885494456035393</v>
+          </cell>
+          <cell r="R14">
+            <v>15</v>
+          </cell>
+          <cell r="S14">
+            <v>1</v>
+          </cell>
+          <cell r="T14">
+            <v>0.8</v>
+          </cell>
+          <cell r="U14">
+            <v>0.37</v>
+          </cell>
+          <cell r="V14">
+            <v>7.85</v>
+          </cell>
+          <cell r="W14">
+            <v>0.8</v>
+          </cell>
+          <cell r="X14">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>14</v>
+          </cell>
+          <cell r="B15">
+            <v>1</v>
+          </cell>
+          <cell r="C15">
+            <v>2</v>
+          </cell>
+          <cell r="D15">
+            <v>5</v>
+          </cell>
+          <cell r="E15">
+            <v>15</v>
+          </cell>
+          <cell r="F15">
+            <v>15</v>
+          </cell>
+          <cell r="G15">
+            <v>20</v>
+          </cell>
+          <cell r="H15">
+            <v>15</v>
+          </cell>
+          <cell r="I15" t="str">
+            <v/>
+          </cell>
+          <cell r="J15" t="str">
+            <v/>
+          </cell>
+          <cell r="K15" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L15" t="str">
+            <v>No</v>
+          </cell>
+          <cell r="M15">
+            <v>0</v>
+          </cell>
+          <cell r="N15" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P15">
+            <v>14</v>
+          </cell>
+          <cell r="Q15">
+            <v>2.0329549205745385</v>
+          </cell>
+          <cell r="R15">
+            <v>15</v>
+          </cell>
+          <cell r="S15">
+            <v>1</v>
+          </cell>
+          <cell r="T15">
+            <v>0.6</v>
+          </cell>
+          <cell r="U15">
+            <v>0.37</v>
+          </cell>
+          <cell r="V15">
+            <v>7.85</v>
+          </cell>
+          <cell r="W15">
+            <v>0.6</v>
+          </cell>
+          <cell r="X15">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>15</v>
+          </cell>
+          <cell r="B16">
+            <v>1</v>
+          </cell>
+          <cell r="C16">
+            <v>2</v>
+          </cell>
+          <cell r="D16">
+            <v>5</v>
+          </cell>
+          <cell r="E16">
+            <v>12.5</v>
+          </cell>
+          <cell r="F16">
+            <v>15</v>
+          </cell>
+          <cell r="G16">
+            <v>20</v>
+          </cell>
+          <cell r="H16">
+            <v>15</v>
+          </cell>
+          <cell r="I16" t="str">
+            <v/>
+          </cell>
+          <cell r="J16" t="str">
+            <v/>
+          </cell>
+          <cell r="K16" t="str">
+            <v>Rectangular Corner</v>
+          </cell>
+          <cell r="L16" t="str">
+            <v>No</v>
+          </cell>
+          <cell r="M16">
+            <v>0</v>
+          </cell>
+          <cell r="N16" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P16">
+            <v>15</v>
+          </cell>
+          <cell r="Q16">
+            <v>2.4885494456035393</v>
+          </cell>
+          <cell r="R16">
+            <v>15</v>
+          </cell>
+          <cell r="S16">
+            <v>1</v>
+          </cell>
+          <cell r="T16">
+            <v>0.8</v>
+          </cell>
+          <cell r="U16">
+            <v>0.37</v>
+          </cell>
+          <cell r="V16">
+            <v>7.85</v>
+          </cell>
+          <cell r="W16">
+            <v>0.8</v>
+          </cell>
+          <cell r="X16">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>16</v>
+          </cell>
+          <cell r="B17">
+            <v>1</v>
+          </cell>
+          <cell r="C17">
+            <v>2</v>
+          </cell>
+          <cell r="D17">
+            <v>6</v>
+          </cell>
+          <cell r="E17">
+            <v>12.5</v>
+          </cell>
+          <cell r="F17">
+            <v>15</v>
+          </cell>
+          <cell r="G17">
+            <v>20</v>
+          </cell>
+          <cell r="H17">
+            <v>15</v>
+          </cell>
+          <cell r="I17" t="str">
+            <v/>
+          </cell>
+          <cell r="J17" t="str">
+            <v/>
+          </cell>
+          <cell r="K17" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L17" t="str">
+            <v>No</v>
+          </cell>
+          <cell r="M17">
+            <v>0</v>
+          </cell>
+          <cell r="N17" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P17">
+            <v>16</v>
+          </cell>
+          <cell r="Q17">
+            <v>1.700124344546156</v>
+          </cell>
+          <cell r="R17">
+            <v>15</v>
+          </cell>
+          <cell r="S17">
+            <v>1</v>
+          </cell>
+          <cell r="T17">
+            <v>0.4</v>
+          </cell>
+          <cell r="U17">
+            <v>0.37</v>
+          </cell>
+          <cell r="V17">
+            <v>7.85</v>
+          </cell>
+          <cell r="W17">
+            <v>0.4</v>
+          </cell>
+          <cell r="X17">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>17</v>
+          </cell>
+          <cell r="B18">
+            <v>1</v>
+          </cell>
+          <cell r="C18">
+            <v>3</v>
+          </cell>
+          <cell r="D18">
+            <v>9</v>
+          </cell>
+          <cell r="E18">
+            <v>17.5</v>
+          </cell>
+          <cell r="F18">
+            <v>30</v>
+          </cell>
+          <cell r="G18">
+            <v>20</v>
+          </cell>
+          <cell r="H18">
+            <v>30</v>
+          </cell>
+          <cell r="I18" t="str">
+            <v/>
+          </cell>
+          <cell r="J18" t="str">
+            <v/>
+          </cell>
+          <cell r="K18" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L18" t="str">
+            <v>No</v>
+          </cell>
+          <cell r="M18">
+            <v>0</v>
+          </cell>
+          <cell r="N18" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P18">
+            <v>17</v>
+          </cell>
+          <cell r="Q18">
+            <v>3.3082356858346813</v>
+          </cell>
+          <cell r="R18">
+            <v>30</v>
+          </cell>
+          <cell r="S18">
+            <v>1</v>
+          </cell>
+          <cell r="T18">
+            <v>1.1000000000000001</v>
+          </cell>
+          <cell r="U18">
+            <v>0.37</v>
+          </cell>
+          <cell r="V18">
+            <v>15.71</v>
+          </cell>
+          <cell r="W18">
+            <v>1.1000000000000001</v>
+          </cell>
+          <cell r="X18">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>18</v>
+          </cell>
+          <cell r="B19">
+            <v>1</v>
+          </cell>
+          <cell r="C19">
+            <v>3</v>
+          </cell>
+          <cell r="D19">
+            <v>7.5</v>
+          </cell>
+          <cell r="E19">
+            <v>17.5</v>
+          </cell>
+          <cell r="F19">
+            <v>30</v>
+          </cell>
+          <cell r="G19">
+            <v>20</v>
+          </cell>
+          <cell r="H19">
+            <v>30</v>
+          </cell>
+          <cell r="I19" t="str">
+            <v/>
+          </cell>
+          <cell r="J19" t="str">
+            <v/>
+          </cell>
+          <cell r="K19" t="str">
+            <v>Rectangular Corner</v>
+          </cell>
+          <cell r="L19" t="str">
+            <v>No</v>
+          </cell>
+          <cell r="M19">
+            <v>0</v>
+          </cell>
+          <cell r="N19" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P19">
+            <v>18</v>
+          </cell>
+          <cell r="Q19">
+            <v>7.2713148706507784</v>
+          </cell>
+          <cell r="R19">
+            <v>30</v>
+          </cell>
+          <cell r="S19">
+            <v>1</v>
+          </cell>
+          <cell r="T19">
+            <v>2.6</v>
+          </cell>
+          <cell r="U19">
+            <v>0.37</v>
+          </cell>
+          <cell r="V19">
+            <v>15.71</v>
+          </cell>
+          <cell r="W19">
+            <v>2.6</v>
+          </cell>
+          <cell r="X19">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>19</v>
+          </cell>
+          <cell r="B20">
+            <v>1</v>
+          </cell>
+          <cell r="C20">
+            <v>3</v>
+          </cell>
+          <cell r="D20">
+            <v>7.5</v>
+          </cell>
+          <cell r="E20">
+            <v>15</v>
+          </cell>
+          <cell r="F20">
+            <v>30</v>
+          </cell>
+          <cell r="G20">
+            <v>20</v>
+          </cell>
+          <cell r="H20">
+            <v>30</v>
+          </cell>
+          <cell r="I20" t="str">
+            <v/>
+          </cell>
+          <cell r="J20" t="str">
+            <v/>
+          </cell>
+          <cell r="K20" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L20" t="str">
+            <v>No</v>
+          </cell>
+          <cell r="M20">
+            <v>0</v>
+          </cell>
+          <cell r="N20" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P20">
+            <v>19</v>
+          </cell>
+          <cell r="Q20">
+            <v>4.5590614410425392</v>
+          </cell>
+          <cell r="R20">
+            <v>30</v>
+          </cell>
+          <cell r="S20">
+            <v>1</v>
+          </cell>
+          <cell r="T20">
+            <v>1.6</v>
+          </cell>
+          <cell r="U20">
+            <v>0.37</v>
+          </cell>
+          <cell r="V20">
+            <v>15.71</v>
+          </cell>
+          <cell r="W20">
+            <v>1.6</v>
+          </cell>
+          <cell r="X20">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>20</v>
+          </cell>
+          <cell r="B21">
+            <v>1</v>
+          </cell>
+          <cell r="C21">
+            <v>3</v>
+          </cell>
+          <cell r="D21">
+            <v>7.5</v>
+          </cell>
+          <cell r="E21">
+            <v>12.5</v>
+          </cell>
+          <cell r="F21">
+            <v>30</v>
+          </cell>
+          <cell r="G21">
+            <v>20</v>
+          </cell>
+          <cell r="H21">
+            <v>30</v>
+          </cell>
+          <cell r="I21" t="str">
+            <v/>
+          </cell>
+          <cell r="J21" t="str">
+            <v/>
+          </cell>
+          <cell r="K21" t="str">
+            <v>Rectangular Corner</v>
+          </cell>
+          <cell r="L21" t="str">
+            <v>No</v>
+          </cell>
+          <cell r="M21">
+            <v>0</v>
+          </cell>
+          <cell r="N21" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P21">
+            <v>20</v>
+          </cell>
+          <cell r="Q21">
+            <v>7.2713148706507784</v>
+          </cell>
+          <cell r="R21">
+            <v>30</v>
+          </cell>
+          <cell r="S21">
+            <v>1</v>
+          </cell>
+          <cell r="T21">
+            <v>2.6</v>
+          </cell>
+          <cell r="U21">
+            <v>0.37</v>
+          </cell>
+          <cell r="V21">
+            <v>15.71</v>
+          </cell>
+          <cell r="W21">
+            <v>2.6</v>
+          </cell>
+          <cell r="X21">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>21</v>
+          </cell>
+          <cell r="B22">
+            <v>1</v>
+          </cell>
+          <cell r="C22">
+            <v>3</v>
+          </cell>
+          <cell r="D22">
+            <v>9</v>
+          </cell>
+          <cell r="E22">
+            <v>12.5</v>
+          </cell>
+          <cell r="F22">
+            <v>30</v>
+          </cell>
+          <cell r="G22">
+            <v>20</v>
+          </cell>
+          <cell r="H22">
+            <v>30</v>
+          </cell>
+          <cell r="I22" t="str">
+            <v/>
+          </cell>
+          <cell r="J22" t="str">
+            <v/>
+          </cell>
+          <cell r="K22" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L22" t="str">
+            <v>No</v>
+          </cell>
+          <cell r="M22">
+            <v>0</v>
+          </cell>
+          <cell r="N22" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P22">
+            <v>21</v>
+          </cell>
+          <cell r="Q22">
+            <v>3.3082356858346813</v>
+          </cell>
+          <cell r="R22">
+            <v>30</v>
+          </cell>
+          <cell r="S22">
+            <v>1</v>
+          </cell>
+          <cell r="T22">
+            <v>1.1000000000000001</v>
+          </cell>
+          <cell r="U22">
+            <v>0.37</v>
+          </cell>
+          <cell r="V22">
+            <v>15.71</v>
+          </cell>
+          <cell r="W22">
+            <v>1.1000000000000001</v>
+          </cell>
+          <cell r="X22">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>22</v>
+          </cell>
+          <cell r="B23">
+            <v>1</v>
+          </cell>
+          <cell r="C23">
+            <v>0</v>
+          </cell>
+          <cell r="D23">
+            <v>20</v>
+          </cell>
+          <cell r="E23">
+            <v>7.5</v>
+          </cell>
+          <cell r="F23">
+            <v>6</v>
+          </cell>
+          <cell r="G23">
+            <v>20</v>
+          </cell>
+          <cell r="H23">
+            <v>6</v>
+          </cell>
+          <cell r="I23" t="str">
+            <v/>
+          </cell>
+          <cell r="J23" t="str">
+            <v/>
+          </cell>
+          <cell r="K23" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L23" t="str">
+            <v>Yes</v>
+          </cell>
+          <cell r="M23">
+            <v>0</v>
+          </cell>
+          <cell r="N23" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P23">
+            <v>22</v>
+          </cell>
+          <cell r="Q23">
+            <v>0.65073227147452217</v>
+          </cell>
+          <cell r="R23">
+            <v>6</v>
+          </cell>
+          <cell r="S23">
+            <v>1</v>
+          </cell>
+          <cell r="T23">
+            <v>0.1</v>
+          </cell>
+          <cell r="U23">
+            <v>0.37</v>
+          </cell>
+          <cell r="V23">
+            <v>3.14</v>
+          </cell>
+          <cell r="W23">
+            <v>0.1</v>
+          </cell>
+          <cell r="X23">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>23</v>
+          </cell>
+          <cell r="B24">
+            <v>1</v>
+          </cell>
+          <cell r="C24">
+            <v>0</v>
+          </cell>
+          <cell r="D24">
+            <v>25</v>
+          </cell>
+          <cell r="E24">
+            <v>5</v>
+          </cell>
+          <cell r="F24">
+            <v>6</v>
+          </cell>
+          <cell r="G24">
+            <v>20</v>
+          </cell>
+          <cell r="H24">
+            <v>6</v>
+          </cell>
+          <cell r="I24" t="str">
+            <v/>
+          </cell>
+          <cell r="J24" t="str">
+            <v/>
+          </cell>
+          <cell r="K24" t="str">
+            <v>Rectangular Middle</v>
+          </cell>
+          <cell r="L24" t="str">
+            <v>No</v>
+          </cell>
+          <cell r="M24">
+            <v>0</v>
+          </cell>
+          <cell r="N24" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P24">
+            <v>23</v>
+          </cell>
+          <cell r="Q24">
+            <v>0.51752845447984974</v>
+          </cell>
+          <cell r="R24">
+            <v>6</v>
+          </cell>
+          <cell r="S24">
+            <v>1</v>
+          </cell>
+          <cell r="T24">
+            <v>0.1</v>
+          </cell>
+          <cell r="U24">
+            <v>0.37</v>
+          </cell>
+          <cell r="V24">
+            <v>3.14</v>
+          </cell>
+          <cell r="W24">
+            <v>0.1</v>
+          </cell>
+          <cell r="X24">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>24</v>
+          </cell>
+          <cell r="B25">
+            <v>1</v>
+          </cell>
+          <cell r="C25">
+            <v>0</v>
+          </cell>
+          <cell r="D25">
+            <v>20</v>
+          </cell>
+          <cell r="E25">
+            <v>2.5</v>
+          </cell>
+          <cell r="F25">
+            <v>6</v>
+          </cell>
+          <cell r="G25">
+            <v>20</v>
+          </cell>
+          <cell r="H25">
+            <v>6</v>
+          </cell>
+          <cell r="I25" t="str">
+            <v/>
+          </cell>
+          <cell r="J25" t="str">
+            <v/>
+          </cell>
+          <cell r="K25" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L25" t="str">
+            <v>Yes</v>
+          </cell>
+          <cell r="M25">
+            <v>0</v>
+          </cell>
+          <cell r="N25" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P25">
+            <v>24</v>
+          </cell>
+          <cell r="Q25">
+            <v>0.95586109207493197</v>
+          </cell>
+          <cell r="R25">
+            <v>6</v>
+          </cell>
+          <cell r="S25">
+            <v>1</v>
+          </cell>
+          <cell r="T25">
+            <v>0.1</v>
+          </cell>
+          <cell r="U25">
+            <v>0.37</v>
+          </cell>
+          <cell r="V25">
+            <v>3.14</v>
+          </cell>
+          <cell r="W25">
+            <v>0.1</v>
+          </cell>
+          <cell r="X25">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>25</v>
+          </cell>
+          <cell r="B26">
+            <v>1</v>
+          </cell>
+          <cell r="C26">
+            <v>0</v>
+          </cell>
+          <cell r="D26">
+            <v>20</v>
+          </cell>
+          <cell r="E26">
+            <v>0</v>
+          </cell>
+          <cell r="F26">
+            <v>6</v>
+          </cell>
+          <cell r="G26">
+            <v>20</v>
+          </cell>
+          <cell r="H26">
+            <v>6</v>
+          </cell>
+          <cell r="I26" t="str">
+            <v/>
+          </cell>
+          <cell r="J26" t="str">
+            <v/>
+          </cell>
+          <cell r="K26" t="str">
+            <v>Rectangular Corner</v>
+          </cell>
+          <cell r="L26" t="str">
+            <v>Yes</v>
+          </cell>
+          <cell r="M26">
+            <v>0</v>
+          </cell>
+          <cell r="N26" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P26">
+            <v>25</v>
+          </cell>
+          <cell r="Q26">
+            <v>1.3655900158215704</v>
+          </cell>
+          <cell r="R26">
+            <v>6</v>
+          </cell>
+          <cell r="S26">
+            <v>1</v>
+          </cell>
+          <cell r="T26">
+            <v>0.1</v>
+          </cell>
+          <cell r="U26">
+            <v>0.37</v>
+          </cell>
+          <cell r="V26">
+            <v>3.14</v>
+          </cell>
+          <cell r="W26">
+            <v>0.1</v>
+          </cell>
+          <cell r="X26">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>26</v>
+          </cell>
+          <cell r="B27">
+            <v>1</v>
+          </cell>
+          <cell r="C27">
+            <v>0</v>
+          </cell>
+          <cell r="D27">
+            <v>22.5</v>
+          </cell>
+          <cell r="E27">
+            <v>0</v>
+          </cell>
+          <cell r="F27">
+            <v>6</v>
+          </cell>
+          <cell r="G27">
+            <v>20</v>
+          </cell>
+          <cell r="H27">
+            <v>6</v>
+          </cell>
+          <cell r="I27" t="str">
+            <v/>
+          </cell>
+          <cell r="J27" t="str">
+            <v/>
+          </cell>
+          <cell r="K27" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L27" t="str">
+            <v>Yes</v>
+          </cell>
+          <cell r="M27">
+            <v>0</v>
+          </cell>
+          <cell r="N27" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P27">
+            <v>26</v>
+          </cell>
+          <cell r="Q27">
+            <v>1.057117693783034</v>
+          </cell>
+          <cell r="R27">
+            <v>6</v>
+          </cell>
+          <cell r="S27">
+            <v>1</v>
+          </cell>
+          <cell r="T27">
+            <v>0.1</v>
+          </cell>
+          <cell r="U27">
+            <v>0.37</v>
+          </cell>
+          <cell r="V27">
+            <v>3.14</v>
+          </cell>
+          <cell r="W27">
+            <v>0.1</v>
+          </cell>
+          <cell r="X27">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>27</v>
+          </cell>
+          <cell r="B28">
+            <v>1</v>
+          </cell>
+          <cell r="C28">
+            <v>0</v>
+          </cell>
+          <cell r="D28">
+            <v>25</v>
+          </cell>
+          <cell r="E28">
+            <v>0</v>
+          </cell>
+          <cell r="F28">
+            <v>6</v>
+          </cell>
+          <cell r="G28">
+            <v>20</v>
+          </cell>
+          <cell r="H28">
+            <v>6</v>
+          </cell>
+          <cell r="I28" t="str">
+            <v/>
+          </cell>
+          <cell r="J28" t="str">
+            <v/>
+          </cell>
+          <cell r="K28" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L28" t="str">
+            <v>Yes</v>
+          </cell>
+          <cell r="M28">
+            <v>0</v>
+          </cell>
+          <cell r="N28" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P28">
+            <v>27</v>
+          </cell>
+          <cell r="Q28">
+            <v>1.057117693783034</v>
+          </cell>
+          <cell r="R28">
+            <v>6</v>
+          </cell>
+          <cell r="S28">
+            <v>1</v>
+          </cell>
+          <cell r="T28">
+            <v>0.1</v>
+          </cell>
+          <cell r="U28">
+            <v>0.37</v>
+          </cell>
+          <cell r="V28">
+            <v>3.14</v>
+          </cell>
+          <cell r="W28">
+            <v>0.1</v>
+          </cell>
+          <cell r="X28">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>28</v>
+          </cell>
+          <cell r="B29">
+            <v>1</v>
+          </cell>
+          <cell r="C29">
+            <v>0</v>
+          </cell>
+          <cell r="D29">
+            <v>27.5</v>
+          </cell>
+          <cell r="E29">
+            <v>0</v>
+          </cell>
+          <cell r="F29">
+            <v>6</v>
+          </cell>
+          <cell r="G29">
+            <v>20</v>
+          </cell>
+          <cell r="H29">
+            <v>6</v>
+          </cell>
+          <cell r="I29" t="str">
+            <v/>
+          </cell>
+          <cell r="J29" t="str">
+            <v/>
+          </cell>
+          <cell r="K29" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L29" t="str">
+            <v>Yes</v>
+          </cell>
+          <cell r="M29">
+            <v>0</v>
+          </cell>
+          <cell r="N29" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P29">
+            <v>28</v>
+          </cell>
+          <cell r="Q29">
+            <v>1.057117693783034</v>
+          </cell>
+          <cell r="R29">
+            <v>6</v>
+          </cell>
+          <cell r="S29">
+            <v>1</v>
+          </cell>
+          <cell r="T29">
+            <v>0.1</v>
+          </cell>
+          <cell r="U29">
+            <v>0.37</v>
+          </cell>
+          <cell r="V29">
+            <v>3.14</v>
+          </cell>
+          <cell r="W29">
+            <v>0.1</v>
+          </cell>
+          <cell r="X29">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>29</v>
+          </cell>
+          <cell r="B30">
+            <v>1</v>
+          </cell>
+          <cell r="C30">
+            <v>0</v>
+          </cell>
+          <cell r="D30">
+            <v>30</v>
+          </cell>
+          <cell r="E30">
+            <v>0</v>
+          </cell>
+          <cell r="F30">
+            <v>6</v>
+          </cell>
+          <cell r="G30">
+            <v>20</v>
+          </cell>
+          <cell r="H30">
+            <v>6</v>
+          </cell>
+          <cell r="I30" t="str">
+            <v/>
+          </cell>
+          <cell r="J30" t="str">
+            <v/>
+          </cell>
+          <cell r="K30" t="str">
+            <v>Rectangular Corner</v>
+          </cell>
+          <cell r="L30" t="str">
+            <v>Yes</v>
+          </cell>
+          <cell r="M30">
+            <v>0</v>
+          </cell>
+          <cell r="N30" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P30">
+            <v>29</v>
+          </cell>
+          <cell r="Q30">
+            <v>1.5039575510362562</v>
+          </cell>
+          <cell r="R30">
+            <v>6</v>
+          </cell>
+          <cell r="S30">
+            <v>1</v>
+          </cell>
+          <cell r="T30">
+            <v>0.2</v>
+          </cell>
+          <cell r="U30">
+            <v>0.37</v>
+          </cell>
+          <cell r="V30">
+            <v>3.14</v>
+          </cell>
+          <cell r="W30">
+            <v>0.2</v>
+          </cell>
+          <cell r="X30">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>30</v>
+          </cell>
+          <cell r="B31">
+            <v>1</v>
+          </cell>
+          <cell r="C31">
+            <v>0</v>
+          </cell>
+          <cell r="D31">
+            <v>30</v>
+          </cell>
+          <cell r="E31">
+            <v>2.5</v>
+          </cell>
+          <cell r="F31">
+            <v>6</v>
+          </cell>
+          <cell r="G31">
+            <v>20</v>
+          </cell>
+          <cell r="H31">
+            <v>6</v>
+          </cell>
+          <cell r="I31" t="str">
+            <v/>
+          </cell>
+          <cell r="J31" t="str">
+            <v/>
+          </cell>
+          <cell r="K31" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L31" t="str">
+            <v>Yes</v>
+          </cell>
+          <cell r="M31">
+            <v>0</v>
+          </cell>
+          <cell r="N31" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P31">
+            <v>30</v>
+          </cell>
+          <cell r="Q31">
+            <v>0.95586109207493197</v>
+          </cell>
+          <cell r="R31">
+            <v>6</v>
+          </cell>
+          <cell r="S31">
+            <v>1</v>
+          </cell>
+          <cell r="T31">
+            <v>0.1</v>
+          </cell>
+          <cell r="U31">
+            <v>0.37</v>
+          </cell>
+          <cell r="V31">
+            <v>3.14</v>
+          </cell>
+          <cell r="W31">
+            <v>0.1</v>
+          </cell>
+          <cell r="X31">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>31</v>
+          </cell>
+          <cell r="B32">
+            <v>1</v>
+          </cell>
+          <cell r="C32">
+            <v>0</v>
+          </cell>
+          <cell r="D32">
+            <v>30</v>
+          </cell>
+          <cell r="E32">
+            <v>5</v>
+          </cell>
+          <cell r="F32">
+            <v>6</v>
+          </cell>
+          <cell r="G32">
+            <v>20</v>
+          </cell>
+          <cell r="H32">
+            <v>6</v>
+          </cell>
+          <cell r="I32" t="str">
+            <v/>
+          </cell>
+          <cell r="J32" t="str">
+            <v/>
+          </cell>
+          <cell r="K32" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L32" t="str">
+            <v>Yes</v>
+          </cell>
+          <cell r="M32">
+            <v>0</v>
+          </cell>
+          <cell r="N32" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P32">
+            <v>31</v>
+          </cell>
+          <cell r="Q32">
+            <v>0.82939773214745527</v>
+          </cell>
+          <cell r="R32">
+            <v>6</v>
+          </cell>
+          <cell r="S32">
+            <v>1</v>
+          </cell>
+          <cell r="T32">
+            <v>0.1</v>
+          </cell>
+          <cell r="U32">
+            <v>0.37</v>
+          </cell>
+          <cell r="V32">
+            <v>3.14</v>
+          </cell>
+          <cell r="W32">
+            <v>0.1</v>
+          </cell>
+          <cell r="X32">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>32</v>
+          </cell>
+          <cell r="B33">
+            <v>1</v>
+          </cell>
+          <cell r="C33">
+            <v>0</v>
+          </cell>
+          <cell r="D33">
+            <v>30</v>
+          </cell>
+          <cell r="E33">
+            <v>7.5</v>
+          </cell>
+          <cell r="F33">
+            <v>6</v>
+          </cell>
+          <cell r="G33">
+            <v>20</v>
+          </cell>
+          <cell r="H33">
+            <v>6</v>
+          </cell>
+          <cell r="I33" t="str">
+            <v/>
+          </cell>
+          <cell r="J33" t="str">
+            <v/>
+          </cell>
+          <cell r="K33" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L33" t="str">
+            <v>Yes</v>
+          </cell>
+          <cell r="M33">
+            <v>0</v>
+          </cell>
+          <cell r="N33" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P33">
+            <v>32</v>
+          </cell>
+          <cell r="Q33">
+            <v>0.65073227147452217</v>
+          </cell>
+          <cell r="R33">
+            <v>6</v>
+          </cell>
+          <cell r="S33">
+            <v>1</v>
+          </cell>
+          <cell r="T33">
+            <v>0.1</v>
+          </cell>
+          <cell r="U33">
+            <v>0.37</v>
+          </cell>
+          <cell r="V33">
+            <v>3.14</v>
+          </cell>
+          <cell r="W33">
+            <v>0.1</v>
+          </cell>
+          <cell r="X33">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>33</v>
+          </cell>
+          <cell r="B34">
+            <v>1</v>
+          </cell>
+          <cell r="C34">
+            <v>3</v>
+          </cell>
+          <cell r="D34">
+            <v>40</v>
+          </cell>
+          <cell r="E34">
+            <v>7.5</v>
+          </cell>
+          <cell r="F34">
+            <v>30</v>
+          </cell>
+          <cell r="G34">
+            <v>20</v>
+          </cell>
+          <cell r="H34">
+            <v>30</v>
+          </cell>
+          <cell r="I34" t="str">
+            <v/>
+          </cell>
+          <cell r="J34" t="str">
+            <v/>
+          </cell>
+          <cell r="K34" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L34" t="str">
+            <v>Yes</v>
+          </cell>
+          <cell r="M34">
+            <v>0</v>
+          </cell>
+          <cell r="N34" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P34">
+            <v>33</v>
+          </cell>
+          <cell r="Q34">
+            <v>4.1079137182134389</v>
+          </cell>
+          <cell r="R34">
+            <v>30</v>
+          </cell>
+          <cell r="S34">
+            <v>1</v>
+          </cell>
+          <cell r="T34">
+            <v>1.4</v>
+          </cell>
+          <cell r="U34">
+            <v>0.37</v>
+          </cell>
+          <cell r="V34">
+            <v>15.71</v>
+          </cell>
+          <cell r="W34">
+            <v>1.4</v>
+          </cell>
+          <cell r="X34">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>34</v>
+          </cell>
+          <cell r="B35">
+            <v>1</v>
+          </cell>
+          <cell r="C35">
+            <v>3</v>
+          </cell>
+          <cell r="D35">
+            <v>45</v>
+          </cell>
+          <cell r="E35">
+            <v>3</v>
+          </cell>
+          <cell r="F35">
+            <v>30</v>
+          </cell>
+          <cell r="G35">
+            <v>20</v>
+          </cell>
+          <cell r="H35">
+            <v>30</v>
+          </cell>
+          <cell r="I35" t="str">
+            <v/>
+          </cell>
+          <cell r="J35" t="str">
+            <v/>
+          </cell>
+          <cell r="K35" t="str">
+            <v>Rectangular Middle</v>
+          </cell>
+          <cell r="L35" t="str">
+            <v>No</v>
+          </cell>
+          <cell r="M35">
+            <v>0</v>
+          </cell>
+          <cell r="N35" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P35">
+            <v>34</v>
+          </cell>
+          <cell r="Q35">
+            <v>3.6369542385266271</v>
+          </cell>
+          <cell r="R35">
+            <v>30</v>
+          </cell>
+          <cell r="S35">
+            <v>1</v>
+          </cell>
+          <cell r="T35">
+            <v>1.3</v>
+          </cell>
+          <cell r="U35">
+            <v>0.37</v>
+          </cell>
+          <cell r="V35">
+            <v>15.71</v>
+          </cell>
+          <cell r="W35">
+            <v>1.3</v>
+          </cell>
+          <cell r="X35">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>35</v>
+          </cell>
+          <cell r="B36">
+            <v>1</v>
+          </cell>
+          <cell r="C36">
+            <v>3</v>
+          </cell>
+          <cell r="D36">
+            <v>40</v>
+          </cell>
+          <cell r="E36">
+            <v>2.5</v>
+          </cell>
+          <cell r="F36">
+            <v>30</v>
+          </cell>
+          <cell r="G36">
+            <v>20</v>
+          </cell>
+          <cell r="H36">
+            <v>30</v>
+          </cell>
+          <cell r="I36" t="str">
+            <v/>
+          </cell>
+          <cell r="J36" t="str">
+            <v/>
+          </cell>
+          <cell r="K36" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L36" t="str">
+            <v>Yes</v>
+          </cell>
+          <cell r="M36">
+            <v>0</v>
+          </cell>
+          <cell r="N36" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P36">
+            <v>35</v>
+          </cell>
+          <cell r="Q36">
+            <v>4.2808915326879688</v>
+          </cell>
+          <cell r="R36">
+            <v>30</v>
+          </cell>
+          <cell r="S36">
+            <v>1</v>
+          </cell>
+          <cell r="T36">
+            <v>1.5</v>
+          </cell>
+          <cell r="U36">
+            <v>0.37</v>
+          </cell>
+          <cell r="V36">
+            <v>15.71</v>
+          </cell>
+          <cell r="W36">
+            <v>1.5</v>
+          </cell>
+          <cell r="X36">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>36</v>
+          </cell>
+          <cell r="B37">
+            <v>1</v>
+          </cell>
+          <cell r="C37">
+            <v>3</v>
+          </cell>
+          <cell r="D37">
+            <v>40</v>
+          </cell>
+          <cell r="E37">
+            <v>0</v>
+          </cell>
+          <cell r="F37">
+            <v>30</v>
+          </cell>
+          <cell r="G37">
+            <v>20</v>
+          </cell>
+          <cell r="H37">
+            <v>30</v>
+          </cell>
+          <cell r="I37" t="str">
+            <v/>
+          </cell>
+          <cell r="J37" t="str">
+            <v/>
+          </cell>
+          <cell r="K37" t="str">
+            <v>Rectangular Corner</v>
+          </cell>
+          <cell r="L37" t="str">
+            <v>Yes</v>
+          </cell>
+          <cell r="M37">
+            <v>0</v>
+          </cell>
+          <cell r="N37" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P37">
+            <v>36</v>
+          </cell>
+          <cell r="Q37">
+            <v>8.4566646151357237</v>
+          </cell>
+          <cell r="R37">
+            <v>30</v>
+          </cell>
+          <cell r="S37">
+            <v>1</v>
+          </cell>
+          <cell r="T37">
+            <v>3.1</v>
+          </cell>
+          <cell r="U37">
+            <v>0.37</v>
+          </cell>
+          <cell r="V37">
+            <v>15.71</v>
+          </cell>
+          <cell r="W37">
+            <v>3.1</v>
+          </cell>
+          <cell r="X37">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>37</v>
+          </cell>
+          <cell r="B38">
+            <v>1</v>
+          </cell>
+          <cell r="C38">
+            <v>3</v>
+          </cell>
+          <cell r="D38">
+            <v>42.5</v>
+          </cell>
+          <cell r="E38">
+            <v>0</v>
+          </cell>
+          <cell r="F38">
+            <v>30</v>
+          </cell>
+          <cell r="G38">
+            <v>20</v>
+          </cell>
+          <cell r="H38">
+            <v>30</v>
+          </cell>
+          <cell r="I38" t="str">
+            <v/>
+          </cell>
+          <cell r="J38" t="str">
+            <v/>
+          </cell>
+          <cell r="K38" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L38" t="str">
+            <v>Yes</v>
+          </cell>
+          <cell r="M38">
+            <v>0</v>
+          </cell>
+          <cell r="N38" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P38">
+            <v>37</v>
+          </cell>
+          <cell r="Q38">
+            <v>4.2808915326879688</v>
+          </cell>
+          <cell r="R38">
+            <v>30</v>
+          </cell>
+          <cell r="S38">
+            <v>1</v>
+          </cell>
+          <cell r="T38">
+            <v>1.5</v>
+          </cell>
+          <cell r="U38">
+            <v>0.37</v>
+          </cell>
+          <cell r="V38">
+            <v>15.71</v>
+          </cell>
+          <cell r="W38">
+            <v>1.5</v>
+          </cell>
+          <cell r="X38">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>38</v>
+          </cell>
+          <cell r="B39">
+            <v>1</v>
+          </cell>
+          <cell r="C39">
+            <v>3</v>
+          </cell>
+          <cell r="D39">
+            <v>45</v>
+          </cell>
+          <cell r="E39">
+            <v>0</v>
+          </cell>
+          <cell r="F39">
+            <v>30</v>
+          </cell>
+          <cell r="G39">
+            <v>20</v>
+          </cell>
+          <cell r="H39">
+            <v>30</v>
+          </cell>
+          <cell r="I39" t="str">
+            <v/>
+          </cell>
+          <cell r="J39" t="str">
+            <v/>
+          </cell>
+          <cell r="K39" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L39" t="str">
+            <v>Yes</v>
+          </cell>
+          <cell r="M39">
+            <v>0</v>
+          </cell>
+          <cell r="N39" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P39">
+            <v>38</v>
+          </cell>
+          <cell r="Q39">
+            <v>4.2808915326879688</v>
+          </cell>
+          <cell r="R39">
+            <v>30</v>
+          </cell>
+          <cell r="S39">
+            <v>1</v>
+          </cell>
+          <cell r="T39">
+            <v>1.5</v>
+          </cell>
+          <cell r="U39">
+            <v>0.37</v>
+          </cell>
+          <cell r="V39">
+            <v>15.71</v>
+          </cell>
+          <cell r="W39">
+            <v>1.5</v>
+          </cell>
+          <cell r="X39">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>39</v>
+          </cell>
+          <cell r="B40">
+            <v>1</v>
+          </cell>
+          <cell r="C40">
+            <v>3</v>
+          </cell>
+          <cell r="D40">
+            <v>47.5</v>
+          </cell>
+          <cell r="E40">
+            <v>0</v>
+          </cell>
+          <cell r="F40">
+            <v>30</v>
+          </cell>
+          <cell r="G40">
+            <v>20</v>
+          </cell>
+          <cell r="H40">
+            <v>30</v>
+          </cell>
+          <cell r="I40" t="str">
+            <v/>
+          </cell>
+          <cell r="J40" t="str">
+            <v/>
+          </cell>
+          <cell r="K40" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L40" t="str">
+            <v>Yes</v>
+          </cell>
+          <cell r="M40">
+            <v>0</v>
+          </cell>
+          <cell r="N40" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P40">
+            <v>39</v>
+          </cell>
+          <cell r="Q40">
+            <v>4.2808915326879688</v>
+          </cell>
+          <cell r="R40">
+            <v>30</v>
+          </cell>
+          <cell r="S40">
+            <v>1</v>
+          </cell>
+          <cell r="T40">
+            <v>1.5</v>
+          </cell>
+          <cell r="U40">
+            <v>0.37</v>
+          </cell>
+          <cell r="V40">
+            <v>15.71</v>
+          </cell>
+          <cell r="W40">
+            <v>1.5</v>
+          </cell>
+          <cell r="X40">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>40</v>
+          </cell>
+          <cell r="B41">
+            <v>1</v>
+          </cell>
+          <cell r="C41">
+            <v>3</v>
+          </cell>
+          <cell r="D41">
+            <v>50</v>
+          </cell>
+          <cell r="E41">
+            <v>0</v>
+          </cell>
+          <cell r="F41">
+            <v>30</v>
+          </cell>
+          <cell r="G41">
+            <v>20</v>
+          </cell>
+          <cell r="H41">
+            <v>30</v>
+          </cell>
+          <cell r="I41" t="str">
+            <v/>
+          </cell>
+          <cell r="J41" t="str">
+            <v/>
+          </cell>
+          <cell r="K41" t="str">
+            <v>Rectangular Corner</v>
+          </cell>
+          <cell r="L41" t="str">
+            <v>Yes</v>
+          </cell>
+          <cell r="M41">
+            <v>0</v>
+          </cell>
+          <cell r="N41" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P41">
+            <v>40</v>
+          </cell>
+          <cell r="Q41">
+            <v>8.4566646151357237</v>
+          </cell>
+          <cell r="R41">
+            <v>30</v>
+          </cell>
+          <cell r="S41">
+            <v>1</v>
+          </cell>
+          <cell r="T41">
+            <v>3.1</v>
+          </cell>
+          <cell r="U41">
+            <v>0.37</v>
+          </cell>
+          <cell r="V41">
+            <v>15.71</v>
+          </cell>
+          <cell r="W41">
+            <v>3.1</v>
+          </cell>
+          <cell r="X41">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>41</v>
+          </cell>
+          <cell r="B42">
+            <v>1</v>
+          </cell>
+          <cell r="C42">
+            <v>3</v>
+          </cell>
+          <cell r="D42">
+            <v>50</v>
+          </cell>
+          <cell r="E42">
+            <v>2.5</v>
+          </cell>
+          <cell r="F42">
+            <v>30</v>
+          </cell>
+          <cell r="G42">
+            <v>20</v>
+          </cell>
+          <cell r="H42">
+            <v>30</v>
+          </cell>
+          <cell r="I42" t="str">
+            <v/>
+          </cell>
+          <cell r="J42" t="str">
+            <v/>
+          </cell>
+          <cell r="K42" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L42" t="str">
+            <v>Yes</v>
+          </cell>
+          <cell r="M42">
+            <v>0</v>
+          </cell>
+          <cell r="N42" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P42">
+            <v>41</v>
+          </cell>
+          <cell r="Q42">
+            <v>4.2808915326879688</v>
+          </cell>
+          <cell r="R42">
+            <v>30</v>
+          </cell>
+          <cell r="S42">
+            <v>1</v>
+          </cell>
+          <cell r="T42">
+            <v>1.5</v>
+          </cell>
+          <cell r="U42">
+            <v>0.37</v>
+          </cell>
+          <cell r="V42">
+            <v>15.71</v>
+          </cell>
+          <cell r="W42">
+            <v>1.5</v>
+          </cell>
+          <cell r="X42">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>42</v>
+          </cell>
+          <cell r="B43">
+            <v>1</v>
+          </cell>
+          <cell r="C43">
+            <v>3</v>
+          </cell>
+          <cell r="D43">
+            <v>50</v>
+          </cell>
+          <cell r="E43">
+            <v>5</v>
+          </cell>
+          <cell r="F43">
+            <v>30</v>
+          </cell>
+          <cell r="G43">
+            <v>20</v>
+          </cell>
+          <cell r="H43">
+            <v>30</v>
+          </cell>
+          <cell r="I43" t="str">
+            <v/>
+          </cell>
+          <cell r="J43" t="str">
+            <v/>
+          </cell>
+          <cell r="K43" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L43" t="str">
+            <v>Yes</v>
+          </cell>
+          <cell r="M43">
+            <v>0</v>
+          </cell>
+          <cell r="N43" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P43">
+            <v>42</v>
+          </cell>
+          <cell r="Q43">
+            <v>4.2808915326879688</v>
+          </cell>
+          <cell r="R43">
+            <v>30</v>
+          </cell>
+          <cell r="S43">
+            <v>1</v>
+          </cell>
+          <cell r="T43">
+            <v>1.5</v>
+          </cell>
+          <cell r="U43">
+            <v>0.37</v>
+          </cell>
+          <cell r="V43">
+            <v>15.71</v>
+          </cell>
+          <cell r="W43">
+            <v>1.5</v>
+          </cell>
+          <cell r="X43">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>43</v>
+          </cell>
+          <cell r="B44">
+            <v>1</v>
+          </cell>
+          <cell r="C44">
+            <v>3</v>
+          </cell>
+          <cell r="D44">
+            <v>50</v>
+          </cell>
+          <cell r="E44">
+            <v>7.5</v>
+          </cell>
+          <cell r="F44">
+            <v>30</v>
+          </cell>
+          <cell r="G44">
+            <v>20</v>
+          </cell>
+          <cell r="H44">
+            <v>30</v>
+          </cell>
+          <cell r="I44" t="str">
+            <v/>
+          </cell>
+          <cell r="J44" t="str">
+            <v/>
+          </cell>
+          <cell r="K44" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L44" t="str">
+            <v>Yes</v>
+          </cell>
+          <cell r="M44">
+            <v>0</v>
+          </cell>
+          <cell r="N44" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P44">
+            <v>43</v>
+          </cell>
+          <cell r="Q44">
+            <v>4.1079137182134389</v>
+          </cell>
+          <cell r="R44">
+            <v>30</v>
+          </cell>
+          <cell r="S44">
+            <v>1</v>
+          </cell>
+          <cell r="T44">
+            <v>1.4</v>
+          </cell>
+          <cell r="U44">
+            <v>0.37</v>
+          </cell>
+          <cell r="V44">
+            <v>15.71</v>
+          </cell>
+          <cell r="W44">
+            <v>1.4</v>
+          </cell>
+          <cell r="X44">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
+            <v>44</v>
+          </cell>
+          <cell r="B45">
+            <v>1</v>
+          </cell>
+          <cell r="C45">
+            <v>4</v>
+          </cell>
+          <cell r="D45">
+            <v>42.5</v>
+          </cell>
+          <cell r="E45">
+            <v>9</v>
+          </cell>
+          <cell r="F45">
+            <v>32.5</v>
+          </cell>
+          <cell r="G45">
+            <v>12.5</v>
+          </cell>
+          <cell r="H45">
+            <v>32.5</v>
+          </cell>
+          <cell r="I45" t="str">
+            <v/>
+          </cell>
+          <cell r="J45" t="str">
+            <v/>
+          </cell>
+          <cell r="K45" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L45" t="str">
+            <v>No</v>
+          </cell>
+          <cell r="M45">
+            <v>0</v>
+          </cell>
+          <cell r="N45" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P45">
+            <v>44</v>
+          </cell>
+          <cell r="Q45">
+            <v>5.0638149321735328</v>
+          </cell>
+          <cell r="R45">
+            <v>32.5</v>
+          </cell>
+          <cell r="S45">
+            <v>1</v>
+          </cell>
+          <cell r="T45">
+            <v>1.8</v>
+          </cell>
+          <cell r="U45">
+            <v>0.37</v>
+          </cell>
+          <cell r="V45">
+            <v>17.02</v>
+          </cell>
+          <cell r="W45">
+            <v>1.8</v>
+          </cell>
+          <cell r="X45">
+            <v>32.5</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46">
+            <v>45</v>
+          </cell>
+          <cell r="B46">
+            <v>1</v>
+          </cell>
+          <cell r="C46">
+            <v>4</v>
+          </cell>
+          <cell r="D46">
+            <v>42.5</v>
+          </cell>
+          <cell r="E46">
+            <v>7.5</v>
+          </cell>
+          <cell r="F46">
+            <v>32.5</v>
+          </cell>
+          <cell r="G46">
+            <v>12.5</v>
+          </cell>
+          <cell r="H46">
+            <v>32.5</v>
+          </cell>
+          <cell r="I46" t="str">
+            <v/>
+          </cell>
+          <cell r="J46" t="str">
+            <v/>
+          </cell>
+          <cell r="K46" t="str">
+            <v>Rectangular Corner</v>
+          </cell>
+          <cell r="L46" t="str">
+            <v>No</v>
+          </cell>
+          <cell r="M46">
+            <v>0</v>
+          </cell>
+          <cell r="N46" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P46">
+            <v>45</v>
+          </cell>
+          <cell r="Q46">
+            <v>11.536142205935265</v>
+          </cell>
+          <cell r="R46">
+            <v>32.5</v>
+          </cell>
+          <cell r="S46">
+            <v>1</v>
+          </cell>
+          <cell r="T46">
+            <v>4.2</v>
+          </cell>
+          <cell r="U46">
+            <v>0.37</v>
+          </cell>
+          <cell r="V46">
+            <v>17.02</v>
+          </cell>
+          <cell r="W46">
+            <v>4.2</v>
+          </cell>
+          <cell r="X46">
+            <v>32.5</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47">
+            <v>46</v>
+          </cell>
+          <cell r="B47">
+            <v>1</v>
+          </cell>
+          <cell r="C47">
+            <v>4</v>
+          </cell>
+          <cell r="D47">
+            <v>45</v>
+          </cell>
+          <cell r="E47">
+            <v>7.5</v>
+          </cell>
+          <cell r="F47">
+            <v>32.5</v>
+          </cell>
+          <cell r="G47">
+            <v>12.5</v>
+          </cell>
+          <cell r="H47">
+            <v>32.5</v>
+          </cell>
+          <cell r="I47" t="str">
+            <v/>
+          </cell>
+          <cell r="J47" t="str">
+            <v/>
+          </cell>
+          <cell r="K47" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L47" t="str">
+            <v>No</v>
+          </cell>
+          <cell r="M47">
+            <v>0</v>
+          </cell>
+          <cell r="N47" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P47">
+            <v>46</v>
+          </cell>
+          <cell r="Q47">
+            <v>6.9784155647372028</v>
+          </cell>
+          <cell r="R47">
+            <v>32.5</v>
+          </cell>
+          <cell r="S47">
+            <v>1</v>
+          </cell>
+          <cell r="T47">
+            <v>2.5</v>
+          </cell>
+          <cell r="U47">
+            <v>0.37</v>
+          </cell>
+          <cell r="V47">
+            <v>17.02</v>
+          </cell>
+          <cell r="W47">
+            <v>2.5</v>
+          </cell>
+          <cell r="X47">
+            <v>32.5</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48">
+            <v>47</v>
+          </cell>
+          <cell r="B48">
+            <v>1</v>
+          </cell>
+          <cell r="C48">
+            <v>4</v>
+          </cell>
+          <cell r="D48">
+            <v>47.5</v>
+          </cell>
+          <cell r="E48">
+            <v>7.5</v>
+          </cell>
+          <cell r="F48">
+            <v>32.5</v>
+          </cell>
+          <cell r="G48">
+            <v>12.5</v>
+          </cell>
+          <cell r="H48">
+            <v>32.5</v>
+          </cell>
+          <cell r="I48" t="str">
+            <v/>
+          </cell>
+          <cell r="J48" t="str">
+            <v/>
+          </cell>
+          <cell r="K48" t="str">
+            <v>Rectangular Corner</v>
+          </cell>
+          <cell r="L48" t="str">
+            <v>No</v>
+          </cell>
+          <cell r="M48">
+            <v>0</v>
+          </cell>
+          <cell r="N48" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P48">
+            <v>47</v>
+          </cell>
+          <cell r="Q48">
+            <v>11.536142205935265</v>
+          </cell>
+          <cell r="R48">
+            <v>32.5</v>
+          </cell>
+          <cell r="S48">
+            <v>1</v>
+          </cell>
+          <cell r="T48">
+            <v>4.2</v>
+          </cell>
+          <cell r="U48">
+            <v>0.37</v>
+          </cell>
+          <cell r="V48">
+            <v>17.02</v>
+          </cell>
+          <cell r="W48">
+            <v>4.2</v>
+          </cell>
+          <cell r="X48">
+            <v>32.5</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49">
+            <v>48</v>
+          </cell>
+          <cell r="B49">
+            <v>1</v>
+          </cell>
+          <cell r="C49">
+            <v>4</v>
+          </cell>
+          <cell r="D49">
+            <v>47.5</v>
+          </cell>
+          <cell r="E49">
+            <v>9</v>
+          </cell>
+          <cell r="F49">
+            <v>32.5</v>
+          </cell>
+          <cell r="G49">
+            <v>12.5</v>
+          </cell>
+          <cell r="H49">
+            <v>32.5</v>
+          </cell>
+          <cell r="I49" t="str">
+            <v/>
+          </cell>
+          <cell r="J49" t="str">
+            <v/>
+          </cell>
+          <cell r="K49" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L49" t="str">
+            <v>No</v>
+          </cell>
+          <cell r="M49">
+            <v>0</v>
+          </cell>
+          <cell r="N49" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P49">
+            <v>48</v>
+          </cell>
+          <cell r="Q49">
+            <v>5.0638149321735328</v>
+          </cell>
+          <cell r="R49">
+            <v>32.5</v>
+          </cell>
+          <cell r="S49">
+            <v>1</v>
+          </cell>
+          <cell r="T49">
+            <v>1.8</v>
+          </cell>
+          <cell r="U49">
+            <v>0.37</v>
+          </cell>
+          <cell r="V49">
+            <v>17.02</v>
+          </cell>
+          <cell r="W49">
+            <v>1.8</v>
+          </cell>
+          <cell r="X49">
+            <v>32.5</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50">
+            <v>49</v>
+          </cell>
+          <cell r="B50">
+            <v>1</v>
+          </cell>
+          <cell r="C50">
+            <v>5</v>
+          </cell>
+          <cell r="D50">
+            <v>10</v>
+          </cell>
+          <cell r="E50">
+            <v>20</v>
+          </cell>
+          <cell r="F50">
+            <v>35</v>
+          </cell>
+          <cell r="G50">
+            <v>10</v>
+          </cell>
+          <cell r="H50">
+            <v>35</v>
+          </cell>
+          <cell r="I50" t="str">
+            <v/>
+          </cell>
+          <cell r="J50" t="str">
+            <v/>
+          </cell>
+          <cell r="K50" t="str">
+            <v>Rectangular Corner</v>
+          </cell>
+          <cell r="L50" t="str">
+            <v>Yes</v>
+          </cell>
+          <cell r="M50">
+            <v>0</v>
+          </cell>
+          <cell r="N50" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P50">
+            <v>49</v>
+          </cell>
+          <cell r="Q50">
+            <v>9.4353293052066434</v>
+          </cell>
+          <cell r="R50">
+            <v>35</v>
+          </cell>
+          <cell r="S50">
+            <v>1</v>
+          </cell>
+          <cell r="T50">
+            <v>3.5</v>
+          </cell>
+          <cell r="U50">
+            <v>0.37</v>
+          </cell>
+          <cell r="V50">
+            <v>18.329999999999998</v>
+          </cell>
+          <cell r="W50">
+            <v>3.5</v>
+          </cell>
+          <cell r="X50">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51">
+            <v>50</v>
+          </cell>
+          <cell r="B51">
+            <v>1</v>
+          </cell>
+          <cell r="C51">
+            <v>5</v>
+          </cell>
+          <cell r="D51">
+            <v>12.5</v>
+          </cell>
+          <cell r="E51">
+            <v>20</v>
+          </cell>
+          <cell r="F51">
+            <v>35</v>
+          </cell>
+          <cell r="G51">
+            <v>10</v>
+          </cell>
+          <cell r="H51">
+            <v>35</v>
+          </cell>
+          <cell r="I51" t="str">
+            <v/>
+          </cell>
+          <cell r="J51" t="str">
+            <v/>
+          </cell>
+          <cell r="K51" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L51" t="str">
+            <v>Yes</v>
+          </cell>
+          <cell r="M51">
+            <v>0</v>
+          </cell>
+          <cell r="N51" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P51">
+            <v>50</v>
+          </cell>
+          <cell r="Q51">
+            <v>4.3833112708022055</v>
+          </cell>
+          <cell r="R51">
+            <v>35</v>
+          </cell>
+          <cell r="S51">
+            <v>1</v>
+          </cell>
+          <cell r="T51">
+            <v>1.5</v>
+          </cell>
+          <cell r="U51">
+            <v>0.37</v>
+          </cell>
+          <cell r="V51">
+            <v>18.329999999999998</v>
+          </cell>
+          <cell r="W51">
+            <v>1.5</v>
+          </cell>
+          <cell r="X51">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52">
+            <v>51</v>
+          </cell>
+          <cell r="B52">
+            <v>1</v>
+          </cell>
+          <cell r="C52">
+            <v>5</v>
+          </cell>
+          <cell r="D52">
+            <v>15</v>
+          </cell>
+          <cell r="E52">
+            <v>20</v>
+          </cell>
+          <cell r="F52">
+            <v>35</v>
+          </cell>
+          <cell r="G52">
+            <v>10</v>
+          </cell>
+          <cell r="H52">
+            <v>35</v>
+          </cell>
+          <cell r="I52" t="str">
+            <v/>
+          </cell>
+          <cell r="J52" t="str">
+            <v/>
+          </cell>
+          <cell r="K52" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L52" t="str">
+            <v>Yes</v>
+          </cell>
+          <cell r="M52">
+            <v>0</v>
+          </cell>
+          <cell r="N52" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P52">
+            <v>51</v>
+          </cell>
+          <cell r="Q52">
+            <v>4.3833112708022055</v>
+          </cell>
+          <cell r="R52">
+            <v>35</v>
+          </cell>
+          <cell r="S52">
+            <v>1</v>
+          </cell>
+          <cell r="T52">
+            <v>1.5</v>
+          </cell>
+          <cell r="U52">
+            <v>0.37</v>
+          </cell>
+          <cell r="V52">
+            <v>18.329999999999998</v>
+          </cell>
+          <cell r="W52">
+            <v>1.5</v>
+          </cell>
+          <cell r="X52">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53">
+            <v>52</v>
+          </cell>
+          <cell r="B53">
+            <v>1</v>
+          </cell>
+          <cell r="C53">
+            <v>5</v>
+          </cell>
+          <cell r="D53">
+            <v>17.5</v>
+          </cell>
+          <cell r="E53">
+            <v>20</v>
+          </cell>
+          <cell r="F53">
+            <v>35</v>
+          </cell>
+          <cell r="G53">
+            <v>10</v>
+          </cell>
+          <cell r="H53">
+            <v>35</v>
+          </cell>
+          <cell r="I53" t="str">
+            <v/>
+          </cell>
+          <cell r="J53" t="str">
+            <v/>
+          </cell>
+          <cell r="K53" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L53" t="str">
+            <v>Yes</v>
+          </cell>
+          <cell r="M53">
+            <v>0</v>
+          </cell>
+          <cell r="N53" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P53">
+            <v>52</v>
+          </cell>
+          <cell r="Q53">
+            <v>4.3833112708022055</v>
+          </cell>
+          <cell r="R53">
+            <v>35</v>
+          </cell>
+          <cell r="S53">
+            <v>1</v>
+          </cell>
+          <cell r="T53">
+            <v>1.5</v>
+          </cell>
+          <cell r="U53">
+            <v>0.37</v>
+          </cell>
+          <cell r="V53">
+            <v>18.329999999999998</v>
+          </cell>
+          <cell r="W53">
+            <v>1.5</v>
+          </cell>
+          <cell r="X53">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54">
+            <v>53</v>
+          </cell>
+          <cell r="B54">
+            <v>1</v>
+          </cell>
+          <cell r="C54">
+            <v>5</v>
+          </cell>
+          <cell r="D54">
+            <v>20</v>
+          </cell>
+          <cell r="E54">
+            <v>20</v>
+          </cell>
+          <cell r="F54">
+            <v>35</v>
+          </cell>
+          <cell r="G54">
+            <v>10</v>
+          </cell>
+          <cell r="H54">
+            <v>35</v>
+          </cell>
+          <cell r="I54" t="str">
+            <v/>
+          </cell>
+          <cell r="J54" t="str">
+            <v/>
+          </cell>
+          <cell r="K54" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L54" t="str">
+            <v>Yes</v>
+          </cell>
+          <cell r="M54">
+            <v>0</v>
+          </cell>
+          <cell r="N54" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P54">
+            <v>53</v>
+          </cell>
+          <cell r="Q54">
+            <v>4.3833112708022055</v>
+          </cell>
+          <cell r="R54">
+            <v>35</v>
+          </cell>
+          <cell r="S54">
+            <v>1</v>
+          </cell>
+          <cell r="T54">
+            <v>1.5</v>
+          </cell>
+          <cell r="U54">
+            <v>0.37</v>
+          </cell>
+          <cell r="V54">
+            <v>18.329999999999998</v>
+          </cell>
+          <cell r="W54">
+            <v>1.5</v>
+          </cell>
+          <cell r="X54">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55">
+            <v>54</v>
+          </cell>
+          <cell r="B55">
+            <v>1</v>
+          </cell>
+          <cell r="C55">
+            <v>5</v>
+          </cell>
+          <cell r="D55">
+            <v>22.5</v>
+          </cell>
+          <cell r="E55">
+            <v>20</v>
+          </cell>
+          <cell r="F55">
+            <v>35</v>
+          </cell>
+          <cell r="G55">
+            <v>10</v>
+          </cell>
+          <cell r="H55">
+            <v>35</v>
+          </cell>
+          <cell r="I55" t="str">
+            <v/>
+          </cell>
+          <cell r="J55" t="str">
+            <v/>
+          </cell>
+          <cell r="K55" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L55" t="str">
+            <v>Yes</v>
+          </cell>
+          <cell r="M55">
+            <v>0</v>
+          </cell>
+          <cell r="N55" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P55">
+            <v>54</v>
+          </cell>
+          <cell r="Q55">
+            <v>4.3833112708022055</v>
+          </cell>
+          <cell r="R55">
+            <v>35</v>
+          </cell>
+          <cell r="S55">
+            <v>1</v>
+          </cell>
+          <cell r="T55">
+            <v>1.5</v>
+          </cell>
+          <cell r="U55">
+            <v>0.37</v>
+          </cell>
+          <cell r="V55">
+            <v>18.329999999999998</v>
+          </cell>
+          <cell r="W55">
+            <v>1.5</v>
+          </cell>
+          <cell r="X55">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56">
+            <v>55</v>
+          </cell>
+          <cell r="B56">
+            <v>1</v>
+          </cell>
+          <cell r="C56">
+            <v>5</v>
+          </cell>
+          <cell r="D56">
+            <v>25</v>
+          </cell>
+          <cell r="E56">
+            <v>20</v>
+          </cell>
+          <cell r="F56">
+            <v>35</v>
+          </cell>
+          <cell r="G56">
+            <v>10</v>
+          </cell>
+          <cell r="H56">
+            <v>35</v>
+          </cell>
+          <cell r="I56" t="str">
+            <v/>
+          </cell>
+          <cell r="J56" t="str">
+            <v/>
+          </cell>
+          <cell r="K56" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L56" t="str">
+            <v>Yes</v>
+          </cell>
+          <cell r="M56">
+            <v>0</v>
+          </cell>
+          <cell r="N56" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P56">
+            <v>55</v>
+          </cell>
+          <cell r="Q56">
+            <v>4.5678856449968741</v>
+          </cell>
+          <cell r="R56">
+            <v>35</v>
+          </cell>
+          <cell r="S56">
+            <v>1</v>
+          </cell>
+          <cell r="T56">
+            <v>1.6</v>
+          </cell>
+          <cell r="U56">
+            <v>0.37</v>
+          </cell>
+          <cell r="V56">
+            <v>18.329999999999998</v>
+          </cell>
+          <cell r="W56">
+            <v>1.6</v>
+          </cell>
+          <cell r="X56">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57">
+            <v>56</v>
+          </cell>
+          <cell r="B57">
+            <v>1</v>
+          </cell>
+          <cell r="C57">
+            <v>5</v>
+          </cell>
+          <cell r="D57">
+            <v>27.5</v>
+          </cell>
+          <cell r="E57">
+            <v>20</v>
+          </cell>
+          <cell r="F57">
+            <v>35</v>
+          </cell>
+          <cell r="G57">
+            <v>10</v>
+          </cell>
+          <cell r="H57">
+            <v>35</v>
+          </cell>
+          <cell r="I57" t="str">
+            <v/>
+          </cell>
+          <cell r="J57" t="str">
+            <v/>
+          </cell>
+          <cell r="K57" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L57" t="str">
+            <v>Yes</v>
+          </cell>
+          <cell r="M57">
+            <v>0</v>
+          </cell>
+          <cell r="N57" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P57">
+            <v>56</v>
+          </cell>
+          <cell r="Q57">
+            <v>4.5678856449968741</v>
+          </cell>
+          <cell r="R57">
+            <v>35</v>
+          </cell>
+          <cell r="S57">
+            <v>1</v>
+          </cell>
+          <cell r="T57">
+            <v>1.6</v>
+          </cell>
+          <cell r="U57">
+            <v>0.37</v>
+          </cell>
+          <cell r="V57">
+            <v>18.329999999999998</v>
+          </cell>
+          <cell r="W57">
+            <v>1.6</v>
+          </cell>
+          <cell r="X57">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58">
+            <v>57</v>
+          </cell>
+          <cell r="B58">
+            <v>1</v>
+          </cell>
+          <cell r="C58">
+            <v>5</v>
+          </cell>
+          <cell r="D58">
+            <v>30</v>
+          </cell>
+          <cell r="E58">
+            <v>20</v>
+          </cell>
+          <cell r="F58">
+            <v>35</v>
+          </cell>
+          <cell r="G58">
+            <v>10</v>
+          </cell>
+          <cell r="H58">
+            <v>35</v>
+          </cell>
+          <cell r="I58" t="str">
+            <v/>
+          </cell>
+          <cell r="J58" t="str">
+            <v/>
+          </cell>
+          <cell r="K58" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L58" t="str">
+            <v>Yes</v>
+          </cell>
+          <cell r="M58">
+            <v>0</v>
+          </cell>
+          <cell r="N58" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P58">
+            <v>57</v>
+          </cell>
+          <cell r="Q58">
+            <v>4.5678856449968741</v>
+          </cell>
+          <cell r="R58">
+            <v>35</v>
+          </cell>
+          <cell r="S58">
+            <v>1</v>
+          </cell>
+          <cell r="T58">
+            <v>1.6</v>
+          </cell>
+          <cell r="U58">
+            <v>0.37</v>
+          </cell>
+          <cell r="V58">
+            <v>18.329999999999998</v>
+          </cell>
+          <cell r="W58">
+            <v>1.6</v>
+          </cell>
+          <cell r="X58">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59">
+            <v>58</v>
+          </cell>
+          <cell r="B59">
+            <v>1</v>
+          </cell>
+          <cell r="C59">
+            <v>5</v>
+          </cell>
+          <cell r="D59">
+            <v>32.5</v>
+          </cell>
+          <cell r="E59">
+            <v>20</v>
+          </cell>
+          <cell r="F59">
+            <v>35</v>
+          </cell>
+          <cell r="G59">
+            <v>10</v>
+          </cell>
+          <cell r="H59">
+            <v>35</v>
+          </cell>
+          <cell r="I59" t="str">
+            <v/>
+          </cell>
+          <cell r="J59" t="str">
+            <v/>
+          </cell>
+          <cell r="K59" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L59" t="str">
+            <v>Yes</v>
+          </cell>
+          <cell r="M59">
+            <v>0</v>
+          </cell>
+          <cell r="N59" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P59">
+            <v>58</v>
+          </cell>
+          <cell r="Q59">
+            <v>4.3833112708022055</v>
+          </cell>
+          <cell r="R59">
+            <v>35</v>
+          </cell>
+          <cell r="S59">
+            <v>1</v>
+          </cell>
+          <cell r="T59">
+            <v>1.5</v>
+          </cell>
+          <cell r="U59">
+            <v>0.37</v>
+          </cell>
+          <cell r="V59">
+            <v>18.329999999999998</v>
+          </cell>
+          <cell r="W59">
+            <v>1.5</v>
+          </cell>
+          <cell r="X59">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60">
+            <v>59</v>
+          </cell>
+          <cell r="B60">
+            <v>1</v>
+          </cell>
+          <cell r="C60">
+            <v>5</v>
+          </cell>
+          <cell r="D60">
+            <v>35</v>
+          </cell>
+          <cell r="E60">
+            <v>20</v>
+          </cell>
+          <cell r="F60">
+            <v>35</v>
+          </cell>
+          <cell r="G60">
+            <v>10</v>
+          </cell>
+          <cell r="H60">
+            <v>35</v>
+          </cell>
+          <cell r="I60" t="str">
+            <v/>
+          </cell>
+          <cell r="J60" t="str">
+            <v/>
+          </cell>
+          <cell r="K60" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L60" t="str">
+            <v>Yes</v>
+          </cell>
+          <cell r="M60">
+            <v>0</v>
+          </cell>
+          <cell r="N60" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P60">
+            <v>59</v>
+          </cell>
+          <cell r="Q60">
+            <v>4.3833112708022055</v>
+          </cell>
+          <cell r="R60">
+            <v>35</v>
+          </cell>
+          <cell r="S60">
+            <v>1</v>
+          </cell>
+          <cell r="T60">
+            <v>1.5</v>
+          </cell>
+          <cell r="U60">
+            <v>0.37</v>
+          </cell>
+          <cell r="V60">
+            <v>18.329999999999998</v>
+          </cell>
+          <cell r="W60">
+            <v>1.5</v>
+          </cell>
+          <cell r="X60">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61">
+            <v>60</v>
+          </cell>
+          <cell r="B61">
+            <v>1</v>
+          </cell>
+          <cell r="C61">
+            <v>5</v>
+          </cell>
+          <cell r="D61">
+            <v>37.5</v>
+          </cell>
+          <cell r="E61">
+            <v>20</v>
+          </cell>
+          <cell r="F61">
+            <v>35</v>
+          </cell>
+          <cell r="G61">
+            <v>10</v>
+          </cell>
+          <cell r="H61">
+            <v>35</v>
+          </cell>
+          <cell r="I61" t="str">
+            <v/>
+          </cell>
+          <cell r="J61" t="str">
+            <v/>
+          </cell>
+          <cell r="K61" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L61" t="str">
+            <v>Yes</v>
+          </cell>
+          <cell r="M61">
+            <v>0</v>
+          </cell>
+          <cell r="N61" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P61">
+            <v>60</v>
+          </cell>
+          <cell r="Q61">
+            <v>4.3833112708022055</v>
+          </cell>
+          <cell r="R61">
+            <v>35</v>
+          </cell>
+          <cell r="S61">
+            <v>1</v>
+          </cell>
+          <cell r="T61">
+            <v>1.5</v>
+          </cell>
+          <cell r="U61">
+            <v>0.37</v>
+          </cell>
+          <cell r="V61">
+            <v>18.329999999999998</v>
+          </cell>
+          <cell r="W61">
+            <v>1.5</v>
+          </cell>
+          <cell r="X61">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62">
+            <v>61</v>
+          </cell>
+          <cell r="B62">
+            <v>1</v>
+          </cell>
+          <cell r="C62">
+            <v>5</v>
+          </cell>
+          <cell r="D62">
+            <v>40</v>
+          </cell>
+          <cell r="E62">
+            <v>20</v>
+          </cell>
+          <cell r="F62">
+            <v>35</v>
+          </cell>
+          <cell r="G62">
+            <v>10</v>
+          </cell>
+          <cell r="H62">
+            <v>35</v>
+          </cell>
+          <cell r="I62" t="str">
+            <v/>
+          </cell>
+          <cell r="J62" t="str">
+            <v/>
+          </cell>
+          <cell r="K62" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L62" t="str">
+            <v>Yes</v>
+          </cell>
+          <cell r="M62">
+            <v>0</v>
+          </cell>
+          <cell r="N62" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P62">
+            <v>61</v>
+          </cell>
+          <cell r="Q62">
+            <v>4.3833112708022055</v>
+          </cell>
+          <cell r="R62">
+            <v>35</v>
+          </cell>
+          <cell r="S62">
+            <v>1</v>
+          </cell>
+          <cell r="T62">
+            <v>1.5</v>
+          </cell>
+          <cell r="U62">
+            <v>0.37</v>
+          </cell>
+          <cell r="V62">
+            <v>18.329999999999998</v>
+          </cell>
+          <cell r="W62">
+            <v>1.5</v>
+          </cell>
+          <cell r="X62">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63">
+            <v>62</v>
+          </cell>
+          <cell r="B63">
+            <v>1</v>
+          </cell>
+          <cell r="C63">
+            <v>5</v>
+          </cell>
+          <cell r="D63">
+            <v>42.5</v>
+          </cell>
+          <cell r="E63">
+            <v>20</v>
+          </cell>
+          <cell r="F63">
+            <v>35</v>
+          </cell>
+          <cell r="G63">
+            <v>10</v>
+          </cell>
+          <cell r="H63">
+            <v>35</v>
+          </cell>
+          <cell r="I63" t="str">
+            <v/>
+          </cell>
+          <cell r="J63" t="str">
+            <v/>
+          </cell>
+          <cell r="K63" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L63" t="str">
+            <v>Yes</v>
+          </cell>
+          <cell r="M63">
+            <v>0</v>
+          </cell>
+          <cell r="N63" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P63">
+            <v>62</v>
+          </cell>
+          <cell r="Q63">
+            <v>4.3833112708022055</v>
+          </cell>
+          <cell r="R63">
+            <v>35</v>
+          </cell>
+          <cell r="S63">
+            <v>1</v>
+          </cell>
+          <cell r="T63">
+            <v>1.5</v>
+          </cell>
+          <cell r="U63">
+            <v>0.37</v>
+          </cell>
+          <cell r="V63">
+            <v>18.329999999999998</v>
+          </cell>
+          <cell r="W63">
+            <v>1.5</v>
+          </cell>
+          <cell r="X63">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64">
+            <v>63</v>
+          </cell>
+          <cell r="B64">
+            <v>1</v>
+          </cell>
+          <cell r="C64">
+            <v>5</v>
+          </cell>
+          <cell r="D64">
+            <v>45</v>
+          </cell>
+          <cell r="E64">
+            <v>20</v>
+          </cell>
+          <cell r="F64">
+            <v>35</v>
+          </cell>
+          <cell r="G64">
+            <v>10</v>
+          </cell>
+          <cell r="H64">
+            <v>35</v>
+          </cell>
+          <cell r="I64" t="str">
+            <v/>
+          </cell>
+          <cell r="J64" t="str">
+            <v/>
+          </cell>
+          <cell r="K64" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L64" t="str">
+            <v>Yes</v>
+          </cell>
+          <cell r="M64">
+            <v>0</v>
+          </cell>
+          <cell r="N64" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P64">
+            <v>63</v>
+          </cell>
+          <cell r="Q64">
+            <v>4.5678856449968741</v>
+          </cell>
+          <cell r="R64">
+            <v>35</v>
+          </cell>
+          <cell r="S64">
+            <v>1</v>
+          </cell>
+          <cell r="T64">
+            <v>1.6</v>
+          </cell>
+          <cell r="U64">
+            <v>0.37</v>
+          </cell>
+          <cell r="V64">
+            <v>18.329999999999998</v>
+          </cell>
+          <cell r="W64">
+            <v>1.6</v>
+          </cell>
+          <cell r="X64">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65">
+            <v>64</v>
+          </cell>
+          <cell r="B65">
+            <v>1</v>
+          </cell>
+          <cell r="C65">
+            <v>5</v>
+          </cell>
+          <cell r="D65">
+            <v>47.5</v>
+          </cell>
+          <cell r="E65">
+            <v>20</v>
+          </cell>
+          <cell r="F65">
+            <v>35</v>
+          </cell>
+          <cell r="G65">
+            <v>10</v>
+          </cell>
+          <cell r="H65">
+            <v>35</v>
+          </cell>
+          <cell r="I65" t="str">
+            <v/>
+          </cell>
+          <cell r="J65" t="str">
+            <v/>
+          </cell>
+          <cell r="K65" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L65" t="str">
+            <v>Yes</v>
+          </cell>
+          <cell r="M65">
+            <v>0</v>
+          </cell>
+          <cell r="N65" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P65">
+            <v>64</v>
+          </cell>
+          <cell r="Q65">
+            <v>4.5678856449968741</v>
+          </cell>
+          <cell r="R65">
+            <v>35</v>
+          </cell>
+          <cell r="S65">
+            <v>1</v>
+          </cell>
+          <cell r="T65">
+            <v>1.6</v>
+          </cell>
+          <cell r="U65">
+            <v>0.37</v>
+          </cell>
+          <cell r="V65">
+            <v>18.329999999999998</v>
+          </cell>
+          <cell r="W65">
+            <v>1.6</v>
+          </cell>
+          <cell r="X65">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66">
+            <v>65</v>
+          </cell>
+          <cell r="B66">
+            <v>1</v>
+          </cell>
+          <cell r="C66">
+            <v>5</v>
+          </cell>
+          <cell r="D66">
+            <v>50</v>
+          </cell>
+          <cell r="E66">
+            <v>20</v>
+          </cell>
+          <cell r="F66">
+            <v>35</v>
+          </cell>
+          <cell r="G66">
+            <v>10</v>
+          </cell>
+          <cell r="H66">
+            <v>35</v>
+          </cell>
+          <cell r="I66" t="str">
+            <v/>
+          </cell>
+          <cell r="J66" t="str">
+            <v/>
+          </cell>
+          <cell r="K66" t="str">
+            <v>Rectangular Corner</v>
+          </cell>
+          <cell r="L66" t="str">
+            <v>Yes</v>
+          </cell>
+          <cell r="M66">
+            <v>0</v>
+          </cell>
+          <cell r="N66" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P66">
+            <v>65</v>
+          </cell>
+          <cell r="Q66">
+            <v>9.4353293052066434</v>
+          </cell>
+          <cell r="R66">
+            <v>35</v>
+          </cell>
+          <cell r="S66">
+            <v>1</v>
+          </cell>
+          <cell r="T66">
+            <v>3.5</v>
+          </cell>
+          <cell r="U66">
+            <v>0.37</v>
+          </cell>
+          <cell r="V66">
+            <v>18.329999999999998</v>
+          </cell>
+          <cell r="W66">
+            <v>3.5</v>
+          </cell>
+          <cell r="X66">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67">
+            <v>66</v>
+          </cell>
+          <cell r="B67">
+            <v>1</v>
+          </cell>
+          <cell r="C67">
+            <v>5</v>
+          </cell>
+          <cell r="D67">
+            <v>50</v>
+          </cell>
+          <cell r="E67">
+            <v>17.5</v>
+          </cell>
+          <cell r="F67">
+            <v>35</v>
+          </cell>
+          <cell r="G67">
+            <v>10</v>
+          </cell>
+          <cell r="H67">
+            <v>35</v>
+          </cell>
+          <cell r="I67" t="str">
+            <v/>
+          </cell>
+          <cell r="J67" t="str">
+            <v/>
+          </cell>
+          <cell r="K67" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L67" t="str">
+            <v>Yes</v>
+          </cell>
+          <cell r="M67">
+            <v>0</v>
+          </cell>
+          <cell r="N67" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P67">
+            <v>66</v>
+          </cell>
+          <cell r="Q67">
+            <v>4.5678856449968741</v>
+          </cell>
+          <cell r="R67">
+            <v>35</v>
+          </cell>
+          <cell r="S67">
+            <v>1</v>
+          </cell>
+          <cell r="T67">
+            <v>1.6</v>
+          </cell>
+          <cell r="U67">
+            <v>0.37</v>
+          </cell>
+          <cell r="V67">
+            <v>18.329999999999998</v>
+          </cell>
+          <cell r="W67">
+            <v>1.6</v>
+          </cell>
+          <cell r="X67">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68">
+            <v>67</v>
+          </cell>
+          <cell r="B68">
+            <v>1</v>
+          </cell>
+          <cell r="C68">
+            <v>5</v>
+          </cell>
+          <cell r="D68">
+            <v>50</v>
+          </cell>
+          <cell r="E68">
+            <v>15</v>
+          </cell>
+          <cell r="F68">
+            <v>35</v>
+          </cell>
+          <cell r="G68">
+            <v>10</v>
+          </cell>
+          <cell r="H68">
+            <v>35</v>
+          </cell>
+          <cell r="I68" t="str">
+            <v/>
+          </cell>
+          <cell r="J68" t="str">
+            <v/>
+          </cell>
+          <cell r="K68" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L68" t="str">
+            <v>Yes</v>
+          </cell>
+          <cell r="M68">
+            <v>0</v>
+          </cell>
+          <cell r="N68" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P68">
+            <v>67</v>
+          </cell>
+          <cell r="Q68">
+            <v>4.5678856449968741</v>
+          </cell>
+          <cell r="R68">
+            <v>35</v>
+          </cell>
+          <cell r="S68">
+            <v>1</v>
+          </cell>
+          <cell r="T68">
+            <v>1.6</v>
+          </cell>
+          <cell r="U68">
+            <v>0.37</v>
+          </cell>
+          <cell r="V68">
+            <v>18.329999999999998</v>
+          </cell>
+          <cell r="W68">
+            <v>1.6</v>
+          </cell>
+          <cell r="X68">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69">
+            <v>68</v>
+          </cell>
+          <cell r="B69">
+            <v>1</v>
+          </cell>
+          <cell r="C69">
+            <v>5</v>
+          </cell>
+          <cell r="D69">
+            <v>50</v>
+          </cell>
+          <cell r="E69">
+            <v>12.5</v>
+          </cell>
+          <cell r="F69">
+            <v>35</v>
+          </cell>
+          <cell r="G69">
+            <v>10</v>
+          </cell>
+          <cell r="H69">
+            <v>35</v>
+          </cell>
+          <cell r="I69" t="str">
+            <v/>
+          </cell>
+          <cell r="J69" t="str">
+            <v/>
+          </cell>
+          <cell r="K69" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L69" t="str">
+            <v>Yes</v>
+          </cell>
+          <cell r="M69">
+            <v>0</v>
+          </cell>
+          <cell r="N69" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P69">
+            <v>68</v>
+          </cell>
+          <cell r="Q69">
+            <v>4.5678856449968741</v>
+          </cell>
+          <cell r="R69">
+            <v>35</v>
+          </cell>
+          <cell r="S69">
+            <v>1</v>
+          </cell>
+          <cell r="T69">
+            <v>1.6</v>
+          </cell>
+          <cell r="U69">
+            <v>0.37</v>
+          </cell>
+          <cell r="V69">
+            <v>18.329999999999998</v>
+          </cell>
+          <cell r="W69">
+            <v>1.6</v>
+          </cell>
+          <cell r="X69">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70">
+            <v>69</v>
+          </cell>
+          <cell r="B70">
+            <v>1</v>
+          </cell>
+          <cell r="C70">
+            <v>5</v>
+          </cell>
+          <cell r="D70">
+            <v>50</v>
+          </cell>
+          <cell r="E70">
+            <v>10</v>
+          </cell>
+          <cell r="F70">
+            <v>35</v>
+          </cell>
+          <cell r="G70">
+            <v>10</v>
+          </cell>
+          <cell r="H70">
+            <v>35</v>
+          </cell>
+          <cell r="I70" t="str">
+            <v/>
+          </cell>
+          <cell r="J70" t="str">
+            <v/>
+          </cell>
+          <cell r="K70" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L70" t="str">
+            <v>Yes</v>
+          </cell>
+          <cell r="M70">
+            <v>0</v>
+          </cell>
+          <cell r="N70" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P70">
+            <v>69</v>
+          </cell>
+          <cell r="Q70">
+            <v>4.5678856449968741</v>
+          </cell>
+          <cell r="R70">
+            <v>35</v>
+          </cell>
+          <cell r="S70">
+            <v>1</v>
+          </cell>
+          <cell r="T70">
+            <v>1.6</v>
+          </cell>
+          <cell r="U70">
+            <v>0.37</v>
+          </cell>
+          <cell r="V70">
+            <v>18.329999999999998</v>
+          </cell>
+          <cell r="W70">
+            <v>1.6</v>
+          </cell>
+          <cell r="X70">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71">
+            <v>70</v>
+          </cell>
+          <cell r="B71">
+            <v>1</v>
+          </cell>
+          <cell r="C71">
+            <v>5</v>
+          </cell>
+          <cell r="D71">
+            <v>47.5</v>
+          </cell>
+          <cell r="E71">
+            <v>10</v>
+          </cell>
+          <cell r="F71">
+            <v>35</v>
+          </cell>
+          <cell r="G71">
+            <v>10</v>
+          </cell>
+          <cell r="H71">
+            <v>35</v>
+          </cell>
+          <cell r="I71" t="str">
+            <v/>
+          </cell>
+          <cell r="J71" t="str">
+            <v/>
+          </cell>
+          <cell r="K71" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L71" t="str">
+            <v>No</v>
+          </cell>
+          <cell r="M71">
+            <v>0</v>
+          </cell>
+          <cell r="N71" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P71">
+            <v>70</v>
+          </cell>
+          <cell r="Q71">
+            <v>7.6053854609876375</v>
+          </cell>
+          <cell r="R71">
+            <v>35</v>
+          </cell>
+          <cell r="S71">
+            <v>1</v>
+          </cell>
+          <cell r="T71">
+            <v>2.8</v>
+          </cell>
+          <cell r="U71">
+            <v>0.37</v>
+          </cell>
+          <cell r="V71">
+            <v>18.329999999999998</v>
+          </cell>
+          <cell r="W71">
+            <v>2.8</v>
+          </cell>
+          <cell r="X71">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72">
+            <v>71</v>
+          </cell>
+          <cell r="B72">
+            <v>1</v>
+          </cell>
+          <cell r="C72">
+            <v>5</v>
+          </cell>
+          <cell r="D72">
+            <v>45</v>
+          </cell>
+          <cell r="E72">
+            <v>10</v>
+          </cell>
+          <cell r="F72">
+            <v>35</v>
+          </cell>
+          <cell r="G72">
+            <v>10</v>
+          </cell>
+          <cell r="H72">
+            <v>35</v>
+          </cell>
+          <cell r="I72" t="str">
+            <v/>
+          </cell>
+          <cell r="J72" t="str">
+            <v/>
+          </cell>
+          <cell r="K72" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L72" t="str">
+            <v>No</v>
+          </cell>
+          <cell r="M72">
+            <v>0</v>
+          </cell>
+          <cell r="N72" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P72">
+            <v>71</v>
+          </cell>
+          <cell r="Q72">
+            <v>7.6053854609876375</v>
+          </cell>
+          <cell r="R72">
+            <v>35</v>
+          </cell>
+          <cell r="S72">
+            <v>1</v>
+          </cell>
+          <cell r="T72">
+            <v>2.8</v>
+          </cell>
+          <cell r="U72">
+            <v>0.37</v>
+          </cell>
+          <cell r="V72">
+            <v>18.329999999999998</v>
+          </cell>
+          <cell r="W72">
+            <v>2.8</v>
+          </cell>
+          <cell r="X72">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73">
+            <v>72</v>
+          </cell>
+          <cell r="B73">
+            <v>1</v>
+          </cell>
+          <cell r="C73">
+            <v>5</v>
+          </cell>
+          <cell r="D73">
+            <v>42.5</v>
+          </cell>
+          <cell r="E73">
+            <v>10</v>
+          </cell>
+          <cell r="F73">
+            <v>35</v>
+          </cell>
+          <cell r="G73">
+            <v>10</v>
+          </cell>
+          <cell r="H73">
+            <v>35</v>
+          </cell>
+          <cell r="I73" t="str">
+            <v/>
+          </cell>
+          <cell r="J73" t="str">
+            <v/>
+          </cell>
+          <cell r="K73" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L73" t="str">
+            <v>No</v>
+          </cell>
+          <cell r="M73">
+            <v>0</v>
+          </cell>
+          <cell r="N73" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P73">
+            <v>72</v>
+          </cell>
+          <cell r="Q73">
+            <v>7.298074952129225</v>
+          </cell>
+          <cell r="R73">
+            <v>35</v>
+          </cell>
+          <cell r="S73">
+            <v>1</v>
+          </cell>
+          <cell r="T73">
+            <v>2.7</v>
+          </cell>
+          <cell r="U73">
+            <v>0.37</v>
+          </cell>
+          <cell r="V73">
+            <v>18.329999999999998</v>
+          </cell>
+          <cell r="W73">
+            <v>2.7</v>
+          </cell>
+          <cell r="X73">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74">
+            <v>73</v>
+          </cell>
+          <cell r="B74">
+            <v>1</v>
+          </cell>
+          <cell r="C74">
+            <v>5</v>
+          </cell>
+          <cell r="D74">
+            <v>40</v>
+          </cell>
+          <cell r="E74">
+            <v>10</v>
+          </cell>
+          <cell r="F74">
+            <v>35</v>
+          </cell>
+          <cell r="G74">
+            <v>10</v>
+          </cell>
+          <cell r="H74">
+            <v>35</v>
+          </cell>
+          <cell r="I74" t="str">
+            <v/>
+          </cell>
+          <cell r="J74" t="str">
+            <v/>
+          </cell>
+          <cell r="K74" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L74" t="str">
+            <v>Yes</v>
+          </cell>
+          <cell r="M74">
+            <v>0</v>
+          </cell>
+          <cell r="N74" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P74">
+            <v>73</v>
+          </cell>
+          <cell r="Q74">
+            <v>4.3833112708022055</v>
+          </cell>
+          <cell r="R74">
+            <v>35</v>
+          </cell>
+          <cell r="S74">
+            <v>1</v>
+          </cell>
+          <cell r="T74">
+            <v>1.5</v>
+          </cell>
+          <cell r="U74">
+            <v>0.37</v>
+          </cell>
+          <cell r="V74">
+            <v>18.329999999999998</v>
+          </cell>
+          <cell r="W74">
+            <v>1.5</v>
+          </cell>
+          <cell r="X74">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75">
+            <v>74</v>
+          </cell>
+          <cell r="B75">
+            <v>1</v>
+          </cell>
+          <cell r="C75">
+            <v>5</v>
+          </cell>
+          <cell r="D75">
+            <v>37.5</v>
+          </cell>
+          <cell r="E75">
+            <v>10</v>
+          </cell>
+          <cell r="F75">
+            <v>35</v>
+          </cell>
+          <cell r="G75">
+            <v>10</v>
+          </cell>
+          <cell r="H75">
+            <v>35</v>
+          </cell>
+          <cell r="I75" t="str">
+            <v/>
+          </cell>
+          <cell r="J75" t="str">
+            <v/>
+          </cell>
+          <cell r="K75" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L75" t="str">
+            <v>Yes</v>
+          </cell>
+          <cell r="M75">
+            <v>0</v>
+          </cell>
+          <cell r="N75" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P75">
+            <v>74</v>
+          </cell>
+          <cell r="Q75">
+            <v>4.3833112708022055</v>
+          </cell>
+          <cell r="R75">
+            <v>35</v>
+          </cell>
+          <cell r="S75">
+            <v>1</v>
+          </cell>
+          <cell r="T75">
+            <v>1.5</v>
+          </cell>
+          <cell r="U75">
+            <v>0.37</v>
+          </cell>
+          <cell r="V75">
+            <v>18.329999999999998</v>
+          </cell>
+          <cell r="W75">
+            <v>1.5</v>
+          </cell>
+          <cell r="X75">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76">
+            <v>75</v>
+          </cell>
+          <cell r="B76">
+            <v>1</v>
+          </cell>
+          <cell r="C76">
+            <v>5</v>
+          </cell>
+          <cell r="D76">
+            <v>35</v>
+          </cell>
+          <cell r="E76">
+            <v>10</v>
+          </cell>
+          <cell r="F76">
+            <v>35</v>
+          </cell>
+          <cell r="G76">
+            <v>10</v>
+          </cell>
+          <cell r="H76">
+            <v>35</v>
+          </cell>
+          <cell r="I76" t="str">
+            <v/>
+          </cell>
+          <cell r="J76" t="str">
+            <v/>
+          </cell>
+          <cell r="K76" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L76" t="str">
+            <v>Yes</v>
+          </cell>
+          <cell r="M76">
+            <v>0</v>
+          </cell>
+          <cell r="N76" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P76">
+            <v>75</v>
+          </cell>
+          <cell r="Q76">
+            <v>4.3833112708022055</v>
+          </cell>
+          <cell r="R76">
+            <v>35</v>
+          </cell>
+          <cell r="S76">
+            <v>1</v>
+          </cell>
+          <cell r="T76">
+            <v>1.5</v>
+          </cell>
+          <cell r="U76">
+            <v>0.37</v>
+          </cell>
+          <cell r="V76">
+            <v>18.329999999999998</v>
+          </cell>
+          <cell r="W76">
+            <v>1.5</v>
+          </cell>
+          <cell r="X76">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77">
+            <v>76</v>
+          </cell>
+          <cell r="B77">
+            <v>1</v>
+          </cell>
+          <cell r="C77">
+            <v>5</v>
+          </cell>
+          <cell r="D77">
+            <v>32.5</v>
+          </cell>
+          <cell r="E77">
+            <v>10</v>
+          </cell>
+          <cell r="F77">
+            <v>35</v>
+          </cell>
+          <cell r="G77">
+            <v>10</v>
+          </cell>
+          <cell r="H77">
+            <v>35</v>
+          </cell>
+          <cell r="I77" t="str">
+            <v/>
+          </cell>
+          <cell r="J77" t="str">
+            <v/>
+          </cell>
+          <cell r="K77" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L77" t="str">
+            <v>Yes</v>
+          </cell>
+          <cell r="M77">
+            <v>0</v>
+          </cell>
+          <cell r="N77" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P77">
+            <v>76</v>
+          </cell>
+          <cell r="Q77">
+            <v>4.3833112708022055</v>
+          </cell>
+          <cell r="R77">
+            <v>35</v>
+          </cell>
+          <cell r="S77">
+            <v>1</v>
+          </cell>
+          <cell r="T77">
+            <v>1.5</v>
+          </cell>
+          <cell r="U77">
+            <v>0.37</v>
+          </cell>
+          <cell r="V77">
+            <v>18.329999999999998</v>
+          </cell>
+          <cell r="W77">
+            <v>1.5</v>
+          </cell>
+          <cell r="X77">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78">
+            <v>77</v>
+          </cell>
+          <cell r="B78">
+            <v>1</v>
+          </cell>
+          <cell r="C78">
+            <v>5</v>
+          </cell>
+          <cell r="D78">
+            <v>30</v>
+          </cell>
+          <cell r="E78">
+            <v>10</v>
+          </cell>
+          <cell r="F78">
+            <v>35</v>
+          </cell>
+          <cell r="G78">
+            <v>10</v>
+          </cell>
+          <cell r="H78">
+            <v>35</v>
+          </cell>
+          <cell r="I78" t="str">
+            <v/>
+          </cell>
+          <cell r="J78" t="str">
+            <v/>
+          </cell>
+          <cell r="K78" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L78" t="str">
+            <v>Yes</v>
+          </cell>
+          <cell r="M78">
+            <v>0</v>
+          </cell>
+          <cell r="N78" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P78">
+            <v>77</v>
+          </cell>
+          <cell r="Q78">
+            <v>4.5678856449968741</v>
+          </cell>
+          <cell r="R78">
+            <v>35</v>
+          </cell>
+          <cell r="S78">
+            <v>1</v>
+          </cell>
+          <cell r="T78">
+            <v>1.6</v>
+          </cell>
+          <cell r="U78">
+            <v>0.37</v>
+          </cell>
+          <cell r="V78">
+            <v>18.329999999999998</v>
+          </cell>
+          <cell r="W78">
+            <v>1.6</v>
+          </cell>
+          <cell r="X78">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79">
+            <v>78</v>
+          </cell>
+          <cell r="B79">
+            <v>1</v>
+          </cell>
+          <cell r="C79">
+            <v>5</v>
+          </cell>
+          <cell r="D79">
+            <v>27.5</v>
+          </cell>
+          <cell r="E79">
+            <v>10</v>
+          </cell>
+          <cell r="F79">
+            <v>35</v>
+          </cell>
+          <cell r="G79">
+            <v>10</v>
+          </cell>
+          <cell r="H79">
+            <v>35</v>
+          </cell>
+          <cell r="I79" t="str">
+            <v/>
+          </cell>
+          <cell r="J79" t="str">
+            <v/>
+          </cell>
+          <cell r="K79" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L79" t="str">
+            <v>No</v>
+          </cell>
+          <cell r="M79">
+            <v>0</v>
+          </cell>
+          <cell r="N79" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P79">
+            <v>78</v>
+          </cell>
+          <cell r="Q79">
+            <v>7.6053854609876375</v>
+          </cell>
+          <cell r="R79">
+            <v>35</v>
+          </cell>
+          <cell r="S79">
+            <v>1</v>
+          </cell>
+          <cell r="T79">
+            <v>2.8</v>
+          </cell>
+          <cell r="U79">
+            <v>0.37</v>
+          </cell>
+          <cell r="V79">
+            <v>18.329999999999998</v>
+          </cell>
+          <cell r="W79">
+            <v>2.8</v>
+          </cell>
+          <cell r="X79">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80">
+            <v>79</v>
+          </cell>
+          <cell r="B80">
+            <v>1</v>
+          </cell>
+          <cell r="C80">
+            <v>5</v>
+          </cell>
+          <cell r="D80">
+            <v>25</v>
+          </cell>
+          <cell r="E80">
+            <v>10</v>
+          </cell>
+          <cell r="F80">
+            <v>35</v>
+          </cell>
+          <cell r="G80">
+            <v>10</v>
+          </cell>
+          <cell r="H80">
+            <v>35</v>
+          </cell>
+          <cell r="I80" t="str">
+            <v/>
+          </cell>
+          <cell r="J80" t="str">
+            <v/>
+          </cell>
+          <cell r="K80" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L80" t="str">
+            <v>No</v>
+          </cell>
+          <cell r="M80">
+            <v>0</v>
+          </cell>
+          <cell r="N80" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P80">
+            <v>79</v>
+          </cell>
+          <cell r="Q80">
+            <v>7.6053854609876375</v>
+          </cell>
+          <cell r="R80">
+            <v>35</v>
+          </cell>
+          <cell r="S80">
+            <v>1</v>
+          </cell>
+          <cell r="T80">
+            <v>2.8</v>
+          </cell>
+          <cell r="U80">
+            <v>0.37</v>
+          </cell>
+          <cell r="V80">
+            <v>18.329999999999998</v>
+          </cell>
+          <cell r="W80">
+            <v>2.8</v>
+          </cell>
+          <cell r="X80">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81">
+            <v>80</v>
+          </cell>
+          <cell r="B81">
+            <v>1</v>
+          </cell>
+          <cell r="C81">
+            <v>5</v>
+          </cell>
+          <cell r="D81">
+            <v>22.5</v>
+          </cell>
+          <cell r="E81">
+            <v>10</v>
+          </cell>
+          <cell r="F81">
+            <v>35</v>
+          </cell>
+          <cell r="G81">
+            <v>10</v>
+          </cell>
+          <cell r="H81">
+            <v>35</v>
+          </cell>
+          <cell r="I81" t="str">
+            <v/>
+          </cell>
+          <cell r="J81" t="str">
+            <v/>
+          </cell>
+          <cell r="K81" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L81" t="str">
+            <v>No</v>
+          </cell>
+          <cell r="M81">
+            <v>0</v>
+          </cell>
+          <cell r="N81" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P81">
+            <v>80</v>
+          </cell>
+          <cell r="Q81">
+            <v>7.298074952129225</v>
+          </cell>
+          <cell r="R81">
+            <v>35</v>
+          </cell>
+          <cell r="S81">
+            <v>1</v>
+          </cell>
+          <cell r="T81">
+            <v>2.7</v>
+          </cell>
+          <cell r="U81">
+            <v>0.37</v>
+          </cell>
+          <cell r="V81">
+            <v>18.329999999999998</v>
+          </cell>
+          <cell r="W81">
+            <v>2.7</v>
+          </cell>
+          <cell r="X81">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82">
+            <v>81</v>
+          </cell>
+          <cell r="B82">
+            <v>1</v>
+          </cell>
+          <cell r="C82">
+            <v>5</v>
+          </cell>
+          <cell r="D82">
+            <v>20</v>
+          </cell>
+          <cell r="E82">
+            <v>10</v>
+          </cell>
+          <cell r="F82">
+            <v>35</v>
+          </cell>
+          <cell r="G82">
+            <v>10</v>
+          </cell>
+          <cell r="H82">
+            <v>35</v>
+          </cell>
+          <cell r="I82" t="str">
+            <v/>
+          </cell>
+          <cell r="J82" t="str">
+            <v/>
+          </cell>
+          <cell r="K82" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L82" t="str">
+            <v>Yes</v>
+          </cell>
+          <cell r="M82">
+            <v>0</v>
+          </cell>
+          <cell r="N82" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P82">
+            <v>81</v>
+          </cell>
+          <cell r="Q82">
+            <v>4.3833112708022055</v>
+          </cell>
+          <cell r="R82">
+            <v>35</v>
+          </cell>
+          <cell r="S82">
+            <v>1</v>
+          </cell>
+          <cell r="T82">
+            <v>1.5</v>
+          </cell>
+          <cell r="U82">
+            <v>0.37</v>
+          </cell>
+          <cell r="V82">
+            <v>18.329999999999998</v>
+          </cell>
+          <cell r="W82">
+            <v>1.5</v>
+          </cell>
+          <cell r="X82">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83">
+            <v>82</v>
+          </cell>
+          <cell r="B83">
+            <v>1</v>
+          </cell>
+          <cell r="C83">
+            <v>5</v>
+          </cell>
+          <cell r="D83">
+            <v>17.5</v>
+          </cell>
+          <cell r="E83">
+            <v>10</v>
+          </cell>
+          <cell r="F83">
+            <v>35</v>
+          </cell>
+          <cell r="G83">
+            <v>10</v>
+          </cell>
+          <cell r="H83">
+            <v>35</v>
+          </cell>
+          <cell r="I83" t="str">
+            <v/>
+          </cell>
+          <cell r="J83" t="str">
+            <v/>
+          </cell>
+          <cell r="K83" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L83" t="str">
+            <v>Yes</v>
+          </cell>
+          <cell r="M83">
+            <v>0</v>
+          </cell>
+          <cell r="N83" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P83">
+            <v>82</v>
+          </cell>
+          <cell r="Q83">
+            <v>4.3833112708022055</v>
+          </cell>
+          <cell r="R83">
+            <v>35</v>
+          </cell>
+          <cell r="S83">
+            <v>1</v>
+          </cell>
+          <cell r="T83">
+            <v>1.5</v>
+          </cell>
+          <cell r="U83">
+            <v>0.37</v>
+          </cell>
+          <cell r="V83">
+            <v>18.329999999999998</v>
+          </cell>
+          <cell r="W83">
+            <v>1.5</v>
+          </cell>
+          <cell r="X83">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84">
+            <v>83</v>
+          </cell>
+          <cell r="B84">
+            <v>1</v>
+          </cell>
+          <cell r="C84">
+            <v>5</v>
+          </cell>
+          <cell r="D84">
+            <v>15</v>
+          </cell>
+          <cell r="E84">
+            <v>10</v>
+          </cell>
+          <cell r="F84">
+            <v>35</v>
+          </cell>
+          <cell r="G84">
+            <v>10</v>
+          </cell>
+          <cell r="H84">
+            <v>35</v>
+          </cell>
+          <cell r="I84" t="str">
+            <v/>
+          </cell>
+          <cell r="J84" t="str">
+            <v/>
+          </cell>
+          <cell r="K84" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L84" t="str">
+            <v>Yes</v>
+          </cell>
+          <cell r="M84">
+            <v>0</v>
+          </cell>
+          <cell r="N84" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P84">
+            <v>83</v>
+          </cell>
+          <cell r="Q84">
+            <v>4.3833112708022055</v>
+          </cell>
+          <cell r="R84">
+            <v>35</v>
+          </cell>
+          <cell r="S84">
+            <v>1</v>
+          </cell>
+          <cell r="T84">
+            <v>1.5</v>
+          </cell>
+          <cell r="U84">
+            <v>0.37</v>
+          </cell>
+          <cell r="V84">
+            <v>18.329999999999998</v>
+          </cell>
+          <cell r="W84">
+            <v>1.5</v>
+          </cell>
+          <cell r="X84">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85">
+            <v>84</v>
+          </cell>
+          <cell r="B85">
+            <v>1</v>
+          </cell>
+          <cell r="C85">
+            <v>5</v>
+          </cell>
+          <cell r="D85">
+            <v>12.5</v>
+          </cell>
+          <cell r="E85">
+            <v>10</v>
+          </cell>
+          <cell r="F85">
+            <v>35</v>
+          </cell>
+          <cell r="G85">
+            <v>10</v>
+          </cell>
+          <cell r="H85">
+            <v>35</v>
+          </cell>
+          <cell r="I85" t="str">
+            <v/>
+          </cell>
+          <cell r="J85" t="str">
+            <v/>
+          </cell>
+          <cell r="K85" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L85" t="str">
+            <v>Yes</v>
+          </cell>
+          <cell r="M85">
+            <v>0</v>
+          </cell>
+          <cell r="N85" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P85">
+            <v>84</v>
+          </cell>
+          <cell r="Q85">
+            <v>4.3833112708022055</v>
+          </cell>
+          <cell r="R85">
+            <v>35</v>
+          </cell>
+          <cell r="S85">
+            <v>1</v>
+          </cell>
+          <cell r="T85">
+            <v>1.5</v>
+          </cell>
+          <cell r="U85">
+            <v>0.37</v>
+          </cell>
+          <cell r="V85">
+            <v>18.329999999999998</v>
+          </cell>
+          <cell r="W85">
+            <v>1.5</v>
+          </cell>
+          <cell r="X85">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86">
+            <v>85</v>
+          </cell>
+          <cell r="B86">
+            <v>1</v>
+          </cell>
+          <cell r="C86">
+            <v>5</v>
+          </cell>
+          <cell r="D86">
+            <v>10</v>
+          </cell>
+          <cell r="E86">
+            <v>10</v>
+          </cell>
+          <cell r="F86">
+            <v>35</v>
+          </cell>
+          <cell r="G86">
+            <v>10</v>
+          </cell>
+          <cell r="H86">
+            <v>35</v>
+          </cell>
+          <cell r="I86" t="str">
+            <v/>
+          </cell>
+          <cell r="J86" t="str">
+            <v/>
+          </cell>
+          <cell r="K86" t="str">
+            <v>Rectangular Corner</v>
+          </cell>
+          <cell r="L86" t="str">
+            <v>Yes</v>
+          </cell>
+          <cell r="M86">
+            <v>0</v>
+          </cell>
+          <cell r="N86" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P86">
+            <v>85</v>
+          </cell>
+          <cell r="Q86">
+            <v>9.4353293052066434</v>
+          </cell>
+          <cell r="R86">
+            <v>35</v>
+          </cell>
+          <cell r="S86">
+            <v>1</v>
+          </cell>
+          <cell r="T86">
+            <v>3.5</v>
+          </cell>
+          <cell r="U86">
+            <v>0.37</v>
+          </cell>
+          <cell r="V86">
+            <v>18.329999999999998</v>
+          </cell>
+          <cell r="W86">
+            <v>3.5</v>
+          </cell>
+          <cell r="X86">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87">
+            <v>86</v>
+          </cell>
+          <cell r="B87">
+            <v>1</v>
+          </cell>
+          <cell r="C87">
+            <v>5</v>
+          </cell>
+          <cell r="D87">
+            <v>10</v>
+          </cell>
+          <cell r="E87">
+            <v>12.5</v>
+          </cell>
+          <cell r="F87">
+            <v>35</v>
+          </cell>
+          <cell r="G87">
+            <v>10</v>
+          </cell>
+          <cell r="H87">
+            <v>35</v>
+          </cell>
+          <cell r="I87" t="str">
+            <v/>
+          </cell>
+          <cell r="J87" t="str">
+            <v/>
+          </cell>
+          <cell r="K87" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L87" t="str">
+            <v>No</v>
+          </cell>
+          <cell r="M87">
+            <v>0</v>
+          </cell>
+          <cell r="N87" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P87">
+            <v>86</v>
+          </cell>
+          <cell r="Q87">
+            <v>7.298074952129225</v>
+          </cell>
+          <cell r="R87">
+            <v>35</v>
+          </cell>
+          <cell r="S87">
+            <v>1</v>
+          </cell>
+          <cell r="T87">
+            <v>2.7</v>
+          </cell>
+          <cell r="U87">
+            <v>0.37</v>
+          </cell>
+          <cell r="V87">
+            <v>18.329999999999998</v>
+          </cell>
+          <cell r="W87">
+            <v>2.7</v>
+          </cell>
+          <cell r="X87">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88">
+            <v>87</v>
+          </cell>
+          <cell r="B88">
+            <v>1</v>
+          </cell>
+          <cell r="C88">
+            <v>5</v>
+          </cell>
+          <cell r="D88">
+            <v>10</v>
+          </cell>
+          <cell r="E88">
+            <v>15</v>
+          </cell>
+          <cell r="F88">
+            <v>35</v>
+          </cell>
+          <cell r="G88">
+            <v>10</v>
+          </cell>
+          <cell r="H88">
+            <v>35</v>
+          </cell>
+          <cell r="I88" t="str">
+            <v/>
+          </cell>
+          <cell r="J88" t="str">
+            <v/>
+          </cell>
+          <cell r="K88" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L88" t="str">
+            <v>No</v>
+          </cell>
+          <cell r="M88">
+            <v>0</v>
+          </cell>
+          <cell r="N88" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P88">
+            <v>87</v>
+          </cell>
+          <cell r="Q88">
+            <v>7.298074952129225</v>
+          </cell>
+          <cell r="R88">
+            <v>35</v>
+          </cell>
+          <cell r="S88">
+            <v>1</v>
+          </cell>
+          <cell r="T88">
+            <v>2.7</v>
+          </cell>
+          <cell r="U88">
+            <v>0.37</v>
+          </cell>
+          <cell r="V88">
+            <v>18.329999999999998</v>
+          </cell>
+          <cell r="W88">
+            <v>2.7</v>
+          </cell>
+          <cell r="X88">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89">
+            <v>88</v>
+          </cell>
+          <cell r="B89">
+            <v>1</v>
+          </cell>
+          <cell r="C89">
+            <v>5</v>
+          </cell>
+          <cell r="D89">
+            <v>10</v>
+          </cell>
+          <cell r="E89">
+            <v>17.5</v>
+          </cell>
+          <cell r="F89">
+            <v>35</v>
+          </cell>
+          <cell r="G89">
+            <v>10</v>
+          </cell>
+          <cell r="H89">
+            <v>35</v>
+          </cell>
+          <cell r="I89" t="str">
+            <v/>
+          </cell>
+          <cell r="J89" t="str">
+            <v/>
+          </cell>
+          <cell r="K89" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L89" t="str">
+            <v>No</v>
+          </cell>
+          <cell r="M89">
+            <v>0</v>
+          </cell>
+          <cell r="N89" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P89">
+            <v>88</v>
+          </cell>
+          <cell r="Q89">
+            <v>7.298074952129225</v>
+          </cell>
+          <cell r="R89">
+            <v>35</v>
+          </cell>
+          <cell r="S89">
+            <v>1</v>
+          </cell>
+          <cell r="T89">
+            <v>2.7</v>
+          </cell>
+          <cell r="U89">
+            <v>0.37</v>
+          </cell>
+          <cell r="V89">
+            <v>18.329999999999998</v>
+          </cell>
+          <cell r="W89">
+            <v>2.7</v>
+          </cell>
+          <cell r="X89">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90">
+            <v>89</v>
+          </cell>
+          <cell r="B90">
+            <v>1</v>
+          </cell>
+          <cell r="C90">
+            <v>6.1</v>
+          </cell>
+          <cell r="D90">
+            <v>12.5</v>
+          </cell>
+          <cell r="E90">
+            <v>17.5</v>
+          </cell>
+          <cell r="F90">
+            <v>37.5</v>
+          </cell>
+          <cell r="G90">
+            <v>5</v>
+          </cell>
+          <cell r="H90">
+            <v>37.5</v>
+          </cell>
+          <cell r="I90" t="str">
+            <v/>
+          </cell>
+          <cell r="J90" t="str">
+            <v/>
+          </cell>
+          <cell r="K90" t="str">
+            <v>Rectangular Corner</v>
+          </cell>
+          <cell r="L90" t="str">
+            <v>No</v>
+          </cell>
+          <cell r="M90">
+            <v>0</v>
+          </cell>
+          <cell r="N90" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P90">
+            <v>89</v>
+          </cell>
+          <cell r="Q90">
+            <v>14.743193281572962</v>
+          </cell>
+          <cell r="R90">
+            <v>37.5</v>
+          </cell>
+          <cell r="S90">
+            <v>1</v>
+          </cell>
+          <cell r="T90">
+            <v>5.4</v>
+          </cell>
+          <cell r="U90">
+            <v>0.37</v>
+          </cell>
+          <cell r="V90">
+            <v>19.64</v>
+          </cell>
+          <cell r="W90">
+            <v>5.4</v>
+          </cell>
+          <cell r="X90">
+            <v>37.5</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91">
+            <v>90</v>
+          </cell>
+          <cell r="B91">
+            <v>1</v>
+          </cell>
+          <cell r="C91">
+            <v>6.1</v>
+          </cell>
+          <cell r="D91">
+            <v>15</v>
+          </cell>
+          <cell r="E91">
+            <v>17.5</v>
+          </cell>
+          <cell r="F91">
+            <v>37.5</v>
+          </cell>
+          <cell r="G91">
+            <v>5</v>
+          </cell>
+          <cell r="H91">
+            <v>37.5</v>
+          </cell>
+          <cell r="I91" t="str">
+            <v/>
+          </cell>
+          <cell r="J91" t="str">
+            <v/>
+          </cell>
+          <cell r="K91" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L91" t="str">
+            <v>No</v>
+          </cell>
+          <cell r="M91">
+            <v>0</v>
+          </cell>
+          <cell r="N91" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P91">
+            <v>90</v>
+          </cell>
+          <cell r="Q91">
+            <v>8.3731898712799389</v>
+          </cell>
+          <cell r="R91">
+            <v>37.5</v>
+          </cell>
+          <cell r="S91">
+            <v>1</v>
+          </cell>
+          <cell r="T91">
+            <v>3.1</v>
+          </cell>
+          <cell r="U91">
+            <v>0.37</v>
+          </cell>
+          <cell r="V91">
+            <v>19.64</v>
+          </cell>
+          <cell r="W91">
+            <v>3.1</v>
+          </cell>
+          <cell r="X91">
+            <v>37.5</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92">
+            <v>91</v>
+          </cell>
+          <cell r="B92">
+            <v>1</v>
+          </cell>
+          <cell r="C92">
+            <v>6.1</v>
+          </cell>
+          <cell r="D92">
+            <v>17.5</v>
+          </cell>
+          <cell r="E92">
+            <v>17.5</v>
+          </cell>
+          <cell r="F92">
+            <v>37.5</v>
+          </cell>
+          <cell r="G92">
+            <v>5</v>
+          </cell>
+          <cell r="H92">
+            <v>37.5</v>
+          </cell>
+          <cell r="I92" t="str">
+            <v/>
+          </cell>
+          <cell r="J92" t="str">
+            <v/>
+          </cell>
+          <cell r="K92" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L92" t="str">
+            <v>No</v>
+          </cell>
+          <cell r="M92">
+            <v>0</v>
+          </cell>
+          <cell r="N92" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P92">
+            <v>91</v>
+          </cell>
+          <cell r="Q92">
+            <v>8.3731898712799389</v>
+          </cell>
+          <cell r="R92">
+            <v>37.5</v>
+          </cell>
+          <cell r="S92">
+            <v>1</v>
+          </cell>
+          <cell r="T92">
+            <v>3.1</v>
+          </cell>
+          <cell r="U92">
+            <v>0.37</v>
+          </cell>
+          <cell r="V92">
+            <v>19.64</v>
+          </cell>
+          <cell r="W92">
+            <v>3.1</v>
+          </cell>
+          <cell r="X92">
+            <v>37.5</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="A93">
+            <v>92</v>
+          </cell>
+          <cell r="B93">
+            <v>1</v>
+          </cell>
+          <cell r="C93">
+            <v>6.1</v>
+          </cell>
+          <cell r="D93">
+            <v>20</v>
+          </cell>
+          <cell r="E93">
+            <v>17.5</v>
+          </cell>
+          <cell r="F93">
+            <v>37.5</v>
+          </cell>
+          <cell r="G93">
+            <v>5</v>
+          </cell>
+          <cell r="H93">
+            <v>37.5</v>
+          </cell>
+          <cell r="I93" t="str">
+            <v/>
+          </cell>
+          <cell r="J93" t="str">
+            <v/>
+          </cell>
+          <cell r="K93" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L93" t="str">
+            <v>No</v>
+          </cell>
+          <cell r="M93">
+            <v>0</v>
+          </cell>
+          <cell r="N93" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P93">
+            <v>92</v>
+          </cell>
+          <cell r="Q93">
+            <v>8.3731898712799389</v>
+          </cell>
+          <cell r="R93">
+            <v>37.5</v>
+          </cell>
+          <cell r="S93">
+            <v>1</v>
+          </cell>
+          <cell r="T93">
+            <v>3.1</v>
+          </cell>
+          <cell r="U93">
+            <v>0.37</v>
+          </cell>
+          <cell r="V93">
+            <v>19.64</v>
+          </cell>
+          <cell r="W93">
+            <v>3.1</v>
+          </cell>
+          <cell r="X93">
+            <v>37.5</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="A94">
+            <v>93</v>
+          </cell>
+          <cell r="B94">
+            <v>1</v>
+          </cell>
+          <cell r="C94">
+            <v>6.1</v>
+          </cell>
+          <cell r="D94">
+            <v>22.5</v>
+          </cell>
+          <cell r="E94">
+            <v>17.5</v>
+          </cell>
+          <cell r="F94">
+            <v>37.5</v>
+          </cell>
+          <cell r="G94">
+            <v>5</v>
+          </cell>
+          <cell r="H94">
+            <v>37.5</v>
+          </cell>
+          <cell r="I94" t="str">
+            <v/>
+          </cell>
+          <cell r="J94" t="str">
+            <v/>
+          </cell>
+          <cell r="K94" t="str">
+            <v>Rectangular Corner</v>
+          </cell>
+          <cell r="L94" t="str">
+            <v>No</v>
+          </cell>
+          <cell r="M94">
+            <v>0</v>
+          </cell>
+          <cell r="N94" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P94">
+            <v>93</v>
+          </cell>
+          <cell r="Q94">
+            <v>14.743193281572962</v>
+          </cell>
+          <cell r="R94">
+            <v>37.5</v>
+          </cell>
+          <cell r="S94">
+            <v>1</v>
+          </cell>
+          <cell r="T94">
+            <v>5.4</v>
+          </cell>
+          <cell r="U94">
+            <v>0.37</v>
+          </cell>
+          <cell r="V94">
+            <v>19.64</v>
+          </cell>
+          <cell r="W94">
+            <v>5.4</v>
+          </cell>
+          <cell r="X94">
+            <v>37.5</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95">
+            <v>94</v>
+          </cell>
+          <cell r="B95">
+            <v>1</v>
+          </cell>
+          <cell r="C95">
+            <v>6.1</v>
+          </cell>
+          <cell r="D95">
+            <v>22.5</v>
+          </cell>
+          <cell r="E95">
+            <v>15</v>
+          </cell>
+          <cell r="F95">
+            <v>37.5</v>
+          </cell>
+          <cell r="G95">
+            <v>5</v>
+          </cell>
+          <cell r="H95">
+            <v>37.5</v>
+          </cell>
+          <cell r="I95" t="str">
+            <v/>
+          </cell>
+          <cell r="J95" t="str">
+            <v/>
+          </cell>
+          <cell r="K95" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L95" t="str">
+            <v>No</v>
+          </cell>
+          <cell r="M95">
+            <v>0</v>
+          </cell>
+          <cell r="N95" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P95">
+            <v>94</v>
+          </cell>
+          <cell r="Q95">
+            <v>8.3731898712799389</v>
+          </cell>
+          <cell r="R95">
+            <v>37.5</v>
+          </cell>
+          <cell r="S95">
+            <v>1</v>
+          </cell>
+          <cell r="T95">
+            <v>3.1</v>
+          </cell>
+          <cell r="U95">
+            <v>0.37</v>
+          </cell>
+          <cell r="V95">
+            <v>19.64</v>
+          </cell>
+          <cell r="W95">
+            <v>3.1</v>
+          </cell>
+          <cell r="X95">
+            <v>37.5</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="A96">
+            <v>95</v>
+          </cell>
+          <cell r="B96">
+            <v>1</v>
+          </cell>
+          <cell r="C96">
+            <v>6.1</v>
+          </cell>
+          <cell r="D96">
+            <v>22.5</v>
+          </cell>
+          <cell r="E96">
+            <v>12.5</v>
+          </cell>
+          <cell r="F96">
+            <v>37.5</v>
+          </cell>
+          <cell r="G96">
+            <v>5</v>
+          </cell>
+          <cell r="H96">
+            <v>37.5</v>
+          </cell>
+          <cell r="I96" t="str">
+            <v/>
+          </cell>
+          <cell r="J96" t="str">
+            <v/>
+          </cell>
+          <cell r="K96" t="str">
+            <v>Rectangular Corner</v>
+          </cell>
+          <cell r="L96" t="str">
+            <v>No</v>
+          </cell>
+          <cell r="M96">
+            <v>0</v>
+          </cell>
+          <cell r="N96" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P96">
+            <v>95</v>
+          </cell>
+          <cell r="Q96">
+            <v>14.743193281572962</v>
+          </cell>
+          <cell r="R96">
+            <v>37.5</v>
+          </cell>
+          <cell r="S96">
+            <v>1</v>
+          </cell>
+          <cell r="T96">
+            <v>5.4</v>
+          </cell>
+          <cell r="U96">
+            <v>0.37</v>
+          </cell>
+          <cell r="V96">
+            <v>19.64</v>
+          </cell>
+          <cell r="W96">
+            <v>5.4</v>
+          </cell>
+          <cell r="X96">
+            <v>37.5</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="A97">
+            <v>96</v>
+          </cell>
+          <cell r="B97">
+            <v>1</v>
+          </cell>
+          <cell r="C97">
+            <v>6.1</v>
+          </cell>
+          <cell r="D97">
+            <v>20</v>
+          </cell>
+          <cell r="E97">
+            <v>12.5</v>
+          </cell>
+          <cell r="F97">
+            <v>37.5</v>
+          </cell>
+          <cell r="G97">
+            <v>5</v>
+          </cell>
+          <cell r="H97">
+            <v>37.5</v>
+          </cell>
+          <cell r="I97" t="str">
+            <v/>
+          </cell>
+          <cell r="J97" t="str">
+            <v/>
+          </cell>
+          <cell r="K97" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L97" t="str">
+            <v>No</v>
+          </cell>
+          <cell r="M97">
+            <v>0</v>
+          </cell>
+          <cell r="N97" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P97">
+            <v>96</v>
+          </cell>
+          <cell r="Q97">
+            <v>8.3731898712799389</v>
+          </cell>
+          <cell r="R97">
+            <v>37.5</v>
+          </cell>
+          <cell r="S97">
+            <v>1</v>
+          </cell>
+          <cell r="T97">
+            <v>3.1</v>
+          </cell>
+          <cell r="U97">
+            <v>0.37</v>
+          </cell>
+          <cell r="V97">
+            <v>19.64</v>
+          </cell>
+          <cell r="W97">
+            <v>3.1</v>
+          </cell>
+          <cell r="X97">
+            <v>37.5</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="A98">
+            <v>97</v>
+          </cell>
+          <cell r="B98">
+            <v>1</v>
+          </cell>
+          <cell r="C98">
+            <v>6.1</v>
+          </cell>
+          <cell r="D98">
+            <v>17.5</v>
+          </cell>
+          <cell r="E98">
+            <v>12.5</v>
+          </cell>
+          <cell r="F98">
+            <v>37.5</v>
+          </cell>
+          <cell r="G98">
+            <v>5</v>
+          </cell>
+          <cell r="H98">
+            <v>37.5</v>
+          </cell>
+          <cell r="I98" t="str">
+            <v/>
+          </cell>
+          <cell r="J98" t="str">
+            <v/>
+          </cell>
+          <cell r="K98" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L98" t="str">
+            <v>No</v>
+          </cell>
+          <cell r="M98">
+            <v>0</v>
+          </cell>
+          <cell r="N98" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P98">
+            <v>97</v>
+          </cell>
+          <cell r="Q98">
+            <v>8.3731898712799389</v>
+          </cell>
+          <cell r="R98">
+            <v>37.5</v>
+          </cell>
+          <cell r="S98">
+            <v>1</v>
+          </cell>
+          <cell r="T98">
+            <v>3.1</v>
+          </cell>
+          <cell r="U98">
+            <v>0.37</v>
+          </cell>
+          <cell r="V98">
+            <v>19.64</v>
+          </cell>
+          <cell r="W98">
+            <v>3.1</v>
+          </cell>
+          <cell r="X98">
+            <v>37.5</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="A99">
+            <v>98</v>
+          </cell>
+          <cell r="B99">
+            <v>1</v>
+          </cell>
+          <cell r="C99">
+            <v>6.1</v>
+          </cell>
+          <cell r="D99">
+            <v>15</v>
+          </cell>
+          <cell r="E99">
+            <v>12.5</v>
+          </cell>
+          <cell r="F99">
+            <v>37.5</v>
+          </cell>
+          <cell r="G99">
+            <v>5</v>
+          </cell>
+          <cell r="H99">
+            <v>37.5</v>
+          </cell>
+          <cell r="I99" t="str">
+            <v/>
+          </cell>
+          <cell r="J99" t="str">
+            <v/>
+          </cell>
+          <cell r="K99" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L99" t="str">
+            <v>No</v>
+          </cell>
+          <cell r="M99">
+            <v>0</v>
+          </cell>
+          <cell r="N99" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P99">
+            <v>98</v>
+          </cell>
+          <cell r="Q99">
+            <v>8.3731898712799389</v>
+          </cell>
+          <cell r="R99">
+            <v>37.5</v>
+          </cell>
+          <cell r="S99">
+            <v>1</v>
+          </cell>
+          <cell r="T99">
+            <v>3.1</v>
+          </cell>
+          <cell r="U99">
+            <v>0.37</v>
+          </cell>
+          <cell r="V99">
+            <v>19.64</v>
+          </cell>
+          <cell r="W99">
+            <v>3.1</v>
+          </cell>
+          <cell r="X99">
+            <v>37.5</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="A100">
+            <v>99</v>
+          </cell>
+          <cell r="B100">
+            <v>1</v>
+          </cell>
+          <cell r="C100">
+            <v>6.1</v>
+          </cell>
+          <cell r="D100">
+            <v>12.5</v>
+          </cell>
+          <cell r="E100">
+            <v>12.5</v>
+          </cell>
+          <cell r="F100">
+            <v>37.5</v>
+          </cell>
+          <cell r="G100">
+            <v>5</v>
+          </cell>
+          <cell r="H100">
+            <v>37.5</v>
+          </cell>
+          <cell r="I100" t="str">
+            <v/>
+          </cell>
+          <cell r="J100" t="str">
+            <v/>
+          </cell>
+          <cell r="K100" t="str">
+            <v>Rectangular Corner</v>
+          </cell>
+          <cell r="L100" t="str">
+            <v>No</v>
+          </cell>
+          <cell r="M100">
+            <v>0</v>
+          </cell>
+          <cell r="N100" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P100">
+            <v>99</v>
+          </cell>
+          <cell r="Q100">
+            <v>14.743193281572962</v>
+          </cell>
+          <cell r="R100">
+            <v>37.5</v>
+          </cell>
+          <cell r="S100">
+            <v>1</v>
+          </cell>
+          <cell r="T100">
+            <v>5.4</v>
+          </cell>
+          <cell r="U100">
+            <v>0.37</v>
+          </cell>
+          <cell r="V100">
+            <v>19.64</v>
+          </cell>
+          <cell r="W100">
+            <v>5.4</v>
+          </cell>
+          <cell r="X100">
+            <v>37.5</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="A101">
+            <v>100</v>
+          </cell>
+          <cell r="B101">
+            <v>1</v>
+          </cell>
+          <cell r="C101">
+            <v>6.1</v>
+          </cell>
+          <cell r="D101">
+            <v>12.5</v>
+          </cell>
+          <cell r="E101">
+            <v>15</v>
+          </cell>
+          <cell r="F101">
+            <v>37.5</v>
+          </cell>
+          <cell r="G101">
+            <v>5</v>
+          </cell>
+          <cell r="H101">
+            <v>37.5</v>
+          </cell>
+          <cell r="I101" t="str">
+            <v/>
+          </cell>
+          <cell r="J101" t="str">
+            <v/>
+          </cell>
+          <cell r="K101" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L101" t="str">
+            <v>No</v>
+          </cell>
+          <cell r="M101">
+            <v>0</v>
+          </cell>
+          <cell r="N101" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P101">
+            <v>100</v>
+          </cell>
+          <cell r="Q101">
+            <v>8.3731898712799389</v>
+          </cell>
+          <cell r="R101">
+            <v>37.5</v>
+          </cell>
+          <cell r="S101">
+            <v>1</v>
+          </cell>
+          <cell r="T101">
+            <v>3.1</v>
+          </cell>
+          <cell r="U101">
+            <v>0.37</v>
+          </cell>
+          <cell r="V101">
+            <v>19.64</v>
+          </cell>
+          <cell r="W101">
+            <v>3.1</v>
+          </cell>
+          <cell r="X101">
+            <v>37.5</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="A102">
+            <v>101</v>
+          </cell>
+          <cell r="B102">
+            <v>1</v>
+          </cell>
+          <cell r="C102">
+            <v>6.2</v>
+          </cell>
+          <cell r="D102">
+            <v>32.5</v>
+          </cell>
+          <cell r="E102">
+            <v>17.5</v>
+          </cell>
+          <cell r="F102">
+            <v>37.5</v>
+          </cell>
+          <cell r="G102">
+            <v>5</v>
+          </cell>
+          <cell r="H102">
+            <v>37.5</v>
+          </cell>
+          <cell r="I102" t="str">
+            <v/>
+          </cell>
+          <cell r="J102" t="str">
+            <v/>
+          </cell>
+          <cell r="K102" t="str">
+            <v>Rectangular Corner</v>
+          </cell>
+          <cell r="L102" t="str">
+            <v>No</v>
+          </cell>
+          <cell r="M102">
+            <v>0</v>
+          </cell>
+          <cell r="N102" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P102">
+            <v>101</v>
+          </cell>
+          <cell r="Q102">
+            <v>14.743193281572962</v>
+          </cell>
+          <cell r="R102">
+            <v>37.5</v>
+          </cell>
+          <cell r="S102">
+            <v>1</v>
+          </cell>
+          <cell r="T102">
+            <v>5.4</v>
+          </cell>
+          <cell r="U102">
+            <v>0.37</v>
+          </cell>
+          <cell r="V102">
+            <v>19.64</v>
+          </cell>
+          <cell r="W102">
+            <v>5.4</v>
+          </cell>
+          <cell r="X102">
+            <v>37.5</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="A103">
+            <v>102</v>
+          </cell>
+          <cell r="B103">
+            <v>1</v>
+          </cell>
+          <cell r="C103">
+            <v>6.2</v>
+          </cell>
+          <cell r="D103">
+            <v>35</v>
+          </cell>
+          <cell r="E103">
+            <v>17.5</v>
+          </cell>
+          <cell r="F103">
+            <v>37.5</v>
+          </cell>
+          <cell r="G103">
+            <v>5</v>
+          </cell>
+          <cell r="H103">
+            <v>37.5</v>
+          </cell>
+          <cell r="I103" t="str">
+            <v/>
+          </cell>
+          <cell r="J103" t="str">
+            <v/>
+          </cell>
+          <cell r="K103" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L103" t="str">
+            <v>No</v>
+          </cell>
+          <cell r="M103">
+            <v>0</v>
+          </cell>
+          <cell r="N103" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P103">
+            <v>102</v>
+          </cell>
+          <cell r="Q103">
+            <v>8.3731898712799389</v>
+          </cell>
+          <cell r="R103">
+            <v>37.5</v>
+          </cell>
+          <cell r="S103">
+            <v>1</v>
+          </cell>
+          <cell r="T103">
+            <v>3.1</v>
+          </cell>
+          <cell r="U103">
+            <v>0.37</v>
+          </cell>
+          <cell r="V103">
+            <v>19.64</v>
+          </cell>
+          <cell r="W103">
+            <v>3.1</v>
+          </cell>
+          <cell r="X103">
+            <v>37.5</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="A104">
+            <v>103</v>
+          </cell>
+          <cell r="B104">
+            <v>1</v>
+          </cell>
+          <cell r="C104">
+            <v>6.2</v>
+          </cell>
+          <cell r="D104">
+            <v>37.5</v>
+          </cell>
+          <cell r="E104">
+            <v>17.5</v>
+          </cell>
+          <cell r="F104">
+            <v>37.5</v>
+          </cell>
+          <cell r="G104">
+            <v>5</v>
+          </cell>
+          <cell r="H104">
+            <v>37.5</v>
+          </cell>
+          <cell r="I104" t="str">
+            <v/>
+          </cell>
+          <cell r="J104" t="str">
+            <v/>
+          </cell>
+          <cell r="K104" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L104" t="str">
+            <v>No</v>
+          </cell>
+          <cell r="M104">
+            <v>0</v>
+          </cell>
+          <cell r="N104" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P104">
+            <v>103</v>
+          </cell>
+          <cell r="Q104">
+            <v>8.3731898712799389</v>
+          </cell>
+          <cell r="R104">
+            <v>37.5</v>
+          </cell>
+          <cell r="S104">
+            <v>1</v>
+          </cell>
+          <cell r="T104">
+            <v>3.1</v>
+          </cell>
+          <cell r="U104">
+            <v>0.37</v>
+          </cell>
+          <cell r="V104">
+            <v>19.64</v>
+          </cell>
+          <cell r="W104">
+            <v>3.1</v>
+          </cell>
+          <cell r="X104">
+            <v>37.5</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="A105">
+            <v>104</v>
+          </cell>
+          <cell r="B105">
+            <v>1</v>
+          </cell>
+          <cell r="C105">
+            <v>6.2</v>
+          </cell>
+          <cell r="D105">
+            <v>40</v>
+          </cell>
+          <cell r="E105">
+            <v>17.5</v>
+          </cell>
+          <cell r="F105">
+            <v>37.5</v>
+          </cell>
+          <cell r="G105">
+            <v>5</v>
+          </cell>
+          <cell r="H105">
+            <v>37.5</v>
+          </cell>
+          <cell r="I105" t="str">
+            <v/>
+          </cell>
+          <cell r="J105" t="str">
+            <v/>
+          </cell>
+          <cell r="K105" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L105" t="str">
+            <v>No</v>
+          </cell>
+          <cell r="M105">
+            <v>0</v>
+          </cell>
+          <cell r="N105" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P105">
+            <v>104</v>
+          </cell>
+          <cell r="Q105">
+            <v>8.3731898712799389</v>
+          </cell>
+          <cell r="R105">
+            <v>37.5</v>
+          </cell>
+          <cell r="S105">
+            <v>1</v>
+          </cell>
+          <cell r="T105">
+            <v>3.1</v>
+          </cell>
+          <cell r="U105">
+            <v>0.37</v>
+          </cell>
+          <cell r="V105">
+            <v>19.64</v>
+          </cell>
+          <cell r="W105">
+            <v>3.1</v>
+          </cell>
+          <cell r="X105">
+            <v>37.5</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="A106">
+            <v>105</v>
+          </cell>
+          <cell r="B106">
+            <v>1</v>
+          </cell>
+          <cell r="C106">
+            <v>6.2</v>
+          </cell>
+          <cell r="D106">
+            <v>42.5</v>
+          </cell>
+          <cell r="E106">
+            <v>17.5</v>
+          </cell>
+          <cell r="F106">
+            <v>37.5</v>
+          </cell>
+          <cell r="G106">
+            <v>5</v>
+          </cell>
+          <cell r="H106">
+            <v>37.5</v>
+          </cell>
+          <cell r="I106" t="str">
+            <v/>
+          </cell>
+          <cell r="J106" t="str">
+            <v/>
+          </cell>
+          <cell r="K106" t="str">
+            <v>Rectangular Corner</v>
+          </cell>
+          <cell r="L106" t="str">
+            <v>No</v>
+          </cell>
+          <cell r="M106">
+            <v>0</v>
+          </cell>
+          <cell r="N106" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P106">
+            <v>105</v>
+          </cell>
+          <cell r="Q106">
+            <v>14.743193281572962</v>
+          </cell>
+          <cell r="R106">
+            <v>37.5</v>
+          </cell>
+          <cell r="S106">
+            <v>1</v>
+          </cell>
+          <cell r="T106">
+            <v>5.4</v>
+          </cell>
+          <cell r="U106">
+            <v>0.37</v>
+          </cell>
+          <cell r="V106">
+            <v>19.64</v>
+          </cell>
+          <cell r="W106">
+            <v>5.4</v>
+          </cell>
+          <cell r="X106">
+            <v>37.5</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="A107">
+            <v>106</v>
+          </cell>
+          <cell r="B107">
+            <v>1</v>
+          </cell>
+          <cell r="C107">
+            <v>6.2</v>
+          </cell>
+          <cell r="D107">
+            <v>42.5</v>
+          </cell>
+          <cell r="E107">
+            <v>15</v>
+          </cell>
+          <cell r="F107">
+            <v>37.5</v>
+          </cell>
+          <cell r="G107">
+            <v>5</v>
+          </cell>
+          <cell r="H107">
+            <v>37.5</v>
+          </cell>
+          <cell r="I107" t="str">
+            <v/>
+          </cell>
+          <cell r="J107" t="str">
+            <v/>
+          </cell>
+          <cell r="K107" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L107" t="str">
+            <v>No</v>
+          </cell>
+          <cell r="M107">
+            <v>0</v>
+          </cell>
+          <cell r="N107" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P107">
+            <v>106</v>
+          </cell>
+          <cell r="Q107">
+            <v>8.3731898712799389</v>
+          </cell>
+          <cell r="R107">
+            <v>37.5</v>
+          </cell>
+          <cell r="S107">
+            <v>1</v>
+          </cell>
+          <cell r="T107">
+            <v>3.1</v>
+          </cell>
+          <cell r="U107">
+            <v>0.37</v>
+          </cell>
+          <cell r="V107">
+            <v>19.64</v>
+          </cell>
+          <cell r="W107">
+            <v>3.1</v>
+          </cell>
+          <cell r="X107">
+            <v>37.5</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="A108">
+            <v>107</v>
+          </cell>
+          <cell r="B108">
+            <v>1</v>
+          </cell>
+          <cell r="C108">
+            <v>6.2</v>
+          </cell>
+          <cell r="D108">
+            <v>42.5</v>
+          </cell>
+          <cell r="E108">
+            <v>12.5</v>
+          </cell>
+          <cell r="F108">
+            <v>37.5</v>
+          </cell>
+          <cell r="G108">
+            <v>5</v>
+          </cell>
+          <cell r="H108">
+            <v>37.5</v>
+          </cell>
+          <cell r="I108" t="str">
+            <v/>
+          </cell>
+          <cell r="J108" t="str">
+            <v/>
+          </cell>
+          <cell r="K108" t="str">
+            <v>Rectangular Corner</v>
+          </cell>
+          <cell r="L108" t="str">
+            <v>No</v>
+          </cell>
+          <cell r="M108">
+            <v>0</v>
+          </cell>
+          <cell r="N108" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P108">
+            <v>107</v>
+          </cell>
+          <cell r="Q108">
+            <v>14.743193281572962</v>
+          </cell>
+          <cell r="R108">
+            <v>37.5</v>
+          </cell>
+          <cell r="S108">
+            <v>1</v>
+          </cell>
+          <cell r="T108">
+            <v>5.4</v>
+          </cell>
+          <cell r="U108">
+            <v>0.37</v>
+          </cell>
+          <cell r="V108">
+            <v>19.64</v>
+          </cell>
+          <cell r="W108">
+            <v>5.4</v>
+          </cell>
+          <cell r="X108">
+            <v>37.5</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="A109">
+            <v>108</v>
+          </cell>
+          <cell r="B109">
+            <v>1</v>
+          </cell>
+          <cell r="C109">
+            <v>6.2</v>
+          </cell>
+          <cell r="D109">
+            <v>40</v>
+          </cell>
+          <cell r="E109">
+            <v>12.5</v>
+          </cell>
+          <cell r="F109">
+            <v>37.5</v>
+          </cell>
+          <cell r="G109">
+            <v>5</v>
+          </cell>
+          <cell r="H109">
+            <v>37.5</v>
+          </cell>
+          <cell r="I109" t="str">
+            <v/>
+          </cell>
+          <cell r="J109" t="str">
+            <v/>
+          </cell>
+          <cell r="K109" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L109" t="str">
+            <v>No</v>
+          </cell>
+          <cell r="M109">
+            <v>0</v>
+          </cell>
+          <cell r="N109" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P109">
+            <v>108</v>
+          </cell>
+          <cell r="Q109">
+            <v>8.3731898712799389</v>
+          </cell>
+          <cell r="R109">
+            <v>37.5</v>
+          </cell>
+          <cell r="S109">
+            <v>1</v>
+          </cell>
+          <cell r="T109">
+            <v>3.1</v>
+          </cell>
+          <cell r="U109">
+            <v>0.37</v>
+          </cell>
+          <cell r="V109">
+            <v>19.64</v>
+          </cell>
+          <cell r="W109">
+            <v>3.1</v>
+          </cell>
+          <cell r="X109">
+            <v>37.5</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="A110">
+            <v>109</v>
+          </cell>
+          <cell r="B110">
+            <v>1</v>
+          </cell>
+          <cell r="C110">
+            <v>6.2</v>
+          </cell>
+          <cell r="D110">
+            <v>37.5</v>
+          </cell>
+          <cell r="E110">
+            <v>12.5</v>
+          </cell>
+          <cell r="F110">
+            <v>37.5</v>
+          </cell>
+          <cell r="G110">
+            <v>5</v>
+          </cell>
+          <cell r="H110">
+            <v>37.5</v>
+          </cell>
+          <cell r="I110" t="str">
+            <v/>
+          </cell>
+          <cell r="J110" t="str">
+            <v/>
+          </cell>
+          <cell r="K110" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L110" t="str">
+            <v>No</v>
+          </cell>
+          <cell r="M110">
+            <v>0</v>
+          </cell>
+          <cell r="N110" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P110">
+            <v>109</v>
+          </cell>
+          <cell r="Q110">
+            <v>8.3731898712799389</v>
+          </cell>
+          <cell r="R110">
+            <v>37.5</v>
+          </cell>
+          <cell r="S110">
+            <v>1</v>
+          </cell>
+          <cell r="T110">
+            <v>3.1</v>
+          </cell>
+          <cell r="U110">
+            <v>0.37</v>
+          </cell>
+          <cell r="V110">
+            <v>19.64</v>
+          </cell>
+          <cell r="W110">
+            <v>3.1</v>
+          </cell>
+          <cell r="X110">
+            <v>37.5</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="A111">
+            <v>110</v>
+          </cell>
+          <cell r="B111">
+            <v>1</v>
+          </cell>
+          <cell r="C111">
+            <v>6.2</v>
+          </cell>
+          <cell r="D111">
+            <v>35</v>
+          </cell>
+          <cell r="E111">
+            <v>12.5</v>
+          </cell>
+          <cell r="F111">
+            <v>37.5</v>
+          </cell>
+          <cell r="G111">
+            <v>5</v>
+          </cell>
+          <cell r="H111">
+            <v>37.5</v>
+          </cell>
+          <cell r="I111" t="str">
+            <v/>
+          </cell>
+          <cell r="J111" t="str">
+            <v/>
+          </cell>
+          <cell r="K111" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L111" t="str">
+            <v>No</v>
+          </cell>
+          <cell r="M111">
+            <v>0</v>
+          </cell>
+          <cell r="N111" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P111">
+            <v>110</v>
+          </cell>
+          <cell r="Q111">
+            <v>8.3731898712799389</v>
+          </cell>
+          <cell r="R111">
+            <v>37.5</v>
+          </cell>
+          <cell r="S111">
+            <v>1</v>
+          </cell>
+          <cell r="T111">
+            <v>3.1</v>
+          </cell>
+          <cell r="U111">
+            <v>0.37</v>
+          </cell>
+          <cell r="V111">
+            <v>19.64</v>
+          </cell>
+          <cell r="W111">
+            <v>3.1</v>
+          </cell>
+          <cell r="X111">
+            <v>37.5</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="A112">
+            <v>111</v>
+          </cell>
+          <cell r="B112">
+            <v>1</v>
+          </cell>
+          <cell r="C112">
+            <v>6.2</v>
+          </cell>
+          <cell r="D112">
+            <v>32.5</v>
+          </cell>
+          <cell r="E112">
+            <v>12.5</v>
+          </cell>
+          <cell r="F112">
+            <v>37.5</v>
+          </cell>
+          <cell r="G112">
+            <v>5</v>
+          </cell>
+          <cell r="H112">
+            <v>37.5</v>
+          </cell>
+          <cell r="I112" t="str">
+            <v/>
+          </cell>
+          <cell r="J112" t="str">
+            <v/>
+          </cell>
+          <cell r="K112" t="str">
+            <v>Rectangular Corner</v>
+          </cell>
+          <cell r="L112" t="str">
+            <v>No</v>
+          </cell>
+          <cell r="M112">
+            <v>0</v>
+          </cell>
+          <cell r="N112" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P112">
+            <v>111</v>
+          </cell>
+          <cell r="Q112">
+            <v>14.743193281572962</v>
+          </cell>
+          <cell r="R112">
+            <v>37.5</v>
+          </cell>
+          <cell r="S112">
+            <v>1</v>
+          </cell>
+          <cell r="T112">
+            <v>5.4</v>
+          </cell>
+          <cell r="U112">
+            <v>0.37</v>
+          </cell>
+          <cell r="V112">
+            <v>19.64</v>
+          </cell>
+          <cell r="W112">
+            <v>5.4</v>
+          </cell>
+          <cell r="X112">
+            <v>37.5</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="A113">
+            <v>112</v>
+          </cell>
+          <cell r="B113">
+            <v>1</v>
+          </cell>
+          <cell r="C113">
+            <v>6.2</v>
+          </cell>
+          <cell r="D113">
+            <v>32.5</v>
+          </cell>
+          <cell r="E113">
+            <v>15</v>
+          </cell>
+          <cell r="F113">
+            <v>37.5</v>
+          </cell>
+          <cell r="G113">
+            <v>5</v>
+          </cell>
+          <cell r="H113">
+            <v>37.5</v>
+          </cell>
+          <cell r="I113" t="str">
+            <v/>
+          </cell>
+          <cell r="J113" t="str">
+            <v/>
+          </cell>
+          <cell r="K113" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L113" t="str">
+            <v>No</v>
+          </cell>
+          <cell r="M113">
+            <v>0</v>
+          </cell>
+          <cell r="N113" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P113">
+            <v>112</v>
+          </cell>
+          <cell r="Q113">
+            <v>8.3731898712799389</v>
+          </cell>
+          <cell r="R113">
+            <v>37.5</v>
+          </cell>
+          <cell r="S113">
+            <v>1</v>
+          </cell>
+          <cell r="T113">
+            <v>3.1</v>
+          </cell>
+          <cell r="U113">
+            <v>0.37</v>
+          </cell>
+          <cell r="V113">
+            <v>19.64</v>
+          </cell>
+          <cell r="W113">
+            <v>3.1</v>
+          </cell>
+          <cell r="X113">
+            <v>37.5</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="A114">
+            <v>113</v>
+          </cell>
+          <cell r="B114">
+            <v>1</v>
+          </cell>
+          <cell r="C114">
+            <v>6.1</v>
+          </cell>
+          <cell r="D114">
+            <v>12.51</v>
+          </cell>
+          <cell r="E114">
+            <v>15.01</v>
+          </cell>
+          <cell r="F114">
+            <v>41.73</v>
+          </cell>
+          <cell r="G114">
+            <v>5</v>
+          </cell>
+          <cell r="H114">
+            <v>37.5</v>
+          </cell>
+          <cell r="I114">
+            <v>4.2299999999999969</v>
+          </cell>
+          <cell r="J114" t="str">
+            <v>Active</v>
+          </cell>
+          <cell r="K114" t="str">
+            <v>Rectangular Edge</v>
+          </cell>
+          <cell r="L114" t="str">
+            <v>No</v>
+          </cell>
+          <cell r="M114">
+            <v>0</v>
+          </cell>
+          <cell r="N114" t="str">
+            <v>Not Prot</v>
+          </cell>
+          <cell r="P114">
+            <v>113</v>
+          </cell>
+          <cell r="Q114">
+            <v>175.1023049686188</v>
+          </cell>
+          <cell r="R114">
+            <v>41.73</v>
+          </cell>
+          <cell r="S114">
+            <v>1</v>
+          </cell>
+          <cell r="T114">
+            <v>62.2</v>
+          </cell>
+          <cell r="U114">
+            <v>0.37</v>
+          </cell>
+          <cell r="V114">
+            <v>21.85</v>
+          </cell>
+          <cell r="W114">
+            <v>56.2</v>
+          </cell>
+          <cell r="X114">
+            <v>68.382999999999996</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="A115">
+            <v>114</v>
+          </cell>
+          <cell r="B115">
+            <v>1</v>
+          </cell>
+          <cell r="C115">
+            <v>5</v>
+          </cell>
+          <cell r="D115">
+            <v>27.46</v>
+          </cell>
+          <cell r="E115">
+            <v>15.15</v>
+          </cell>
+          <cell r="F115">
+            <v>39.28</v>
+          </cell>
+          <cell r="G115">
+            <v>10</v>
+          </cell>
+          <cell r="H115">
+            <v>35</v>
+          </cell>
+          <cell r="I115">
+            <v>4.2800000000000011</v>
+          </cell>
+          <cell r="J115" t="str">
+            <v>Active</v>
+          </cell>
+          <cell r="K115" t="str">
+            <v>Rectangular Middle</v>
+          </cell>
+          <cell r="L115" t="str">
+            <v>No</v>
+          </cell>
+          <cell r="M115">
+            <v>0</v>
+          </cell>
+          <cell r="N115" t="str">
+            <v>Not Prot</v>
+          </cell>
+          <cell r="P115">
+            <v>114</v>
+          </cell>
+          <cell r="Q115">
+            <v>132.88954753197081</v>
+          </cell>
+          <cell r="R115">
+            <v>39.28</v>
+          </cell>
+          <cell r="S115">
+            <v>1</v>
+          </cell>
+          <cell r="T115">
+            <v>47.6</v>
+          </cell>
+          <cell r="U115">
+            <v>0.37</v>
+          </cell>
+          <cell r="V115">
+            <v>20.57</v>
+          </cell>
+          <cell r="W115">
+            <v>45.777999999999999</v>
+          </cell>
+          <cell r="X115">
+            <v>52.323</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="A116">
+            <v>115</v>
+          </cell>
+          <cell r="B116">
+            <v>1</v>
+          </cell>
+          <cell r="C116">
+            <v>0</v>
+          </cell>
+          <cell r="D116">
+            <v>0</v>
+          </cell>
+          <cell r="E116">
+            <v>0</v>
+          </cell>
+          <cell r="F116">
+            <v>0</v>
+          </cell>
+          <cell r="G116">
+            <v>0</v>
+          </cell>
+          <cell r="H116">
+            <v>0</v>
+          </cell>
+          <cell r="I116" t="str">
+            <v/>
+          </cell>
+          <cell r="J116" t="str">
+            <v/>
+          </cell>
+          <cell r="K116" t="str">
+            <v/>
+          </cell>
+          <cell r="L116" t="str">
+            <v/>
+          </cell>
+          <cell r="M116">
+            <v>0</v>
+          </cell>
+          <cell r="N116" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P116">
+            <v>115</v>
+          </cell>
+          <cell r="Q116">
+            <v>0.74040667803391214</v>
+          </cell>
+          <cell r="R116">
+            <v>0</v>
+          </cell>
+          <cell r="S116">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="A117">
+            <v>116</v>
+          </cell>
+          <cell r="B117">
+            <v>1</v>
+          </cell>
+          <cell r="C117">
+            <v>0</v>
+          </cell>
+          <cell r="D117">
+            <v>0</v>
+          </cell>
+          <cell r="E117">
+            <v>0</v>
+          </cell>
+          <cell r="F117">
+            <v>0</v>
+          </cell>
+          <cell r="G117">
+            <v>20</v>
+          </cell>
+          <cell r="H117">
+            <v>6</v>
+          </cell>
+          <cell r="I117" t="str">
+            <v/>
+          </cell>
+          <cell r="J117" t="str">
+            <v/>
+          </cell>
+          <cell r="K117" t="str">
+            <v/>
+          </cell>
+          <cell r="L117" t="str">
+            <v/>
+          </cell>
+          <cell r="M117">
+            <v>0</v>
+          </cell>
+          <cell r="N117" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P117">
+            <v>116</v>
+          </cell>
+          <cell r="Q117">
+            <v>0.74040667803391214</v>
+          </cell>
+          <cell r="R117">
+            <v>0</v>
+          </cell>
+          <cell r="S117">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="A118">
+            <v>117</v>
+          </cell>
+          <cell r="B118">
+            <v>1</v>
+          </cell>
+          <cell r="C118">
+            <v>0</v>
+          </cell>
+          <cell r="D118">
+            <v>0</v>
+          </cell>
+          <cell r="E118">
+            <v>0</v>
+          </cell>
+          <cell r="F118">
+            <v>0</v>
+          </cell>
+          <cell r="G118">
+            <v>20</v>
+          </cell>
+          <cell r="H118">
+            <v>6</v>
+          </cell>
+          <cell r="I118" t="str">
+            <v/>
+          </cell>
+          <cell r="J118" t="str">
+            <v/>
+          </cell>
+          <cell r="K118" t="str">
+            <v/>
+          </cell>
+          <cell r="L118" t="str">
+            <v/>
+          </cell>
+          <cell r="M118">
+            <v>0</v>
+          </cell>
+          <cell r="N118" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P118">
+            <v>117</v>
+          </cell>
+          <cell r="Q118">
+            <v>0.74040667803391214</v>
+          </cell>
+          <cell r="R118">
+            <v>0</v>
+          </cell>
+          <cell r="S118">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="A119">
+            <v>118</v>
+          </cell>
+          <cell r="B119">
+            <v>1</v>
+          </cell>
+          <cell r="C119">
+            <v>0</v>
+          </cell>
+          <cell r="D119">
+            <v>0</v>
+          </cell>
+          <cell r="E119">
+            <v>0</v>
+          </cell>
+          <cell r="F119">
+            <v>0</v>
+          </cell>
+          <cell r="G119">
+            <v>20</v>
+          </cell>
+          <cell r="H119">
+            <v>6</v>
+          </cell>
+          <cell r="I119" t="str">
+            <v/>
+          </cell>
+          <cell r="J119" t="str">
+            <v/>
+          </cell>
+          <cell r="K119" t="str">
+            <v/>
+          </cell>
+          <cell r="L119" t="str">
+            <v/>
+          </cell>
+          <cell r="M119">
+            <v>0</v>
+          </cell>
+          <cell r="N119" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P119">
+            <v>118</v>
+          </cell>
+          <cell r="Q119">
+            <v>0.74040667803391214</v>
+          </cell>
+          <cell r="R119">
+            <v>0</v>
+          </cell>
+          <cell r="S119">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="A120">
+            <v>119</v>
+          </cell>
+          <cell r="B120">
+            <v>1</v>
+          </cell>
+          <cell r="C120">
+            <v>0</v>
+          </cell>
+          <cell r="D120">
+            <v>0</v>
+          </cell>
+          <cell r="E120">
+            <v>0</v>
+          </cell>
+          <cell r="F120">
+            <v>0</v>
+          </cell>
+          <cell r="G120">
+            <v>20</v>
+          </cell>
+          <cell r="H120">
+            <v>6</v>
+          </cell>
+          <cell r="I120" t="str">
+            <v/>
+          </cell>
+          <cell r="J120" t="str">
+            <v/>
+          </cell>
+          <cell r="K120" t="str">
+            <v/>
+          </cell>
+          <cell r="L120" t="str">
+            <v/>
+          </cell>
+          <cell r="M120">
+            <v>0</v>
+          </cell>
+          <cell r="N120" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P120">
+            <v>119</v>
+          </cell>
+          <cell r="Q120">
+            <v>0.74040667803391214</v>
+          </cell>
+          <cell r="R120">
+            <v>0</v>
+          </cell>
+          <cell r="S120">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="A121">
+            <v>120</v>
+          </cell>
+          <cell r="B121">
+            <v>1</v>
+          </cell>
+          <cell r="C121">
+            <v>0</v>
+          </cell>
+          <cell r="D121">
+            <v>0</v>
+          </cell>
+          <cell r="E121">
+            <v>0</v>
+          </cell>
+          <cell r="F121">
+            <v>0</v>
+          </cell>
+          <cell r="G121">
+            <v>20</v>
+          </cell>
+          <cell r="H121">
+            <v>6</v>
+          </cell>
+          <cell r="I121" t="str">
+            <v/>
+          </cell>
+          <cell r="J121" t="str">
+            <v/>
+          </cell>
+          <cell r="K121" t="str">
+            <v/>
+          </cell>
+          <cell r="L121" t="str">
+            <v/>
+          </cell>
+          <cell r="M121">
+            <v>0</v>
+          </cell>
+          <cell r="N121" t="str">
+            <v>Prot</v>
+          </cell>
+          <cell r="P121">
+            <v>120</v>
+          </cell>
+          <cell r="Q121">
+            <v>0.74040667803391214</v>
+          </cell>
+          <cell r="R121">
+            <v>0</v>
+          </cell>
+          <cell r="S121">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="A128" t="str">
+            <v>§  Identify closest air terminal protection circle (xRA,yRA,zRA,rRA) to the point (xPOI,yPOI,zPOI,rPOI) where zPOI&lt;zRA (Note: To do this, we will need to find the (x,y) distance anyway)</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="A129" t="str">
+            <v>§  If the air terminal has a de-rating angle, reduce (zRA, rRA) to the appropriate values such that zRA=zPOI</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="A130" t="str">
+            <v>§  Calculate the center-to-center distance between the two circles (dcc)</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="A131" t="str">
+            <v>§  Evaluate if dcc+rPOI ≤rRA, if yes then the POI is considered under the zone of protection. If not, then re-evaluate for the next closest protection circle from an air terminal until none remain. If the point does not pass this criteria, then there are two possibilities: 1) the POI collection volume is covered completely by more than one terminal, or 2) the collection volume is not protected</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2415,41 +11066,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="30" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="N1" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="O1" s="29" t="s">
+      <c r="O1" s="30" t="s">
         <v>125</v>
       </c>
       <c r="P1" s="4"/>
@@ -2457,7 +11108,7 @@
       <c r="R1" s="1"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
+      <c r="A2" s="31"/>
       <c r="B2" s="11" t="s">
         <v>126</v>
       </c>
@@ -2476,16 +11127,16 @@
       <c r="G2" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="29" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="O2" s="29" t="s">
+      <c r="O2" s="30" t="s">
         <v>124</v>
       </c>
       <c r="P2" s="4"/>
@@ -8218,7 +16869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -8232,55 +16883,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="30" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29" t="s">
+      <c r="M1" s="30"/>
+      <c r="N1" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29" t="s">
+      <c r="O1" s="30"/>
+      <c r="P1" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29" t="s">
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="S1" s="29" t="s">
+      <c r="S1" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="T1" s="32" t="s">
+      <c r="T1" s="33" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
+      <c r="A2" s="31"/>
       <c r="B2" s="3" t="s">
         <v>126</v>
       </c>
@@ -8299,19 +16950,19 @@
       <c r="G2" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="32"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="33"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -15614,6 +24265,415 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AO3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AL11" sqref="AL11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="29"/>
+    <col min="2" max="26" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="27" max="41" width="9.140625" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="str">
+        <f t="array" ref="A1">[1]Results!A:A</f>
+        <v>Point #</v>
+      </c>
+      <c r="B1" s="36" t="str">
+        <f t="array" ref="B1">[1]Results!B:B</f>
+        <v>Building</v>
+      </c>
+      <c r="C1" s="36" t="str">
+        <f t="array" ref="C1">[1]Results!C:C</f>
+        <v>Level</v>
+      </c>
+      <c r="D1" s="36" t="str">
+        <f t="array" ref="D1">[1]Results!D:D</f>
+        <v>x (m)</v>
+      </c>
+      <c r="E1" s="36" t="str">
+        <f t="array" ref="E1">[1]Results!E:E</f>
+        <v>y (m)</v>
+      </c>
+      <c r="F1" s="36" t="str">
+        <f t="array" ref="F1">[1]Results!F:F</f>
+        <v>z (m)</v>
+      </c>
+      <c r="G1" s="36" t="str">
+        <f t="array" ref="G1">[1]Results!G:G</f>
+        <v>Level Min Width</v>
+      </c>
+      <c r="H1" s="36" t="str">
+        <f t="array" ref="H1">[1]Results!H:H</f>
+        <v>Level Height</v>
+      </c>
+      <c r="I1" s="36" t="str">
+        <f t="array" ref="I1">[1]Results!I:I</f>
+        <v>Air Terminal Height</v>
+      </c>
+      <c r="J1" s="36" t="str">
+        <f t="array" ref="J1">[1]Results!J:J</f>
+        <v>Air Terminal Type</v>
+      </c>
+      <c r="K1" s="36" t="str">
+        <f t="array" ref="K1">[1]Results!K:K</f>
+        <v>POI Location Type</v>
+      </c>
+      <c r="L1" s="36" t="str">
+        <f t="array" ref="L1">[1]Results!L:L</f>
+        <v>Extended?</v>
+      </c>
+      <c r="M1" s="36" t="str">
+        <f t="array" ref="M1">[1]Results!M:M</f>
+        <v>Gable Pitch</v>
+      </c>
+      <c r="N1" s="36" t="str">
+        <f t="array" ref="N1">[1]Results!N:N</f>
+        <v>Protected?</v>
+      </c>
+      <c r="O1" s="36" t="str">
+        <f t="array" ref="O1">[1]Results!O:O</f>
+        <v>Copy Me -&gt;</v>
+      </c>
+      <c r="P1" s="36" t="str">
+        <f t="array" ref="P1">[1]Results!P:P</f>
+        <v>Terminal</v>
+      </c>
+      <c r="Q1" s="36" t="str">
+        <f t="array" ref="Q1">[1]Results!Q:Q</f>
+        <v>Ki</v>
+      </c>
+      <c r="R1" s="36" t="str">
+        <f t="array" ref="R1">[1]Results!R:R</f>
+        <v>Height</v>
+      </c>
+      <c r="S1" s="36" t="str">
+        <f t="array" ref="S1">[1]Results!S:S</f>
+        <v>LPL</v>
+      </c>
+      <c r="T1" s="36" t="str">
+        <f t="array" ref="T1">[1]Results!T:T</f>
+        <v>ds</v>
+      </c>
+      <c r="U1" s="36" t="str">
+        <f t="array" ref="U1">[1]Results!U:U</f>
+        <v>zm</v>
+      </c>
+      <c r="V1" s="36" t="str">
+        <f t="array" ref="V1">[1]Results!V:V</f>
+        <v>z0</v>
+      </c>
+      <c r="W1" s="36" t="str">
+        <f t="array" ref="W1">[1]Results!W:W</f>
+        <v>RA</v>
+      </c>
+      <c r="X1" s="36" t="str">
+        <f t="array" ref="X1">[1]Results!X:X</f>
+        <v>zr</v>
+      </c>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="AA1" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="AB1" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="AC1" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="AD1" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="AE1" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="AF1" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="AG1" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH1" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="AI1" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ1" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="AK1" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="AL1" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="AM1" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="AN1" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="AO1" s="37" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="36">
+        <v>113</v>
+      </c>
+      <c r="B2" s="36">
+        <v>1</v>
+      </c>
+      <c r="C2" s="36">
+        <v>6.1</v>
+      </c>
+      <c r="D2" s="36">
+        <v>12.51</v>
+      </c>
+      <c r="E2" s="36">
+        <v>15.01</v>
+      </c>
+      <c r="F2" s="36">
+        <v>41.73</v>
+      </c>
+      <c r="G2" s="36">
+        <v>5</v>
+      </c>
+      <c r="H2" s="36">
+        <v>37.5</v>
+      </c>
+      <c r="I2" s="36">
+        <v>4.2299999999999969</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="L2" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="M2" s="36">
+        <v>0</v>
+      </c>
+      <c r="N2" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="O2" s="36">
+        <v>0</v>
+      </c>
+      <c r="P2" s="36">
+        <v>113</v>
+      </c>
+      <c r="Q2" s="36">
+        <v>175.1023049686188</v>
+      </c>
+      <c r="R2" s="36">
+        <v>41.73</v>
+      </c>
+      <c r="S2" s="36">
+        <v>1</v>
+      </c>
+      <c r="T2" s="36">
+        <v>62.2</v>
+      </c>
+      <c r="U2" s="36">
+        <v>0.37</v>
+      </c>
+      <c r="V2" s="36">
+        <v>21.85</v>
+      </c>
+      <c r="W2" s="36">
+        <v>56.2</v>
+      </c>
+      <c r="X2" s="36">
+        <v>68.382999999999996</v>
+      </c>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="AB2" s="39">
+        <v>12.51</v>
+      </c>
+      <c r="AC2" s="39">
+        <v>15.01</v>
+      </c>
+      <c r="AD2" s="39">
+        <v>41.73</v>
+      </c>
+      <c r="AE2" s="42">
+        <v>68.05</v>
+      </c>
+      <c r="AF2" s="41">
+        <v>4.8696313411227708E-3</v>
+      </c>
+      <c r="AG2" s="42">
+        <v>56.02</v>
+      </c>
+      <c r="AH2" s="41">
+        <v>3.2028469750889628E-3</v>
+      </c>
+      <c r="AI2" s="40">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="42">
+        <v>174.28</v>
+      </c>
+      <c r="AK2" s="41">
+        <v>4.6961401722619553E-3</v>
+      </c>
+      <c r="AL2" s="42">
+        <v>174.28</v>
+      </c>
+      <c r="AM2" s="42">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="42">
+        <v>61.9</v>
+      </c>
+      <c r="AO2" s="41">
+        <v>4.8231511254019973E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="36">
+        <v>114</v>
+      </c>
+      <c r="B3" s="36">
+        <v>1</v>
+      </c>
+      <c r="C3" s="36">
+        <v>5</v>
+      </c>
+      <c r="D3" s="36">
+        <v>27.46</v>
+      </c>
+      <c r="E3" s="36">
+        <v>15.15</v>
+      </c>
+      <c r="F3" s="36">
+        <v>39.28</v>
+      </c>
+      <c r="G3" s="36">
+        <v>10</v>
+      </c>
+      <c r="H3" s="36">
+        <v>35</v>
+      </c>
+      <c r="I3" s="36">
+        <v>4.2800000000000011</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="K3" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="L3" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="M3" s="36">
+        <v>0</v>
+      </c>
+      <c r="N3" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="O3" s="36">
+        <v>0</v>
+      </c>
+      <c r="P3" s="36">
+        <v>114</v>
+      </c>
+      <c r="Q3" s="36">
+        <v>132.88954753197081</v>
+      </c>
+      <c r="R3" s="36">
+        <v>39.28</v>
+      </c>
+      <c r="S3" s="36">
+        <v>1</v>
+      </c>
+      <c r="T3" s="36">
+        <v>47.6</v>
+      </c>
+      <c r="U3" s="36">
+        <v>0.37</v>
+      </c>
+      <c r="V3" s="36">
+        <v>20.57</v>
+      </c>
+      <c r="W3" s="36">
+        <v>45.777999999999999</v>
+      </c>
+      <c r="X3" s="36">
+        <v>52.323</v>
+      </c>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38">
+        <v>4.28</v>
+      </c>
+      <c r="AB3" s="39">
+        <v>27.46</v>
+      </c>
+      <c r="AC3" s="39">
+        <v>15.15</v>
+      </c>
+      <c r="AD3" s="39">
+        <v>39.28</v>
+      </c>
+      <c r="AE3" s="42">
+        <v>52.07</v>
+      </c>
+      <c r="AF3" s="41">
+        <v>4.8353496550274282E-3</v>
+      </c>
+      <c r="AG3" s="42">
+        <v>45.61</v>
+      </c>
+      <c r="AH3" s="41">
+        <v>3.669885097645141E-3</v>
+      </c>
+      <c r="AI3" s="40">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="42">
+        <v>132.21</v>
+      </c>
+      <c r="AK3" s="41">
+        <v>5.1136266515416553E-3</v>
+      </c>
+      <c r="AL3" s="42">
+        <v>132.21</v>
+      </c>
+      <c r="AM3" s="42">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="42">
+        <v>47.37</v>
+      </c>
+      <c r="AO3" s="41">
+        <v>4.8319327731093271E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
